--- a/tmee/data_in/data_dictionary/indicator_dictionary_TM_v5.xlsx
+++ b/tmee/data_in/data_dictionary/indicator_dictionary_TM_v5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16f1c7c3db740efb/UNICEF/TransMonEE/data-etl/tmee/data_in/data_dictionary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beto\OneDrive\UNICEF\TransMonEE\data-etl\tmee\data_in\data_dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="220" documentId="11_0ED489CFCE2D5BBE6E7F372033D5229152D9D0AC" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3E17D1A5-B13E-454A-928A-B1497F9342B2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F228BF51-7637-4696-9515-A7C92CE528E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5663" uniqueCount="2872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5699" uniqueCount="2886">
   <si>
     <t>snapshot_id</t>
   </si>
@@ -8660,6 +8660,48 @@
   </si>
   <si>
     <t>SN-215</t>
+  </si>
+  <si>
+    <t>Population of the official age for primary and secondary education - ISCED 1 to 3 included - (number of persons, by sex)</t>
+  </si>
+  <si>
+    <t>EDUNF_SAP_L1T3</t>
+  </si>
+  <si>
+    <t>UIS: EDUNF_SAP_L1T3</t>
+  </si>
+  <si>
+    <t>https://api.uis.unesco.org/sdmx/data/UNESCO,EDU_NON_FINANCE,3.0/SAP.PER.L1T3.._T+F+M.SCH_AGE_GROUP................</t>
+  </si>
+  <si>
+    <t>EDUNF_OFST_L1T3</t>
+  </si>
+  <si>
+    <t>Number of out-of-school children, adolescents and youth of primary and secondary school age (persons, by sex)</t>
+  </si>
+  <si>
+    <t>UIS: EDUNF_OFST_L1T3</t>
+  </si>
+  <si>
+    <t>https://api.uis.unesco.org/sdmx/data/UNESCO,EDU_NON_FINANCE,3.0/OFST.PER.L1T3.._T+F+M.SCH_AGE_GROUP................</t>
+  </si>
+  <si>
+    <t>SN-216</t>
+  </si>
+  <si>
+    <t>SN-217</t>
+  </si>
+  <si>
+    <t>I-637</t>
+  </si>
+  <si>
+    <t>I-638</t>
+  </si>
+  <si>
+    <t>S-226</t>
+  </si>
+  <si>
+    <t>S-227</t>
   </si>
 </sst>
 </file>
@@ -9410,10 +9452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L217"/>
+  <dimension ref="A1:L219"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="H213" sqref="H213:H217"/>
+      <selection activeCell="H220" sqref="H220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9534,7 +9576,7 @@
         <v>56</v>
       </c>
       <c r="I3" s="25" t="str">
-        <f>VLOOKUP(H3,Source!$A$2:$G$265,3,FALSE)</f>
+        <f>VLOOKUP(H3,Source!$A$2:$G$267,3,FALSE)</f>
         <v>Helix: DM_POP_URBN</v>
       </c>
       <c r="J3" s="1"/>
@@ -9569,7 +9611,7 @@
         <v>59</v>
       </c>
       <c r="I4" s="25" t="str">
-        <f>VLOOKUP(H4,Source!$A$2:$G$265,3,FALSE)</f>
+        <f>VLOOKUP(H4,Source!$A$2:$G$267,3,FALSE)</f>
         <v>WHO: WHS_PBR</v>
       </c>
       <c r="J4" s="1"/>
@@ -10673,11 +10715,11 @@
         <v>117</v>
       </c>
       <c r="C37" s="44" t="str">
-        <f>VLOOKUP(B37,Indicator!$A$2:$F$762,5,FALSE)</f>
+        <f>VLOOKUP(B37,Indicator!$A$2:$F$764,5,FALSE)</f>
         <v>Percentage of children (by sex, age groups, residence and wealth quintile) with whom any adult household member has engaged in 4 or more activities to provide early stimulation and responsive care in the last 3 days</v>
       </c>
       <c r="D37" s="25" t="str">
-        <f>VLOOKUP(B37,Indicator!$A$2:$F$762,6,FALSE)</f>
+        <f>VLOOKUP(B37,Indicator!$A$2:$F$764,6,FALSE)</f>
         <v>ECD_CHLD_36-59M_ADLT_SRC</v>
       </c>
       <c r="E37" s="1">
@@ -10707,11 +10749,11 @@
         <v>120</v>
       </c>
       <c r="C38" s="44" t="str">
-        <f>VLOOKUP(B38,Indicator!$A$2:$F$762,5,FALSE)</f>
+        <f>VLOOKUP(B38,Indicator!$A$2:$F$764,5,FALSE)</f>
         <v>Coverage of treatment interventions (pharmacological, psychosocial and rehabilitation and aftercare services) for substance use disorders (%)</v>
       </c>
       <c r="D38" s="25" t="str">
-        <f>VLOOKUP(B38,Indicator!$A$2:$F$762,6,FALSE)</f>
+        <f>VLOOKUP(B38,Indicator!$A$2:$F$764,6,FALSE)</f>
         <v>HT_SH_SUD_TREAT</v>
       </c>
       <c r="E38" s="1">
@@ -10741,11 +10783,11 @@
         <v>1064</v>
       </c>
       <c r="C39" s="49" t="str">
-        <f>VLOOKUP(B39,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B39,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Early childhood educational development enrolments (absolute number)</v>
       </c>
       <c r="D39" s="25" t="str">
-        <f>VLOOKUP(B39,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B39,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_STU_L01_TOT</v>
       </c>
       <c r="E39" s="1">
@@ -10775,11 +10817,11 @@
         <v>1066</v>
       </c>
       <c r="C40" s="49" t="str">
-        <f>VLOOKUP(B40,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B40,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Early childhood educational development enrolments in public institutions</v>
       </c>
       <c r="D40" s="25" t="str">
-        <f>VLOOKUP(B40,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B40,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_STU_L01_PUB</v>
       </c>
       <c r="E40" s="1">
@@ -10809,11 +10851,11 @@
         <v>132</v>
       </c>
       <c r="C41" s="49" t="str">
-        <f>VLOOKUP(B41,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B41,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Early childhood educational development enrolments in private institutions</v>
       </c>
       <c r="D41" s="25" t="str">
-        <f>VLOOKUP(B41,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B41,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_STU_L01_PRV</v>
       </c>
       <c r="E41" s="1">
@@ -10843,11 +10885,11 @@
         <v>135</v>
       </c>
       <c r="C42" s="49" t="str">
-        <f>VLOOKUP(B42,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B42,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Children in early childhood educational development programs (gross enrolment ratio, % of children aged 0-2)</v>
       </c>
       <c r="D42" s="25" t="str">
-        <f>VLOOKUP(B42,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B42,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_SDG_GER_L01</v>
       </c>
       <c r="E42" s="1">
@@ -10877,11 +10919,11 @@
         <v>144</v>
       </c>
       <c r="C43" s="49" t="str">
-        <f>VLOOKUP(B43,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B43,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Number of years of free pre-primary education guaranteed in legal framework (SDG 4.2.5)</v>
       </c>
       <c r="D43" s="25" t="str">
-        <f>VLOOKUP(B43,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B43,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_SDG_FREE_EDU_L02</v>
       </c>
       <c r="E43" s="1">
@@ -10911,11 +10953,11 @@
         <v>147</v>
       </c>
       <c r="C44" s="49" t="str">
-        <f>VLOOKUP(B44,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B44,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Number of years of compulsory pre-primary education guaranteed in legal framework (SDG 4.2.5)</v>
       </c>
       <c r="D44" s="25" t="str">
-        <f>VLOOKUP(B44,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B44,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_SDG_COMP_EDU_L02</v>
       </c>
       <c r="E44" s="1">
@@ -10945,11 +10987,11 @@
         <v>150</v>
       </c>
       <c r="C45" s="49" t="str">
-        <f>VLOOKUP(B45,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B45,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Pre-primary (ISCED 02) education enrolments (absolute number)</v>
       </c>
       <c r="D45" s="25" t="str">
-        <f>VLOOKUP(B45,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B45,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_STU_L02_TOT</v>
       </c>
       <c r="E45" s="1">
@@ -10979,11 +11021,11 @@
         <v>153</v>
       </c>
       <c r="C46" s="49" t="str">
-        <f>VLOOKUP(B46,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B46,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Pre-primary (ISCED 02) education enrolments in public institutions</v>
       </c>
       <c r="D46" s="25" t="str">
-        <f>VLOOKUP(B46,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B46,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_STU_L02_PUB</v>
       </c>
       <c r="E46" s="1">
@@ -11013,11 +11055,11 @@
         <v>156</v>
       </c>
       <c r="C47" s="49" t="str">
-        <f>VLOOKUP(B47,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B47,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Pre-primary (ISCED 02) education enrolments in  private institutions</v>
       </c>
       <c r="D47" s="25" t="str">
-        <f>VLOOKUP(B47,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B47,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_STU_L02_PRV</v>
       </c>
       <c r="E47" s="1">
@@ -11047,11 +11089,11 @@
         <v>1083</v>
       </c>
       <c r="C48" s="49" t="str">
-        <f>VLOOKUP(B48,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B48,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Enrolment in pre-primary (ISCED 02) education (gross enrolment ratio, % of population aged 3-6, by sex)</v>
       </c>
       <c r="D48" s="25" t="str">
-        <f>VLOOKUP(B48,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B48,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_GER_L02</v>
       </c>
       <c r="E48" s="1">
@@ -11081,11 +11123,11 @@
         <v>159</v>
       </c>
       <c r="C49" s="49" t="str">
-        <f>VLOOKUP(B49,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B49,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Enrolment in pre-primary  (ISCED 02) education (net enrolment ratio, % of population aged 3-6, by sex)</v>
       </c>
       <c r="D49" s="25" t="str">
-        <f>VLOOKUP(B49,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B49,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_NER_L02</v>
       </c>
       <c r="E49" s="1">
@@ -11115,11 +11157,11 @@
         <v>1086</v>
       </c>
       <c r="C50" s="49" t="str">
-        <f>VLOOKUP(B50,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B50,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Enrolment in private institutions of pre-primary (ISCED 02) education ( % of all children enrolled in respective level of education)</v>
       </c>
       <c r="D50" s="25" t="str">
-        <f>VLOOKUP(B50,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B50,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_PRP_L02</v>
       </c>
       <c r="E50" s="1">
@@ -11149,11 +11191,11 @@
         <v>1088</v>
       </c>
       <c r="C51" s="49" t="str">
-        <f>VLOOKUP(B51,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B51,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Percentage of females in pre-primary (ISCED 02) education (% of all students enrolled in the respective level of education)</v>
       </c>
       <c r="D51" s="25" t="str">
-        <f>VLOOKUP(B51,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B51,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_FEP_L02</v>
       </c>
       <c r="E51" s="1">
@@ -11183,11 +11225,11 @@
         <v>162</v>
       </c>
       <c r="C52" s="49" t="str">
-        <f>VLOOKUP(B52,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B52,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Participation in organized learning (Adjusted net enrolment rate, one year before official primary entry age - Administrative data) (SDG 4.2.2.)</v>
       </c>
       <c r="D52" s="25" t="str">
-        <f>VLOOKUP(B52,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B52,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_NERA_L1_UNDER1</v>
       </c>
       <c r="E52" s="1">
@@ -11217,11 +11259,11 @@
         <v>1093</v>
       </c>
       <c r="C53" s="49" t="str">
-        <f>VLOOKUP(B53,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B53,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Participation in organized learning (Adjusted net attendance rate, one year before official primary entry age - Household survey data) (SDG 4.2.2.)</v>
       </c>
       <c r="D53" s="25" t="str">
-        <f>VLOOKUP(B53,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B53,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_NARA_L1_UNDER1</v>
       </c>
       <c r="E53" s="1">
@@ -11251,11 +11293,11 @@
         <v>165</v>
       </c>
       <c r="C54" s="49" t="str">
-        <f>VLOOKUP(B54,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B54,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Percentage of children (aged 36-59 months, by sex, residence and wealth quintile) developmentally on track in at least 3 of the 4 following domains: literacy-numeracy, physical, social-emotional and learning</v>
       </c>
       <c r="D54" s="25" t="str">
-        <f>VLOOKUP(B54,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B54,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>ECD_CHLD_36-59M_LMPSL</v>
       </c>
       <c r="E54" s="1">
@@ -11285,11 +11327,11 @@
         <v>171</v>
       </c>
       <c r="C55" s="49" t="str">
-        <f>VLOOKUP(B55,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B55,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Net Intake Rate to primary education of official entry age</v>
       </c>
       <c r="D55" s="25" t="str">
-        <f>VLOOKUP(B55,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B55,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_NIR_L1_ENTRYAGE</v>
       </c>
       <c r="E55" s="1">
@@ -11319,11 +11361,11 @@
         <v>177</v>
       </c>
       <c r="C56" s="49" t="str">
-        <f>VLOOKUP(B56,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B56,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Primary education (ISCED 1) enrolments (absolute number)</v>
       </c>
       <c r="D56" s="25" t="str">
-        <f>VLOOKUP(B56,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B56,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_STU_L1_TOT</v>
       </c>
       <c r="E56" s="1">
@@ -11353,11 +11395,11 @@
         <v>180</v>
       </c>
       <c r="C57" s="49" t="str">
-        <f>VLOOKUP(B57,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B57,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Percentage of females in primary  (ISCED 1) education (% of all students enrolled in the respective level of education)</v>
       </c>
       <c r="D57" s="25" t="str">
-        <f>VLOOKUP(B57,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B57,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_FEP_L1</v>
       </c>
       <c r="E57" s="1">
@@ -11387,11 +11429,11 @@
         <v>183</v>
       </c>
       <c r="C58" s="49" t="str">
-        <f>VLOOKUP(B58,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B58,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Lower Secondary education (ISCED 2) enrolments (absolute number)</v>
       </c>
       <c r="D58" s="25" t="str">
-        <f>VLOOKUP(B58,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B58,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_STU_L2_TOT</v>
       </c>
       <c r="E58" s="1">
@@ -11421,11 +11463,11 @@
         <v>186</v>
       </c>
       <c r="C59" s="49" t="str">
-        <f>VLOOKUP(B59,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B59,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Percentage of females in lower secondary  (ISCED 2) education (% of all students enrolled in the respective level of education)</v>
       </c>
       <c r="D59" s="25" t="str">
-        <f>VLOOKUP(B59,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B59,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_FEP_L2</v>
       </c>
       <c r="E59" s="1">
@@ -11455,11 +11497,11 @@
         <v>189</v>
       </c>
       <c r="C60" s="49" t="str">
-        <f>VLOOKUP(B60,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B60,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Upper secondary education (ISCED 3) enrolment (absolute number)</v>
       </c>
       <c r="D60" s="25" t="str">
-        <f>VLOOKUP(B60,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B60,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_STU_L3_TOT</v>
       </c>
       <c r="E60" s="1">
@@ -11489,11 +11531,11 @@
         <v>192</v>
       </c>
       <c r="C61" s="49" t="str">
-        <f>VLOOKUP(B61,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B61,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Percentage of females in upper secondary education (ISCED 3) (% of all students enrolled in the respective level of education)</v>
       </c>
       <c r="D61" s="25" t="str">
-        <f>VLOOKUP(B61,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B61,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_FEP_L3</v>
       </c>
       <c r="E61" s="1">
@@ -11523,11 +11565,11 @@
         <v>1112</v>
       </c>
       <c r="C62" s="49" t="str">
-        <f>VLOOKUP(B62,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B62,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Percentage of females in general upper-secondary education  (% of all students enrolled in the respective level of education)</v>
       </c>
       <c r="D62" s="25" t="str">
-        <f>VLOOKUP(B62,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B62,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_FEP_L3_GEN</v>
       </c>
       <c r="E62" s="1">
@@ -11557,11 +11599,11 @@
         <v>195</v>
       </c>
       <c r="C63" s="49" t="str">
-        <f>VLOOKUP(B63,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B63,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Percentage of females in vocational upper-secondary education  (% of all students enrolled in the respective level of education)</v>
       </c>
       <c r="D63" s="25" t="str">
-        <f>VLOOKUP(B63,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B63,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_FEP_L3_VOC</v>
       </c>
       <c r="E63" s="1">
@@ -11591,11 +11633,11 @@
         <v>198</v>
       </c>
       <c r="C64" s="49" t="str">
-        <f>VLOOKUP(B64,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B64,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Upper secondary enrolment by program orientation - General (number)</v>
       </c>
       <c r="D64" s="25" t="str">
-        <f>VLOOKUP(B64,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B64,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_STU_L3_GEN</v>
       </c>
       <c r="E64" s="1">
@@ -11625,11 +11667,11 @@
         <v>201</v>
       </c>
       <c r="C65" s="49" t="str">
-        <f>VLOOKUP(B65,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B65,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Upper secondary enrolment by program orientation - Vocational (number)</v>
       </c>
       <c r="D65" s="25" t="str">
-        <f>VLOOKUP(B65,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B65,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_STU_L3_VOC</v>
       </c>
       <c r="E65" s="1">
@@ -11659,11 +11701,11 @@
         <v>207</v>
       </c>
       <c r="C66" s="49" t="str">
-        <f>VLOOKUP(B66,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B66,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Primary (ISCED 1) education enrolments in public institutions</v>
       </c>
       <c r="D66" s="25" t="str">
-        <f>VLOOKUP(B66,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B66,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_STU_L1_PUB</v>
       </c>
       <c r="E66" s="1">
@@ -11693,11 +11735,11 @@
         <v>210</v>
       </c>
       <c r="C67" s="49" t="str">
-        <f>VLOOKUP(B67,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B67,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Primary (ISCED 1) education enrolments in  private institutions</v>
       </c>
       <c r="D67" s="25" t="str">
-        <f>VLOOKUP(B67,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B67,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_STU_L1_PRV</v>
       </c>
       <c r="E67" s="1">
@@ -11727,11 +11769,11 @@
         <v>213</v>
       </c>
       <c r="C68" s="49" t="str">
-        <f>VLOOKUP(B68,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B68,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Enrolment in private schools of primary (ISCED 1) education (% of all students enrolled in primary education)</v>
       </c>
       <c r="D68" s="25" t="str">
-        <f>VLOOKUP(B68,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B68,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_PRP_L1</v>
       </c>
       <c r="E68" s="1">
@@ -11761,11 +11803,11 @@
         <v>216</v>
       </c>
       <c r="C69" s="49" t="str">
-        <f>VLOOKUP(B69,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B69,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Lower Secondary education (ISCED 2) enrolments in public institutions</v>
       </c>
       <c r="D69" s="25" t="str">
-        <f>VLOOKUP(B69,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B69,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_STU_L2_PUB</v>
       </c>
       <c r="E69" s="1">
@@ -11795,11 +11837,11 @@
         <v>219</v>
       </c>
       <c r="C70" s="49" t="str">
-        <f>VLOOKUP(B70,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B70,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Lower Secondary education (ISCED 2) enrolments in private institutions</v>
       </c>
       <c r="D70" s="25" t="str">
-        <f>VLOOKUP(B70,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B70,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_STU_L2_PRV</v>
       </c>
       <c r="E70" s="1">
@@ -11829,11 +11871,11 @@
         <v>222</v>
       </c>
       <c r="C71" s="49" t="str">
-        <f>VLOOKUP(B71,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B71,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Enrolment in private schools of lower secondary (ISCED 2) education (% of all students enrolled in the respective level of education)</v>
       </c>
       <c r="D71" s="25" t="str">
-        <f>VLOOKUP(B71,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B71,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_PRP_L2</v>
       </c>
       <c r="E71" s="1">
@@ -11863,11 +11905,11 @@
         <v>225</v>
       </c>
       <c r="C72" s="49" t="str">
-        <f>VLOOKUP(B72,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B72,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Upper secondary education (ISCED 3) enrolment (absolute number) -public institutions</v>
       </c>
       <c r="D72" s="25" t="str">
-        <f>VLOOKUP(B72,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B72,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_STU_L3_PUB</v>
       </c>
       <c r="E72" s="1">
@@ -11897,11 +11939,11 @@
         <v>1136</v>
       </c>
       <c r="C73" s="49" t="str">
-        <f>VLOOKUP(B73,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B73,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Upper secondary education (ISCED 3) enrolment (absolute number) -private institutions</v>
       </c>
       <c r="D73" s="25" t="str">
-        <f>VLOOKUP(B73,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B73,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_STU_L3_PRV</v>
       </c>
       <c r="E73" s="1">
@@ -11931,11 +11973,11 @@
         <v>228</v>
       </c>
       <c r="C74" s="49" t="str">
-        <f>VLOOKUP(B74,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B74,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Enrolment in private schools of upper secondary (ISCED 3) education (% of all students enrolled in the respective level of education)</v>
       </c>
       <c r="D74" s="25" t="str">
-        <f>VLOOKUP(B74,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B74,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_PRP_L3</v>
       </c>
       <c r="E74" s="1">
@@ -11965,11 +12007,11 @@
         <v>231</v>
       </c>
       <c r="C75" s="49" t="str">
-        <f>VLOOKUP(B75,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B75,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Upper secondary enrolment by program orientation and type of institution - General, public institutions</v>
       </c>
       <c r="D75" s="25" t="str">
-        <f>VLOOKUP(B75,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B75,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_STU_L3_GEN_PUB</v>
       </c>
       <c r="E75" s="1">
@@ -11999,11 +12041,11 @@
         <v>234</v>
       </c>
       <c r="C76" s="49" t="str">
-        <f>VLOOKUP(B76,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B76,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Upper secondary enrolment by program orientation and type of institution - General, private institutions</v>
       </c>
       <c r="D76" s="25" t="str">
-        <f>VLOOKUP(B76,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B76,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_STU_L3_GEN_PRV</v>
       </c>
       <c r="E76" s="1">
@@ -12033,11 +12075,11 @@
         <v>240</v>
       </c>
       <c r="C77" s="49" t="str">
-        <f>VLOOKUP(B77,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B77,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Vocational or technical upper secondary education enrolments in public institutions</v>
       </c>
       <c r="D77" s="25" t="str">
-        <f>VLOOKUP(B77,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B77,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_STU_L3_VOC_PUB</v>
       </c>
       <c r="E77" s="1">
@@ -12067,11 +12109,11 @@
         <v>243</v>
       </c>
       <c r="C78" s="49" t="str">
-        <f>VLOOKUP(B78,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B78,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Vocational or technical upper secondary education enrolments  in private institutions</v>
       </c>
       <c r="D78" s="25" t="str">
-        <f>VLOOKUP(B78,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B78,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_STU_L3_VOC_PRV</v>
       </c>
       <c r="E78" s="1">
@@ -12101,11 +12143,11 @@
         <v>246</v>
       </c>
       <c r="C79" s="49" t="str">
-        <f>VLOOKUP(B79,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B79,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Primary education (ISCED 1) gross enrolment ratio (% of relevant population)</v>
       </c>
       <c r="D79" s="25" t="str">
-        <f>VLOOKUP(B79,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B79,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_GER_L1</v>
       </c>
       <c r="E79" s="1">
@@ -12135,11 +12177,11 @@
         <v>249</v>
       </c>
       <c r="C80" s="49" t="str">
-        <f>VLOOKUP(B80,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B80,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Lower secondary education (ISCED 2) gross enrolment ratio (% of relevant population)</v>
       </c>
       <c r="D80" s="25" t="str">
-        <f>VLOOKUP(B80,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B80,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_GER_L2</v>
       </c>
       <c r="E80" s="1">
@@ -12169,11 +12211,11 @@
         <v>252</v>
       </c>
       <c r="C81" s="49" t="str">
-        <f>VLOOKUP(B81,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B81,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Basic education (ISCED 1 and 2) gross enrolment ratio (% of relevant population)</v>
       </c>
       <c r="D81" s="25" t="str">
-        <f>VLOOKUP(B81,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B81,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_GER_L1AND2</v>
       </c>
       <c r="E81" s="1">
@@ -12203,11 +12245,11 @@
         <v>255</v>
       </c>
       <c r="C82" s="49" t="str">
-        <f>VLOOKUP(B82,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B82,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Lower secondary education (ISCED 2) gross enrolment ratio by program orientation - General (% of relevant population)</v>
       </c>
       <c r="D82" s="25" t="str">
-        <f>VLOOKUP(B82,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B82,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_GER_L2_GEN</v>
       </c>
       <c r="E82" s="1">
@@ -12237,11 +12279,11 @@
         <v>258</v>
       </c>
       <c r="C83" s="49" t="str">
-        <f>VLOOKUP(B83,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B83,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Lower secondary education (ISCED 2) gross enrolment ratio by program orientation - Vocational (% of relevant population)</v>
       </c>
       <c r="D83" s="25" t="str">
-        <f>VLOOKUP(B83,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B83,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_GER_L2_VOC</v>
       </c>
       <c r="E83" s="1">
@@ -12271,11 +12313,11 @@
         <v>261</v>
       </c>
       <c r="C84" s="49" t="str">
-        <f>VLOOKUP(B84,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B84,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Upper-secondary education (ISCED 3) gross enrolment ratio (% of population aged 15-18)</v>
       </c>
       <c r="D84" s="25" t="str">
-        <f>VLOOKUP(B84,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B84,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_GER_L3</v>
       </c>
       <c r="E84" s="1">
@@ -12305,11 +12347,11 @@
         <v>264</v>
       </c>
       <c r="C85" s="49" t="str">
-        <f>VLOOKUP(B85,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B85,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Upper secondary gross enrolment ratio by program orientiation - General (% of population aged 15-18)</v>
       </c>
       <c r="D85" s="25" t="str">
-        <f>VLOOKUP(B85,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B85,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_GER_L3_GEN</v>
       </c>
       <c r="E85" s="1">
@@ -12339,11 +12381,11 @@
         <v>267</v>
       </c>
       <c r="C86" s="49" t="str">
-        <f>VLOOKUP(B86,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B86,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Upper secondary gross enrolment ratio by program orientiation - Vocational (% of population aged 15-18)</v>
       </c>
       <c r="D86" s="25" t="str">
-        <f>VLOOKUP(B86,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B86,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_GER_L3_VOC</v>
       </c>
       <c r="E86" s="1">
@@ -12373,11 +12415,11 @@
         <v>270</v>
       </c>
       <c r="C87" s="49" t="str">
-        <f>VLOOKUP(B87,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B87,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Adjusted net enrolment rate: primary education (%)</v>
       </c>
       <c r="D87" s="25" t="str">
-        <f>VLOOKUP(B87,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B87,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_NERA_L1</v>
       </c>
       <c r="E87" s="1">
@@ -12407,11 +12449,11 @@
         <v>273</v>
       </c>
       <c r="C88" s="49" t="str">
-        <f>VLOOKUP(B88,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B88,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Adjusted net enrolment rate: lower secondary (%)</v>
       </c>
       <c r="D88" s="25" t="str">
-        <f>VLOOKUP(B88,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B88,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_NERA_L2</v>
       </c>
       <c r="E88" s="1">
@@ -12441,11 +12483,11 @@
         <v>276</v>
       </c>
       <c r="C89" s="49" t="str">
-        <f>VLOOKUP(B89,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B89,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Proportion of children in grade 2 or 3 reaching minimum proficiency in reading</v>
       </c>
       <c r="D89" s="25" t="str">
-        <f>VLOOKUP(B89,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B89,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_SDG_STU_L1_G2OR3_REA</v>
       </c>
       <c r="E89" s="1">
@@ -12475,11 +12517,11 @@
         <v>279</v>
       </c>
       <c r="C90" s="49" t="str">
-        <f>VLOOKUP(B90,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B90,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Proportion of children in grade 2 or 3 reaching minimum proficiency in math</v>
       </c>
       <c r="D90" s="25" t="str">
-        <f>VLOOKUP(B90,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B90,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_SDG_STU_L1_G2OR3_MAT</v>
       </c>
       <c r="E90" s="1">
@@ -12509,11 +12551,11 @@
         <v>282</v>
       </c>
       <c r="C91" s="49" t="str">
-        <f>VLOOKUP(B91,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B91,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Proportion of children at the end of primary education reaching minimum proficiency in reading</v>
       </c>
       <c r="D91" s="25" t="str">
-        <f>VLOOKUP(B91,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B91,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_SDG_STU_L1_GLAST_REA</v>
       </c>
       <c r="E91" s="1">
@@ -12543,11 +12585,11 @@
         <v>285</v>
       </c>
       <c r="C92" s="49" t="str">
-        <f>VLOOKUP(B92,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B92,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Proportion of children at the end of primary education reaching minimum proficiency in math</v>
       </c>
       <c r="D92" s="25" t="str">
-        <f>VLOOKUP(B92,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B92,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_SDG_STU_L1_GLAST_MAT</v>
       </c>
       <c r="E92" s="1">
@@ -12577,11 +12619,11 @@
         <v>288</v>
       </c>
       <c r="C93" s="49" t="str">
-        <f>VLOOKUP(B93,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B93,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Proportion of children at the end of lower secondary education reaching minimum proficiency in reading</v>
       </c>
       <c r="D93" s="25" t="str">
-        <f>VLOOKUP(B93,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B93,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_SDG_STU_L2_GLAST_REA</v>
       </c>
       <c r="E93" s="1">
@@ -12611,11 +12653,11 @@
         <v>291</v>
       </c>
       <c r="C94" s="49" t="str">
-        <f>VLOOKUP(B94,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B94,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Proportion of children at the end of lower secondary education reaching minimum proficiency in math</v>
       </c>
       <c r="D94" s="25" t="str">
-        <f>VLOOKUP(B94,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B94,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_SDG_STU_L2_GLAST_MAT</v>
       </c>
       <c r="E94" s="1">
@@ -12645,11 +12687,11 @@
         <v>1167</v>
       </c>
       <c r="C95" s="49" t="str">
-        <f>VLOOKUP(B95,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B95,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Administration of nationally representative learning assessment in reading (End primary)</v>
       </c>
       <c r="D95" s="25" t="str">
-        <f>VLOOKUP(B95,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B95,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_ADMIN_L1_GLAST_REA</v>
       </c>
       <c r="E95" s="1">
@@ -12679,11 +12721,11 @@
         <v>1168</v>
       </c>
       <c r="C96" s="49" t="str">
-        <f>VLOOKUP(B96,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B96,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Administration of nationally representative learning assessment in math (End primary)</v>
       </c>
       <c r="D96" s="25" t="str">
-        <f>VLOOKUP(B96,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B96,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_ADMIN_L1_GLAST_MAT</v>
       </c>
       <c r="E96" s="1">
@@ -12713,11 +12755,11 @@
         <v>1169</v>
       </c>
       <c r="C97" s="49" t="str">
-        <f>VLOOKUP(B97,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B97,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Administration of nationally representative learning assessment in reading (Lower secondary)</v>
       </c>
       <c r="D97" s="25" t="str">
-        <f>VLOOKUP(B97,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B97,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_ADMIN_L2_REA</v>
       </c>
       <c r="E97" s="1">
@@ -12747,11 +12789,11 @@
         <v>1170</v>
       </c>
       <c r="C98" s="49" t="str">
-        <f>VLOOKUP(B98,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B98,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Administration of nationally representative learning assessment in math (Lower secondary)</v>
       </c>
       <c r="D98" s="25" t="str">
-        <f>VLOOKUP(B98,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B98,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_ADMIN_L2_MAT</v>
       </c>
       <c r="E98" s="1">
@@ -12781,11 +12823,11 @@
         <v>1171</v>
       </c>
       <c r="C99" s="49" t="str">
-        <f>VLOOKUP(B99,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B99,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>TIMSS: Mean performance on the Mathematics scale for Grade 4 students by sex</v>
       </c>
       <c r="D99" s="25" t="str">
-        <f>VLOOKUP(B99,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B99,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_TIMSS_MAT4</v>
       </c>
       <c r="E99" s="1">
@@ -12815,11 +12857,11 @@
         <v>1172</v>
       </c>
       <c r="C100" s="49" t="str">
-        <f>VLOOKUP(B100,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B100,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>TIMSS: Mean performance on the Science scale for Grade 4 students by sex</v>
       </c>
       <c r="D100" s="25" t="str">
-        <f>VLOOKUP(B100,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B100,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_TIMSS_SCI4</v>
       </c>
       <c r="E100" s="1">
@@ -12849,11 +12891,11 @@
         <v>1173</v>
       </c>
       <c r="C101" s="49" t="str">
-        <f>VLOOKUP(B101,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B101,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>TIMSS: Mean performance on the Mathematics scale for Grade 8 students by sex</v>
       </c>
       <c r="D101" s="25" t="str">
-        <f>VLOOKUP(B101,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B101,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_TIMSS_MAT8</v>
       </c>
       <c r="E101" s="1">
@@ -12883,11 +12925,11 @@
         <v>1174</v>
       </c>
       <c r="C102" s="49" t="str">
-        <f>VLOOKUP(B102,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B102,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>TIMSS: Mean performance on the Science scale for Grade 8 students by sex</v>
       </c>
       <c r="D102" s="25" t="str">
-        <f>VLOOKUP(B102,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B102,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_TIMSS_SCI8</v>
       </c>
       <c r="E102" s="1">
@@ -12917,11 +12959,11 @@
         <v>1175</v>
       </c>
       <c r="C103" s="49" t="str">
-        <f>VLOOKUP(B103,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B103,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>PIRLS: Mean performance on the Reading scale for Grade 4 students by sex</v>
       </c>
       <c r="D103" s="25" t="str">
-        <f>VLOOKUP(B103,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B103,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_PIRLS_REA</v>
       </c>
       <c r="E103" s="1">
@@ -12951,11 +12993,11 @@
         <v>1176</v>
       </c>
       <c r="C104" s="49" t="str">
-        <f>VLOOKUP(B104,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B104,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>PISA: Mean performance on the Mathematics scale for 15-year-old students by sex</v>
       </c>
       <c r="D104" s="25" t="str">
-        <f>VLOOKUP(B104,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B104,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_PISA_MAT</v>
       </c>
       <c r="E104" s="1">
@@ -12985,11 +13027,11 @@
         <v>1177</v>
       </c>
       <c r="C105" s="49" t="str">
-        <f>VLOOKUP(B105,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B105,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>PISA: Mean performance on the Reading scale for 15-year-old students by sex</v>
       </c>
       <c r="D105" s="25" t="str">
-        <f>VLOOKUP(B105,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B105,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_PISA_REA</v>
       </c>
       <c r="E105" s="1">
@@ -13019,11 +13061,11 @@
         <v>294</v>
       </c>
       <c r="C106" s="49" t="str">
-        <f>VLOOKUP(B106,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B106,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>PISA: Mean performance on the Science scale for 15-year-old students by sex</v>
       </c>
       <c r="D106" s="25" t="str">
-        <f>VLOOKUP(B106,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B106,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_PISA_SCI</v>
       </c>
       <c r="E106" s="1">
@@ -13053,11 +13095,11 @@
         <v>306</v>
       </c>
       <c r="C107" s="49" t="str">
-        <f>VLOOKUP(B107,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B107,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Youth literacy rate, population 15-24 years by sex (%)</v>
       </c>
       <c r="D107" s="25" t="str">
-        <f>VLOOKUP(B107,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B107,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_LR_YOUTH</v>
       </c>
       <c r="E107" s="1">
@@ -13087,11 +13129,11 @@
         <v>309</v>
       </c>
       <c r="C108" s="49" t="str">
-        <f>VLOOKUP(B108,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B108,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Number of repeaters by sex in all grades of primary education (ISCED 1)</v>
       </c>
       <c r="D108" s="25" t="str">
-        <f>VLOOKUP(B108,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B108,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_RPTR_L1</v>
       </c>
       <c r="E108" s="1">
@@ -13121,11 +13163,11 @@
         <v>312</v>
       </c>
       <c r="C109" s="49" t="str">
-        <f>VLOOKUP(B109,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B109,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Number of repeaters by sex in all grades of lower secondary general education (ISCED 2 - C4)</v>
       </c>
       <c r="D109" s="25" t="str">
-        <f>VLOOKUP(B109,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B109,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_RPTR_L2</v>
       </c>
       <c r="E109" s="1">
@@ -13155,11 +13197,11 @@
         <v>315</v>
       </c>
       <c r="C110" s="49" t="str">
-        <f>VLOOKUP(B110,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B110,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Percentage of repeaters by sex in all grades of primary education (ISCED 1)</v>
       </c>
       <c r="D110" s="25" t="str">
-        <f>VLOOKUP(B110,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B110,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_REPP_L1</v>
       </c>
       <c r="E110" s="1">
@@ -13189,11 +13231,11 @@
         <v>318</v>
       </c>
       <c r="C111" s="49" t="str">
-        <f>VLOOKUP(B111,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B111,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Percentage of repeaters by sex in all grades of lower secondary general education (ISCED 2 - C4)</v>
       </c>
       <c r="D111" s="25" t="str">
-        <f>VLOOKUP(B111,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B111,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_REPP_L2</v>
       </c>
       <c r="E111" s="1">
@@ -13223,11 +13265,11 @@
         <v>321</v>
       </c>
       <c r="C112" s="49" t="str">
-        <f>VLOOKUP(B112,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B112,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Percentage of females among repeaters in primary education (ISCED 1)</v>
       </c>
       <c r="D112" s="25" t="str">
-        <f>VLOOKUP(B112,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B112,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_FRP_L1</v>
       </c>
       <c r="E112" s="1">
@@ -13244,7 +13286,7 @@
         <v>394</v>
       </c>
       <c r="I112" s="25" t="str">
-        <f>VLOOKUP(H112,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H112,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_FRP_L1</v>
       </c>
       <c r="K112" s="1"/>
@@ -13257,11 +13299,11 @@
         <v>324</v>
       </c>
       <c r="C113" s="49" t="str">
-        <f>VLOOKUP(B113,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B113,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Cumulative drop-out rate by sex in primary education (% to the last grade)</v>
       </c>
       <c r="D113" s="25" t="str">
-        <f>VLOOKUP(B113,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B113,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_DR_L1</v>
       </c>
       <c r="E113" s="1">
@@ -13278,7 +13320,7 @@
         <v>397</v>
       </c>
       <c r="I113" s="25" t="str">
-        <f>VLOOKUP(H113,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H113,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_DR_L1</v>
       </c>
       <c r="K113" s="1"/>
@@ -13291,11 +13333,11 @@
         <v>327</v>
       </c>
       <c r="C114" s="49" t="str">
-        <f>VLOOKUP(B114,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B114,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Number of early school leavers from primary education by sex</v>
       </c>
       <c r="D114" s="25" t="str">
-        <f>VLOOKUP(B114,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B114,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_ESL_L1</v>
       </c>
       <c r="E114" s="1">
@@ -13312,7 +13354,7 @@
         <v>400</v>
       </c>
       <c r="I114" s="25" t="str">
-        <f>VLOOKUP(H114,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H114,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_ESL_L1</v>
       </c>
       <c r="K114" s="1"/>
@@ -13325,11 +13367,11 @@
         <v>330</v>
       </c>
       <c r="C115" s="49" t="str">
-        <f>VLOOKUP(B115,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B115,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Cumulative drop-out rate by sex in lower secondary general education (% to the last grade)</v>
       </c>
       <c r="D115" s="25" t="str">
-        <f>VLOOKUP(B115,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B115,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_DR_L2</v>
       </c>
       <c r="E115" s="1">
@@ -13346,7 +13388,7 @@
         <v>403</v>
       </c>
       <c r="I115" s="25" t="str">
-        <f>VLOOKUP(H115,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H115,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_DR_L2</v>
       </c>
       <c r="K115" s="1"/>
@@ -13359,11 +13401,11 @@
         <v>333</v>
       </c>
       <c r="C116" s="49" t="str">
-        <f>VLOOKUP(B116,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B116,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Survival rate to the last grade of primary education by sex (%)</v>
       </c>
       <c r="D116" s="25" t="str">
-        <f>VLOOKUP(B116,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B116,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_SR_L1</v>
       </c>
       <c r="E116" s="1">
@@ -13380,7 +13422,7 @@
         <v>406</v>
       </c>
       <c r="I116" s="25" t="str">
-        <f>VLOOKUP(H116,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H116,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_SR_L1</v>
       </c>
       <c r="K116" s="1"/>
@@ -13393,11 +13435,11 @@
         <v>336</v>
       </c>
       <c r="C117" s="49" t="str">
-        <f>VLOOKUP(B117,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B117,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Survival rate to the last grade of lower secondary general education by sex (%)</v>
       </c>
       <c r="D117" s="25" t="str">
-        <f>VLOOKUP(B117,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B117,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_SR_L2</v>
       </c>
       <c r="E117" s="1">
@@ -13414,7 +13456,7 @@
         <v>409</v>
       </c>
       <c r="I117" s="25" t="str">
-        <f>VLOOKUP(H117,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H117,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_SR_L2</v>
       </c>
       <c r="K117" s="1"/>
@@ -13427,11 +13469,11 @@
         <v>339</v>
       </c>
       <c r="C118" s="49" t="str">
-        <f>VLOOKUP(B118,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B118,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Completion rate - Primary education</v>
       </c>
       <c r="D118" s="25" t="str">
-        <f>VLOOKUP(B118,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B118,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_CR_L1</v>
       </c>
       <c r="E118" s="1">
@@ -13448,7 +13490,7 @@
         <v>412</v>
       </c>
       <c r="I118" s="25" t="str">
-        <f>VLOOKUP(H118,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H118,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_CR_L1</v>
       </c>
       <c r="K118" s="1"/>
@@ -13461,11 +13503,11 @@
         <v>342</v>
       </c>
       <c r="C119" s="49" t="str">
-        <f>VLOOKUP(B119,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B119,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Completion rate - Lower secondary education</v>
       </c>
       <c r="D119" s="25" t="str">
-        <f>VLOOKUP(B119,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B119,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_CR_L2</v>
       </c>
       <c r="E119" s="1">
@@ -13482,7 +13524,7 @@
         <v>415</v>
       </c>
       <c r="I119" s="25" t="str">
-        <f>VLOOKUP(H119,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H119,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_CR_L2</v>
       </c>
       <c r="K119" s="1"/>
@@ -13495,11 +13537,11 @@
         <v>345</v>
       </c>
       <c r="C120" s="49" t="str">
-        <f>VLOOKUP(B120,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B120,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Completion rate - Upper secondary education</v>
       </c>
       <c r="D120" s="25" t="str">
-        <f>VLOOKUP(B120,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B120,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_CR_L3</v>
       </c>
       <c r="E120" s="1">
@@ -13516,7 +13558,7 @@
         <v>418</v>
       </c>
       <c r="I120" s="25" t="str">
-        <f>VLOOKUP(H120,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H120,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_CR_L3</v>
       </c>
       <c r="K120" s="1"/>
@@ -13529,11 +13571,11 @@
         <v>348</v>
       </c>
       <c r="C121" s="49" t="str">
-        <f>VLOOKUP(B121,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B121,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Effective transition rate by sex, from primary to lower secondary general education (%)</v>
       </c>
       <c r="D121" s="25" t="str">
-        <f>VLOOKUP(B121,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B121,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_TRANRA_L2</v>
       </c>
       <c r="E121" s="1">
@@ -13550,7 +13592,7 @@
         <v>421</v>
       </c>
       <c r="I121" s="25" t="str">
-        <f>VLOOKUP(H121,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H121,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_TRANRA_L2</v>
       </c>
       <c r="K121" s="1"/>
@@ -13563,11 +13605,11 @@
         <v>351</v>
       </c>
       <c r="C122" s="49" t="str">
-        <f>VLOOKUP(B122,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B122,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Number of out-of-school children of primary school age by sex</v>
       </c>
       <c r="D122" s="25" t="str">
-        <f>VLOOKUP(B122,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B122,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_OFST_L1</v>
       </c>
       <c r="E122" s="1">
@@ -13584,7 +13626,7 @@
         <v>424</v>
       </c>
       <c r="I122" s="25" t="str">
-        <f>VLOOKUP(H122,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H122,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_OFST_L1</v>
       </c>
       <c r="K122" s="1"/>
@@ -13597,11 +13639,11 @@
         <v>354</v>
       </c>
       <c r="C123" s="49" t="str">
-        <f>VLOOKUP(B123,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B123,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Out-of-school rate for children of primary school age by sex (%)</v>
       </c>
       <c r="D123" s="25" t="str">
-        <f>VLOOKUP(B123,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B123,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_ROFST_L1</v>
       </c>
       <c r="E123" s="1">
@@ -13618,7 +13660,7 @@
         <v>427</v>
       </c>
       <c r="I123" s="25" t="str">
-        <f>VLOOKUP(H123,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H123,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_ROFST_L1</v>
       </c>
       <c r="K123" s="1"/>
@@ -13631,11 +13673,11 @@
         <v>1198</v>
       </c>
       <c r="C124" s="49" t="str">
-        <f>VLOOKUP(B124,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B124,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Number of out-of-school adolescents of lower secondary school age by sex</v>
       </c>
       <c r="D124" s="25" t="str">
-        <f>VLOOKUP(B124,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B124,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_OFST_L2</v>
       </c>
       <c r="E124" s="1">
@@ -13652,7 +13694,7 @@
         <v>430</v>
       </c>
       <c r="I124" s="25" t="str">
-        <f>VLOOKUP(H124,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H124,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_OFST_L2</v>
       </c>
       <c r="K124" s="1"/>
@@ -13665,11 +13707,11 @@
         <v>357</v>
       </c>
       <c r="C125" s="49" t="str">
-        <f>VLOOKUP(B125,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B125,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Out-of-school rate for adolescents of lower secondary school age by sex (%)</v>
       </c>
       <c r="D125" s="25" t="str">
-        <f>VLOOKUP(B125,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B125,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_ROFST_L2</v>
       </c>
       <c r="E125" s="1">
@@ -13686,7 +13728,7 @@
         <v>433</v>
       </c>
       <c r="I125" s="25" t="str">
-        <f>VLOOKUP(H125,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H125,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_ROFST_L2</v>
       </c>
       <c r="K125" s="1"/>
@@ -13699,11 +13741,11 @@
         <v>1200</v>
       </c>
       <c r="C126" s="49" t="str">
-        <f>VLOOKUP(B126,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B126,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Number of out-of-school youth of upper secondary school age by sex</v>
       </c>
       <c r="D126" s="25" t="str">
-        <f>VLOOKUP(B126,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B126,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_OFST_L3</v>
       </c>
       <c r="E126" s="1">
@@ -13720,7 +13762,7 @@
         <v>436</v>
       </c>
       <c r="I126" s="25" t="str">
-        <f>VLOOKUP(H126,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H126,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_OFST_L3</v>
       </c>
       <c r="K126" s="1"/>
@@ -13733,11 +13775,11 @@
         <v>360</v>
       </c>
       <c r="C127" s="49" t="str">
-        <f>VLOOKUP(B127,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B127,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Out-of-school rate for youth of upper secondary school age by sex (%)</v>
       </c>
       <c r="D127" s="25" t="str">
-        <f>VLOOKUP(B127,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B127,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_ROFST_L3</v>
       </c>
       <c r="E127" s="1">
@@ -13754,7 +13796,7 @@
         <v>439</v>
       </c>
       <c r="I127" s="25" t="str">
-        <f>VLOOKUP(H127,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H127,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_ROFST_L3</v>
       </c>
       <c r="K127" s="1"/>
@@ -13767,11 +13809,11 @@
         <v>363</v>
       </c>
       <c r="C128" s="49" t="str">
-        <f>VLOOKUP(B128,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B128,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Proportion of youth (aged 15-24 years) not in education, employment or training (%)</v>
       </c>
       <c r="D128" s="25" t="str">
-        <f>VLOOKUP(B128,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B128,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_SDG_YOUTH_NEET</v>
       </c>
       <c r="E128" s="1">
@@ -13788,7 +13830,7 @@
         <v>442</v>
       </c>
       <c r="I128" s="25" t="str">
-        <f>VLOOKUP(H128,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H128,Source!$A$2:$G$232,3,FALSE)</f>
         <v>ILO: SDG_0861_SEX_RT_A</v>
       </c>
       <c r="K128" s="1"/>
@@ -13801,11 +13843,11 @@
         <v>366</v>
       </c>
       <c r="C129" s="49" t="str">
-        <f>VLOOKUP(B129,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B129,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Participation rate of youth and adults in formal and non-formal education and training for the previous 12 months by sex (%)</v>
       </c>
       <c r="D129" s="25" t="str">
-        <f>VLOOKUP(B129,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B129,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_SDG_PRYA</v>
       </c>
       <c r="E129" s="1">
@@ -13822,7 +13864,7 @@
         <v>445</v>
       </c>
       <c r="I129" s="25" t="str">
-        <f>VLOOKUP(H129,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H129,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDU_SDG_PRYA</v>
       </c>
       <c r="K129" s="1"/>
@@ -13835,11 +13877,11 @@
         <v>372</v>
       </c>
       <c r="C130" s="49" t="str">
-        <f>VLOOKUP(B130,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B130,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Number of post-secondary non-tertiary education (ISCED 4) enrolments by sex</v>
       </c>
       <c r="D130" s="25" t="str">
-        <f>VLOOKUP(B130,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B130,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_STU_L4_TOT</v>
       </c>
       <c r="E130" s="1">
@@ -13856,7 +13898,7 @@
         <v>448</v>
       </c>
       <c r="I130" s="25" t="str">
-        <f>VLOOKUP(H130,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H130,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_STU_L4_TOT</v>
       </c>
       <c r="K130" s="1"/>
@@ -13869,11 +13911,11 @@
         <v>375</v>
       </c>
       <c r="C131" s="49" t="str">
-        <f>VLOOKUP(B131,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B131,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Number of post-secondary non-tertiary education (ISCED 4) enrolments in public institutions by sex</v>
       </c>
       <c r="D131" s="25" t="str">
-        <f>VLOOKUP(B131,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B131,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_STU_L4_PUB</v>
       </c>
       <c r="E131" s="1">
@@ -13890,7 +13932,7 @@
         <v>451</v>
       </c>
       <c r="I131" s="25" t="str">
-        <f>VLOOKUP(H131,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H131,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_STU_L4_PUB</v>
       </c>
       <c r="K131" s="1"/>
@@ -13903,11 +13945,11 @@
         <v>378</v>
       </c>
       <c r="C132" s="49" t="str">
-        <f>VLOOKUP(B132,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B132,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Number of post-secondary non-tertiary education (ISCED 4) enrolments in private institutions by sex</v>
       </c>
       <c r="D132" s="25" t="str">
-        <f>VLOOKUP(B132,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B132,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_STU_L4_PRV</v>
       </c>
       <c r="E132" s="1">
@@ -13924,7 +13966,7 @@
         <v>454</v>
       </c>
       <c r="I132" s="25" t="str">
-        <f>VLOOKUP(H132,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H132,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_STU_L4_PRV</v>
       </c>
       <c r="K132" s="1"/>
@@ -13937,11 +13979,11 @@
         <v>381</v>
       </c>
       <c r="C133" s="49" t="str">
-        <f>VLOOKUP(B133,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B133,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Percentage of private enrolments in post-secondary non-tertiary education (ISCED 4) (%)</v>
       </c>
       <c r="D133" s="25" t="str">
-        <f>VLOOKUP(B133,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B133,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_PRP_L4</v>
       </c>
       <c r="E133" s="1">
@@ -13958,7 +14000,7 @@
         <v>457</v>
       </c>
       <c r="I133" s="25" t="str">
-        <f>VLOOKUP(H133,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H133,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_PRP_L4</v>
       </c>
       <c r="K133" s="1"/>
@@ -13971,11 +14013,11 @@
         <v>384</v>
       </c>
       <c r="C134" s="49" t="str">
-        <f>VLOOKUP(B134,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B134,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Percentage of female enrolments in post-secondary non-tertiary education (ISCED 4) (%)</v>
       </c>
       <c r="D134" s="25" t="str">
-        <f>VLOOKUP(B134,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B134,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_FEP_L4</v>
       </c>
       <c r="E134" s="1">
@@ -13992,7 +14034,7 @@
         <v>460</v>
       </c>
       <c r="I134" s="25" t="str">
-        <f>VLOOKUP(H134,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H134,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_FEP_L4</v>
       </c>
       <c r="K134" s="1"/>
@@ -14005,11 +14047,11 @@
         <v>387</v>
       </c>
       <c r="C135" s="49" t="str">
-        <f>VLOOKUP(B135,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B135,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Number of tertiary education (ISCED 5) enrolments by sex</v>
       </c>
       <c r="D135" s="25" t="str">
-        <f>VLOOKUP(B135,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B135,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_STU_L5T8_TOT</v>
       </c>
       <c r="E135" s="1">
@@ -14026,7 +14068,7 @@
         <v>463</v>
       </c>
       <c r="I135" s="25" t="str">
-        <f>VLOOKUP(H135,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H135,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_STU_L5T8_TOT</v>
       </c>
       <c r="K135" s="1"/>
@@ -14039,11 +14081,11 @@
         <v>1212</v>
       </c>
       <c r="C136" s="49" t="str">
-        <f>VLOOKUP(B136,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B136,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Number of tertiary education (ISCED 5) enrolments in public institutions by sex</v>
       </c>
       <c r="D136" s="25" t="str">
-        <f>VLOOKUP(B136,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B136,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_STU_L5T8_PUB</v>
       </c>
       <c r="E136" s="1">
@@ -14060,7 +14102,7 @@
         <v>466</v>
       </c>
       <c r="I136" s="25" t="str">
-        <f>VLOOKUP(H136,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H136,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_STU_L5T8_PUB</v>
       </c>
       <c r="K136" s="1"/>
@@ -14073,11 +14115,11 @@
         <v>390</v>
       </c>
       <c r="C137" s="49" t="str">
-        <f>VLOOKUP(B137,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B137,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Number of tertiary education (ISCED 5) enrolments in private institutions by sex</v>
       </c>
       <c r="D137" s="25" t="str">
-        <f>VLOOKUP(B137,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B137,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_STU_L5T8_PRV</v>
       </c>
       <c r="E137" s="1">
@@ -14094,7 +14136,7 @@
         <v>469</v>
       </c>
       <c r="I137" s="25" t="str">
-        <f>VLOOKUP(H137,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H137,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_STU_L5T8_PRV</v>
       </c>
       <c r="K137" s="1"/>
@@ -14107,11 +14149,11 @@
         <v>393</v>
       </c>
       <c r="C138" s="49" t="str">
-        <f>VLOOKUP(B138,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B138,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Percentage of private enrolments in tertiary education (ISCED 5) (%)</v>
       </c>
       <c r="D138" s="25" t="str">
-        <f>VLOOKUP(B138,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B138,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_PRP_L5T8</v>
       </c>
       <c r="E138" s="1">
@@ -14128,7 +14170,7 @@
         <v>472</v>
       </c>
       <c r="I138" s="25" t="str">
-        <f>VLOOKUP(H138,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H138,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_PRP_L5T8</v>
       </c>
       <c r="K138" s="1"/>
@@ -14141,11 +14183,11 @@
         <v>396</v>
       </c>
       <c r="C139" s="49" t="str">
-        <f>VLOOKUP(B139,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B139,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Percentage of female enrolments in tertiary education (ISCED 5) (%)</v>
       </c>
       <c r="D139" s="25" t="str">
-        <f>VLOOKUP(B139,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B139,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_FEP_L5T8</v>
       </c>
       <c r="E139" s="1">
@@ -14162,7 +14204,7 @@
         <v>475</v>
       </c>
       <c r="I139" s="25" t="str">
-        <f>VLOOKUP(H139,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H139,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_FEP_L5T8</v>
       </c>
       <c r="K139" s="1"/>
@@ -14175,11 +14217,11 @@
         <v>399</v>
       </c>
       <c r="C140" s="49" t="str">
-        <f>VLOOKUP(B140,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B140,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Gross enrolment ratio, pre-primary, Gender Parity Index (GPI)</v>
       </c>
       <c r="D140" s="25" t="str">
-        <f>VLOOKUP(B140,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B140,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_GER_GPI_L02</v>
       </c>
       <c r="E140" s="1">
@@ -14196,7 +14238,7 @@
         <v>478</v>
       </c>
       <c r="I140" s="25" t="str">
-        <f>VLOOKUP(H140,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H140,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_GER_GPI_L02</v>
       </c>
       <c r="K140" s="1"/>
@@ -14209,11 +14251,11 @@
         <v>1213</v>
       </c>
       <c r="C141" s="49" t="str">
-        <f>VLOOKUP(B141,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B141,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Gross enrolment ratio, primary, Gender Parity Index (GPI)</v>
       </c>
       <c r="D141" s="25" t="str">
-        <f>VLOOKUP(B141,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B141,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_GER_GPI_L1</v>
       </c>
       <c r="E141" s="1">
@@ -14230,7 +14272,7 @@
         <v>481</v>
       </c>
       <c r="I141" s="25" t="str">
-        <f>VLOOKUP(H141,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H141,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_GER_GPI_L1</v>
       </c>
       <c r="K141" s="1"/>
@@ -14243,11 +14285,11 @@
         <v>1215</v>
       </c>
       <c r="C142" s="49" t="str">
-        <f>VLOOKUP(B142,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B142,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Gross enrolment ratio, lower secondary, Gender Parity Index (GPI)</v>
       </c>
       <c r="D142" s="25" t="str">
-        <f>VLOOKUP(B142,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B142,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_GER_GPI_L2</v>
       </c>
       <c r="E142" s="1">
@@ -14264,7 +14306,7 @@
         <v>484</v>
       </c>
       <c r="I142" s="25" t="str">
-        <f>VLOOKUP(H142,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H142,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_GER_GPI_L2</v>
       </c>
       <c r="K142" s="1"/>
@@ -14277,11 +14319,11 @@
         <v>1216</v>
       </c>
       <c r="C143" s="49" t="str">
-        <f>VLOOKUP(B143,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B143,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Gross enrolment ratio, upper secondary, Gender Parity Index (GPI)</v>
       </c>
       <c r="D143" s="25" t="str">
-        <f>VLOOKUP(B143,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B143,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_GER_GPI_L3</v>
       </c>
       <c r="E143" s="1">
@@ -14298,7 +14340,7 @@
         <v>487</v>
       </c>
       <c r="I143" s="25" t="str">
-        <f>VLOOKUP(H143,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H143,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_GER_GPI_L3</v>
       </c>
       <c r="K143" s="1"/>
@@ -14311,11 +14353,11 @@
         <v>1218</v>
       </c>
       <c r="C144" s="49" t="str">
-        <f>VLOOKUP(B144,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B144,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Gross enrolment ratio, secondary, Gender Parity Index (GPI)</v>
       </c>
       <c r="D144" s="25" t="str">
-        <f>VLOOKUP(B144,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B144,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_GER_GPI_L2AND3</v>
       </c>
       <c r="E144" s="1">
@@ -14332,7 +14374,7 @@
         <v>490</v>
       </c>
       <c r="I144" s="25" t="str">
-        <f>VLOOKUP(H144,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H144,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_GER_GPI_L2AND3</v>
       </c>
       <c r="K144" s="1"/>
@@ -14345,11 +14387,11 @@
         <v>414</v>
       </c>
       <c r="C145" s="49" t="str">
-        <f>VLOOKUP(B145,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B145,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Government expenditure on education as a percentage of GDP (%)</v>
       </c>
       <c r="D145" s="25" t="str">
-        <f>VLOOKUP(B145,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B145,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_FIN_EXP_PT_GDP</v>
       </c>
       <c r="E145" s="1">
@@ -14366,7 +14408,7 @@
         <v>493</v>
       </c>
       <c r="I145" s="25" t="str">
-        <f>VLOOKUP(H145,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H145,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDU_FIN_EXP_PT_GDP</v>
       </c>
       <c r="K145" s="1"/>
@@ -14379,11 +14421,11 @@
         <v>417</v>
       </c>
       <c r="C146" s="49" t="str">
-        <f>VLOOKUP(B146,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B146,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Expenditure on education as a percentage of total government expenditure (%)</v>
       </c>
       <c r="D146" s="25" t="str">
-        <f>VLOOKUP(B146,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B146,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_FIN_EXP_PT_TOT</v>
       </c>
       <c r="E146" s="1">
@@ -14400,7 +14442,7 @@
         <v>496</v>
       </c>
       <c r="I146" s="25" t="str">
-        <f>VLOOKUP(H146,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H146,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDU_FIN_EXP_PT_TOT</v>
       </c>
       <c r="K146" s="1"/>
@@ -14413,11 +14455,11 @@
         <v>420</v>
       </c>
       <c r="C147" s="49" t="str">
-        <f>VLOOKUP(B147,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B147,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Government expenditure on education, in constant PPP ($ millions)</v>
       </c>
       <c r="D147" s="25" t="str">
-        <f>VLOOKUP(B147,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B147,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_FIN_EXP_CONST_PPP</v>
       </c>
       <c r="E147" s="1">
@@ -14434,7 +14476,7 @@
         <v>499</v>
       </c>
       <c r="I147" s="25" t="str">
-        <f>VLOOKUP(H147,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H147,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDU_FIN_EXP_CONST_PPP</v>
       </c>
       <c r="K147" s="1"/>
@@ -14447,11 +14489,11 @@
         <v>423</v>
       </c>
       <c r="C148" s="49" t="str">
-        <f>VLOOKUP(B148,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B148,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Expenditure on pre-primary as a percentage of government expenditure on education (%)</v>
       </c>
       <c r="D148" s="25" t="str">
-        <f>VLOOKUP(B148,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B148,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_FIN_EXP_L02</v>
       </c>
       <c r="E148" s="1">
@@ -14468,7 +14510,7 @@
         <v>502</v>
       </c>
       <c r="I148" s="25" t="str">
-        <f>VLOOKUP(H148,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H148,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDU_FIN_EXP_L02</v>
       </c>
       <c r="K148" s="1"/>
@@ -14481,11 +14523,11 @@
         <v>426</v>
       </c>
       <c r="C149" s="49" t="str">
-        <f>VLOOKUP(B149,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B149,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Expenditure on primary as a percentage of government expenditure on education (%)</v>
       </c>
       <c r="D149" s="25" t="str">
-        <f>VLOOKUP(B149,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B149,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_FIN_EXP_L1</v>
       </c>
       <c r="E149" s="1">
@@ -14502,7 +14544,7 @@
         <v>505</v>
       </c>
       <c r="I149" s="25" t="str">
-        <f>VLOOKUP(H149,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H149,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDU_FIN_EXP_L1</v>
       </c>
       <c r="K149" s="1"/>
@@ -14515,11 +14557,11 @@
         <v>429</v>
       </c>
       <c r="C150" s="49" t="str">
-        <f>VLOOKUP(B150,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B150,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Expenditure on lower secondary as a percentage of government expenditure on education (%)</v>
       </c>
       <c r="D150" s="25" t="str">
-        <f>VLOOKUP(B150,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B150,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_FIN_EXP_L2</v>
       </c>
       <c r="E150" s="1">
@@ -14536,7 +14578,7 @@
         <v>508</v>
       </c>
       <c r="I150" s="25" t="str">
-        <f>VLOOKUP(H150,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H150,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDU_FIN_EXP_L2</v>
       </c>
       <c r="K150" s="1"/>
@@ -14549,11 +14591,11 @@
         <v>432</v>
       </c>
       <c r="C151" s="49" t="str">
-        <f>VLOOKUP(B151,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B151,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Expenditure on upper secondary as a percentage of government expenditure on education (%)</v>
       </c>
       <c r="D151" s="25" t="str">
-        <f>VLOOKUP(B151,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B151,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_FIN_EXP_L3</v>
       </c>
       <c r="E151" s="1">
@@ -14570,7 +14612,7 @@
         <v>511</v>
       </c>
       <c r="I151" s="25" t="str">
-        <f>VLOOKUP(H151,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H151,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDU_FIN_EXP_L3</v>
       </c>
       <c r="K151" s="1"/>
@@ -14583,11 +14625,11 @@
         <v>435</v>
       </c>
       <c r="C152" s="49" t="str">
-        <f>VLOOKUP(B152,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B152,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Expenditure on post-secondary non-tertiary as a percentage of government expenditure on education (%)</v>
       </c>
       <c r="D152" s="25" t="str">
-        <f>VLOOKUP(B152,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B152,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_FIN_EXP_L4</v>
       </c>
       <c r="E152" s="1">
@@ -14604,7 +14646,7 @@
         <v>514</v>
       </c>
       <c r="I152" s="25" t="str">
-        <f>VLOOKUP(H152,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H152,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDU_FIN_EXP_L4</v>
       </c>
       <c r="K152" s="1"/>
@@ -14617,11 +14659,11 @@
         <v>1231</v>
       </c>
       <c r="C153" s="49" t="str">
-        <f>VLOOKUP(B153,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B153,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Expenditure on tertiary as a percentage of government expenditure on education (%)</v>
       </c>
       <c r="D153" s="25" t="str">
-        <f>VLOOKUP(B153,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B153,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_FIN_EXP_L5T8</v>
       </c>
       <c r="E153" s="1">
@@ -14638,7 +14680,7 @@
         <v>518</v>
       </c>
       <c r="I153" s="25" t="str">
-        <f>VLOOKUP(H153,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H153,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDU_FIN_EXP_L5T8</v>
       </c>
       <c r="K153" s="1"/>
@@ -14651,11 +14693,11 @@
         <v>1232</v>
       </c>
       <c r="C154" s="49" t="str">
-        <f>VLOOKUP(B154,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B154,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Proportion of schools with access to adapted infrastructure and materials for students with disabilities - Primary (%)</v>
       </c>
       <c r="D154" s="25" t="str">
-        <f>VLOOKUP(B154,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B154,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_SDG_SCH_L1</v>
       </c>
       <c r="E154" s="1">
@@ -14672,7 +14714,7 @@
         <v>521</v>
       </c>
       <c r="I154" s="25" t="str">
-        <f>VLOOKUP(H154,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H154,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDU_SDG_SCH_L1</v>
       </c>
       <c r="K154" s="1"/>
@@ -14685,11 +14727,11 @@
         <v>1233</v>
       </c>
       <c r="C155" s="49" t="str">
-        <f>VLOOKUP(B155,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B155,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Proportion of schools with access to adapted infrastructure and materials for students with disabilities - Lower secondary (%)</v>
       </c>
       <c r="D155" s="25" t="str">
-        <f>VLOOKUP(B155,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B155,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_SDG_SCH_L2</v>
       </c>
       <c r="E155" s="1">
@@ -14706,7 +14748,7 @@
         <v>524</v>
       </c>
       <c r="I155" s="25" t="str">
-        <f>VLOOKUP(H155,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H155,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDU_SDG_SCH_L2</v>
       </c>
       <c r="K155" s="1"/>
@@ -14719,11 +14761,11 @@
         <v>438</v>
       </c>
       <c r="C156" s="49" t="str">
-        <f>VLOOKUP(B156,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B156,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Proportion of schools with access to adapted infrastructure and materials for students with disabilities - Upper secondary (%)</v>
       </c>
       <c r="D156" s="25" t="str">
-        <f>VLOOKUP(B156,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B156,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_SDG_SCH_L3</v>
       </c>
       <c r="E156" s="1">
@@ -14740,7 +14782,7 @@
         <v>2056</v>
       </c>
       <c r="I156" s="25" t="str">
-        <f>VLOOKUP(H156,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H156,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDU_SDG_SCH_L3</v>
       </c>
       <c r="K156" s="1"/>
@@ -14753,11 +14795,11 @@
         <v>441</v>
       </c>
       <c r="C157" s="49" t="str">
-        <f>VLOOKUP(B157,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B157,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Proportion of total schools with basic hygiene services (%, by residence)</v>
       </c>
       <c r="D157" s="25" t="str">
-        <f>VLOOKUP(B157,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B157,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>WS_SCH_H-B</v>
       </c>
       <c r="E157" s="1">
@@ -14774,7 +14816,7 @@
         <v>2057</v>
       </c>
       <c r="I157" s="25" t="str">
-        <f>VLOOKUP(H157,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H157,Source!$A$2:$G$232,3,FALSE)</f>
         <v>Helix: WS_SCH_H-B</v>
       </c>
       <c r="K157" s="1"/>
@@ -14787,11 +14829,11 @@
         <v>444</v>
       </c>
       <c r="C158" s="49" t="str">
-        <f>VLOOKUP(B158,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B158,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Proportion of total schools with basic sanitation services (%, by residence)</v>
       </c>
       <c r="D158" s="25" t="str">
-        <f>VLOOKUP(B158,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B158,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>WS_SCH_S-B</v>
       </c>
       <c r="E158" s="1">
@@ -14808,7 +14850,7 @@
         <v>2058</v>
       </c>
       <c r="I158" s="25" t="str">
-        <f>VLOOKUP(H158,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H158,Source!$A$2:$G$232,3,FALSE)</f>
         <v>Helix: WS_SCH_S-B</v>
       </c>
       <c r="K158" s="1"/>
@@ -14821,11 +14863,11 @@
         <v>447</v>
       </c>
       <c r="C159" s="49" t="str">
-        <f>VLOOKUP(B159,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B159,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Proportion of total schools with basic drinking water services (%, by residence)</v>
       </c>
       <c r="D159" s="25" t="str">
-        <f>VLOOKUP(B159,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B159,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>WS_SCH_W-B</v>
       </c>
       <c r="E159" s="1">
@@ -14842,7 +14884,7 @@
         <v>2069</v>
       </c>
       <c r="I159" s="25" t="str">
-        <f>VLOOKUP(H159,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H159,Source!$A$2:$G$232,3,FALSE)</f>
         <v>Helix: WS_SCH_W-B</v>
       </c>
       <c r="K159" s="1"/>
@@ -14855,11 +14897,11 @@
         <v>450</v>
       </c>
       <c r="C160" s="49" t="str">
-        <f>VLOOKUP(B160,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B160,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Total number of Classroom teachers in primary education (ISCED 1) by sex</v>
       </c>
       <c r="D160" s="25" t="str">
-        <f>VLOOKUP(B160,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B160,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_TEACH_L1</v>
       </c>
       <c r="E160" s="1">
@@ -14876,7 +14918,7 @@
         <v>2070</v>
       </c>
       <c r="I160" s="25" t="str">
-        <f>VLOOKUP(H160,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H160,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_TEACH_L1</v>
       </c>
       <c r="K160" s="1"/>
@@ -14889,11 +14931,11 @@
         <v>453</v>
       </c>
       <c r="C161" s="49" t="str">
-        <f>VLOOKUP(B161,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B161,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Total number of Classroom teachers in lower secondary education (ISCED 2) by sex</v>
       </c>
       <c r="D161" s="25" t="str">
-        <f>VLOOKUP(B161,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B161,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_TEACH_L2</v>
       </c>
       <c r="E161" s="1">
@@ -14910,7 +14952,7 @@
         <v>2076</v>
       </c>
       <c r="I161" s="25" t="str">
-        <f>VLOOKUP(H161,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H161,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_TEACH_L2</v>
       </c>
       <c r="K161" s="1"/>
@@ -14923,11 +14965,11 @@
         <v>456</v>
       </c>
       <c r="C162" s="49" t="str">
-        <f>VLOOKUP(B162,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B162,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Total number of Classroom teachers in upper secondary education (ISCED 3) by sex</v>
       </c>
       <c r="D162" s="25" t="str">
-        <f>VLOOKUP(B162,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B162,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_TEACH_L3</v>
       </c>
       <c r="E162" s="1">
@@ -14944,7 +14986,7 @@
         <v>2077</v>
       </c>
       <c r="I162" s="25" t="str">
-        <f>VLOOKUP(H162,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H162,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_TEACH_L3</v>
       </c>
       <c r="K162" s="1"/>
@@ -14957,11 +14999,11 @@
         <v>459</v>
       </c>
       <c r="C163" s="49" t="str">
-        <f>VLOOKUP(B163,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B163,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Pupil-teacher ratio in primary education (ISCED1) (headcount basis)</v>
       </c>
       <c r="D163" s="25" t="str">
-        <f>VLOOKUP(B163,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B163,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_PTR_L1</v>
       </c>
       <c r="E163" s="1">
@@ -14978,7 +15020,7 @@
         <v>2100</v>
       </c>
       <c r="I163" s="25" t="str">
-        <f>VLOOKUP(H163,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H163,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_PTR_L1</v>
       </c>
       <c r="K163" s="1"/>
@@ -14991,11 +15033,11 @@
         <v>462</v>
       </c>
       <c r="C164" s="49" t="str">
-        <f>VLOOKUP(B164,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B164,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Pupil-teacher ratio in lower secondary education (ISCED 2) (headcount basis)</v>
       </c>
       <c r="D164" s="25" t="str">
-        <f>VLOOKUP(B164,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B164,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_PTR_L2</v>
       </c>
       <c r="E164" s="1">
@@ -15012,7 +15054,7 @@
         <v>2101</v>
       </c>
       <c r="I164" s="25" t="str">
-        <f>VLOOKUP(H164,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H164,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_PTR_L2</v>
       </c>
       <c r="K164" s="1"/>
@@ -15025,11 +15067,11 @@
         <v>465</v>
       </c>
       <c r="C165" s="49" t="str">
-        <f>VLOOKUP(B165,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B165,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Pupil-teacher ratio in secondary education (ISCED 2 and 3) (headcount basis)</v>
       </c>
       <c r="D165" s="25" t="str">
-        <f>VLOOKUP(B165,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B165,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_PTR_L2AND3</v>
       </c>
       <c r="E165" s="1">
@@ -15046,7 +15088,7 @@
         <v>2102</v>
       </c>
       <c r="I165" s="25" t="str">
-        <f>VLOOKUP(H165,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H165,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_PTR_L2AND3</v>
       </c>
       <c r="K165" s="1"/>
@@ -15059,11 +15101,11 @@
         <v>468</v>
       </c>
       <c r="C166" s="49" t="str">
-        <f>VLOOKUP(B166,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B166,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Pupil-teacher ratio in upper secondary education (ISCED 3) (headcount basis)</v>
       </c>
       <c r="D166" s="25" t="str">
-        <f>VLOOKUP(B166,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B166,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_PTR_L3</v>
       </c>
       <c r="E166" s="1">
@@ -15080,7 +15122,7 @@
         <v>2103</v>
       </c>
       <c r="I166" s="25" t="str">
-        <f>VLOOKUP(H166,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H166,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_PTR_L3</v>
       </c>
       <c r="K166" s="1"/>
@@ -15093,11 +15135,11 @@
         <v>471</v>
       </c>
       <c r="C167" s="49" t="str">
-        <f>VLOOKUP(B167,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B167,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Percentage of trained teachers in pre-primary education by sex (%)</v>
       </c>
       <c r="D167" s="25" t="str">
-        <f>VLOOKUP(B167,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B167,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_SDG_TRTP_L02</v>
       </c>
       <c r="E167" s="1">
@@ -15114,7 +15156,7 @@
         <v>2104</v>
       </c>
       <c r="I167" s="25" t="str">
-        <f>VLOOKUP(H167,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H167,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDU_SDG_TRTP_L02</v>
       </c>
       <c r="K167" s="1"/>
@@ -15127,11 +15169,11 @@
         <v>474</v>
       </c>
       <c r="C168" s="49" t="str">
-        <f>VLOOKUP(B168,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B168,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Percentage of trained teachers in primary education by sex (%)</v>
       </c>
       <c r="D168" s="25" t="str">
-        <f>VLOOKUP(B168,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B168,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_SDG_TRTP_L1</v>
       </c>
       <c r="E168" s="1">
@@ -15148,7 +15190,7 @@
         <v>2105</v>
       </c>
       <c r="I168" s="25" t="str">
-        <f>VLOOKUP(H168,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H168,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDU_SDG_TRTP_L1</v>
       </c>
       <c r="K168" s="1"/>
@@ -15161,11 +15203,11 @@
         <v>477</v>
       </c>
       <c r="C169" s="49" t="str">
-        <f>VLOOKUP(B169,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B169,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Percentage of trained teachers in lower secondary education by sex (%)</v>
       </c>
       <c r="D169" s="25" t="str">
-        <f>VLOOKUP(B169,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B169,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_SDG_TRTP_L2</v>
       </c>
       <c r="E169" s="1">
@@ -15182,7 +15224,7 @@
         <v>2106</v>
       </c>
       <c r="I169" s="25" t="str">
-        <f>VLOOKUP(H169,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H169,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDU_SDG_TRTP_L2</v>
       </c>
       <c r="K169" s="1"/>
@@ -15195,11 +15237,11 @@
         <v>480</v>
       </c>
       <c r="C170" s="49" t="str">
-        <f>VLOOKUP(B170,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B170,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Percentage of trained teachers in upper secondary education by sex (%)</v>
       </c>
       <c r="D170" s="25" t="str">
-        <f>VLOOKUP(B170,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B170,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_SDG_TRTP_L3</v>
       </c>
       <c r="E170" s="1">
@@ -15216,7 +15258,7 @@
         <v>2107</v>
       </c>
       <c r="I170" s="25" t="str">
-        <f>VLOOKUP(H170,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H170,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDU_SDG_TRTP_L3</v>
       </c>
       <c r="K170" s="1"/>
@@ -15229,11 +15271,11 @@
         <v>483</v>
       </c>
       <c r="C171" s="49" t="str">
-        <f>VLOOKUP(B171,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B171,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Pupil-trained teacher ratio in pre-primary education (headcount basis)</v>
       </c>
       <c r="D171" s="25" t="str">
-        <f>VLOOKUP(B171,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B171,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_SDG_PTTR_L02</v>
       </c>
       <c r="E171" s="1">
@@ -15250,7 +15292,7 @@
         <v>2108</v>
       </c>
       <c r="I171" s="25" t="str">
-        <f>VLOOKUP(H171,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H171,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDU_SDG_PTTR_L02</v>
       </c>
       <c r="K171" s="1"/>
@@ -15263,11 +15305,11 @@
         <v>486</v>
       </c>
       <c r="C172" s="49" t="str">
-        <f>VLOOKUP(B172,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B172,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Pupil-trained teacher ratio in primary education (headcount basis)</v>
       </c>
       <c r="D172" s="25" t="str">
-        <f>VLOOKUP(B172,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B172,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_SDG_PTTR_L1</v>
       </c>
       <c r="E172" s="1">
@@ -15284,7 +15326,7 @@
         <v>2109</v>
       </c>
       <c r="I172" s="25" t="str">
-        <f>VLOOKUP(H172,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H172,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDU_SDG_PTTR_L1</v>
       </c>
       <c r="K172" s="1"/>
@@ -15297,11 +15339,11 @@
         <v>489</v>
       </c>
       <c r="C173" s="49" t="str">
-        <f>VLOOKUP(B173,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B173,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Pupil-trained teacher ratio in lower secondary education (headcount basis)</v>
       </c>
       <c r="D173" s="25" t="str">
-        <f>VLOOKUP(B173,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B173,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_SDG_PTTR_L2</v>
       </c>
       <c r="E173" s="1">
@@ -15318,7 +15360,7 @@
         <v>2110</v>
       </c>
       <c r="I173" s="25" t="str">
-        <f>VLOOKUP(H173,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H173,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDU_SDG_PTTR_L2</v>
       </c>
       <c r="K173" s="1"/>
@@ -15331,11 +15373,11 @@
         <v>492</v>
       </c>
       <c r="C174" s="49" t="str">
-        <f>VLOOKUP(B174,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B174,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Pupil-trained teacher ratio in upper secondary education (headcount basis)</v>
       </c>
       <c r="D174" s="25" t="str">
-        <f>VLOOKUP(B174,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B174,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_SDG_PTTR_L3</v>
       </c>
       <c r="E174" s="1">
@@ -15352,7 +15394,7 @@
         <v>2111</v>
       </c>
       <c r="I174" s="25" t="str">
-        <f>VLOOKUP(H174,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H174,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDU_SDG_PTTR_L3</v>
       </c>
       <c r="K174" s="1"/>
@@ -15365,11 +15407,11 @@
         <v>495</v>
       </c>
       <c r="C175" s="49" t="str">
-        <f>VLOOKUP(B175,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B175,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Proportion of teachers by sex qualified according to national standards in pre-primary education (%)</v>
       </c>
       <c r="D175" s="25" t="str">
-        <f>VLOOKUP(B175,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B175,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_SDG_QUTP_L02</v>
       </c>
       <c r="E175" s="1">
@@ -15386,7 +15428,7 @@
         <v>2112</v>
       </c>
       <c r="I175" s="25" t="str">
-        <f>VLOOKUP(H175,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H175,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDU_SDG_QUTP_L02</v>
       </c>
       <c r="K175" s="1"/>
@@ -15399,11 +15441,11 @@
         <v>498</v>
       </c>
       <c r="C176" s="49" t="str">
-        <f>VLOOKUP(B176,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B176,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Proportion of teachers by sex qualified according to national standards in primary education (%)</v>
       </c>
       <c r="D176" s="25" t="str">
-        <f>VLOOKUP(B176,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B176,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_SDG_QUTP_L1</v>
       </c>
       <c r="E176" s="1">
@@ -15420,7 +15462,7 @@
         <v>2113</v>
       </c>
       <c r="I176" s="25" t="str">
-        <f>VLOOKUP(H176,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H176,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDU_SDG_QUTP_L1</v>
       </c>
       <c r="K176" s="1"/>
@@ -15433,11 +15475,11 @@
         <v>501</v>
       </c>
       <c r="C177" s="49" t="str">
-        <f>VLOOKUP(B177,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B177,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Proportion of teachers by sex qualified according to national standards in lower secondary education (%)</v>
       </c>
       <c r="D177" s="25" t="str">
-        <f>VLOOKUP(B177,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B177,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_SDG_QUTP_L2</v>
       </c>
       <c r="E177" s="1">
@@ -15454,7 +15496,7 @@
         <v>2114</v>
       </c>
       <c r="I177" s="25" t="str">
-        <f>VLOOKUP(H177,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H177,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDU_SDG_QUTP_L2</v>
       </c>
       <c r="K177" s="1"/>
@@ -15467,11 +15509,11 @@
         <v>504</v>
       </c>
       <c r="C178" s="49" t="str">
-        <f>VLOOKUP(B178,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B178,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Proportion of teachers by sex qualified according to national standards in upper secondary education (%)</v>
       </c>
       <c r="D178" s="25" t="str">
-        <f>VLOOKUP(B178,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B178,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_SDG_QUTP_L3</v>
       </c>
       <c r="E178" s="1">
@@ -15488,7 +15530,7 @@
         <v>2115</v>
       </c>
       <c r="I178" s="25" t="str">
-        <f>VLOOKUP(H178,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H178,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDU_SDG_QUTP_L3</v>
       </c>
       <c r="K178" s="1"/>
@@ -15501,11 +15543,11 @@
         <v>1256</v>
       </c>
       <c r="C179" s="49" t="str">
-        <f>VLOOKUP(B179,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B179,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Pupil-qualified teacher ratio in pre-primary education (headcount basis)</v>
       </c>
       <c r="D179" s="25" t="str">
-        <f>VLOOKUP(B179,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B179,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_SDG_PQTR_L02</v>
       </c>
       <c r="E179" s="1">
@@ -15522,7 +15564,7 @@
         <v>2116</v>
       </c>
       <c r="I179" s="25" t="str">
-        <f>VLOOKUP(H179,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H179,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDU_SDG_PQTR_L02</v>
       </c>
       <c r="K179" s="1"/>
@@ -15535,11 +15577,11 @@
         <v>1257</v>
       </c>
       <c r="C180" s="49" t="str">
-        <f>VLOOKUP(B180,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B180,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Pupil-qualified teacher ratio in primary education (headcount basis)</v>
       </c>
       <c r="D180" s="25" t="str">
-        <f>VLOOKUP(B180,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B180,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_SDG_PQTR_L1</v>
       </c>
       <c r="E180" s="1">
@@ -15556,7 +15598,7 @@
         <v>2117</v>
       </c>
       <c r="I180" s="25" t="str">
-        <f>VLOOKUP(H180,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H180,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDU_SDG_PQTR_L1</v>
       </c>
       <c r="K180" s="1"/>
@@ -15569,11 +15611,11 @@
         <v>1258</v>
       </c>
       <c r="C181" s="49" t="str">
-        <f>VLOOKUP(B181,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B181,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Pupil-qualified teacher ratio in lower secondary education (headcount basis)</v>
       </c>
       <c r="D181" s="25" t="str">
-        <f>VLOOKUP(B181,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B181,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_SDG_PQTR_L2</v>
       </c>
       <c r="E181" s="1">
@@ -15590,7 +15632,7 @@
         <v>2118</v>
       </c>
       <c r="I181" s="25" t="str">
-        <f>VLOOKUP(H181,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H181,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDU_SDG_PQTR_L2</v>
       </c>
       <c r="K181" s="1"/>
@@ -15603,11 +15645,11 @@
         <v>1260</v>
       </c>
       <c r="C182" s="49" t="str">
-        <f>VLOOKUP(B182,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B182,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Pupil-qualified teacher ratio in upper secondary education (headcount basis)</v>
       </c>
       <c r="D182" s="25" t="str">
-        <f>VLOOKUP(B182,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B182,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_SDG_PQTR_L3</v>
       </c>
       <c r="E182" s="1">
@@ -15624,7 +15666,7 @@
         <v>2119</v>
       </c>
       <c r="I182" s="25" t="str">
-        <f>VLOOKUP(H182,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H182,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDU_SDG_PQTR_L3</v>
       </c>
       <c r="K182" s="1"/>
@@ -15637,11 +15679,11 @@
         <v>1262</v>
       </c>
       <c r="C183" s="49" t="str">
-        <f>VLOOKUP(B183,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B183,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Percentage of children (by sex, age groups, residence and wealth quintile) who have 3 or more children's books at home</v>
       </c>
       <c r="D183" s="25" t="str">
-        <f>VLOOKUP(B183,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B183,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>ECD_CHLD_U5_BKS-HM</v>
       </c>
       <c r="E183" s="1">
@@ -15658,7 +15700,7 @@
         <v>2120</v>
       </c>
       <c r="I183" s="25" t="str">
-        <f>VLOOKUP(H183,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H183,Source!$A$2:$G$232,3,FALSE)</f>
         <v>Helix: ECD_CHLD_U5_BKS-HM</v>
       </c>
       <c r="K183" s="1"/>
@@ -15671,11 +15713,11 @@
         <v>1264</v>
       </c>
       <c r="C184" s="49" t="str">
-        <f>VLOOKUP(B184,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B184,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Percentage of children under age 5 (by sex, residence and wealth quintile) who play with 2 or more types of playthings at home</v>
       </c>
       <c r="D184" s="25" t="str">
-        <f>VLOOKUP(B184,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B184,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>ECD_CHLD_U5_PLYTH-HM</v>
       </c>
       <c r="E184" s="1">
@@ -15692,7 +15734,7 @@
         <v>2146</v>
       </c>
       <c r="I184" s="25" t="str">
-        <f>VLOOKUP(H184,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H184,Source!$A$2:$G$232,3,FALSE)</f>
         <v>Helix: ECD_CHLD_U5_PLYTH-HM</v>
       </c>
       <c r="K184" s="1"/>
@@ -15705,11 +15747,11 @@
         <v>1266</v>
       </c>
       <c r="C185" s="49" t="str">
-        <f>VLOOKUP(B185,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B185,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Educational attainment by sex: at least completed lower secondary (ISCED 2 or higher), population 25+ years (%)</v>
       </c>
       <c r="D185" s="25" t="str">
-        <f>VLOOKUP(B185,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B185,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_EA_L2T8</v>
       </c>
       <c r="E185" s="1">
@@ -15726,7 +15768,7 @@
         <v>2148</v>
       </c>
       <c r="I185" s="25" t="str">
-        <f>VLOOKUP(H185,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H185,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_EA_L2T8</v>
       </c>
       <c r="K185" s="1"/>
@@ -15739,11 +15781,11 @@
         <v>1268</v>
       </c>
       <c r="C186" s="49" t="str">
-        <f>VLOOKUP(B186,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B186,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Administration of nationally representative learning assessment in reading (Grade 2 or 3)</v>
       </c>
       <c r="D186" s="25" t="str">
-        <f>VLOOKUP(B186,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B186,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_ADMIN_L1_G2OR3_REA</v>
       </c>
       <c r="E186" s="1">
@@ -15760,7 +15802,7 @@
         <v>2152</v>
       </c>
       <c r="I186" s="25" t="str">
-        <f>VLOOKUP(H186,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H186,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_ADMIN_G2OR3_REA</v>
       </c>
       <c r="K186" s="1"/>
@@ -15773,11 +15815,11 @@
         <v>1270</v>
       </c>
       <c r="C187" s="49" t="str">
-        <f>VLOOKUP(B187,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B187,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Administration of nationally representative learning assessment in math (Grade 2 or 3)</v>
       </c>
       <c r="D187" s="25" t="str">
-        <f>VLOOKUP(B187,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B187,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_ADMIN_L1_G2OR3_MAT</v>
       </c>
       <c r="E187" s="1">
@@ -15794,7 +15836,7 @@
         <v>2155</v>
       </c>
       <c r="I187" s="25" t="str">
-        <f>VLOOKUP(H187,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H187,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_ADMIN_G2OR3_MAT</v>
       </c>
       <c r="K187" s="1"/>
@@ -15807,11 +15849,11 @@
         <v>1272</v>
       </c>
       <c r="C188" s="49" t="str">
-        <f>VLOOKUP(B188,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B188,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 2 (%) in Mathematics</v>
       </c>
       <c r="D188" s="25" t="str">
-        <f>VLOOKUP(B188,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B188,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_PISA_MAT2</v>
       </c>
       <c r="E188" s="1">
@@ -15828,7 +15870,7 @@
         <v>2564</v>
       </c>
       <c r="I188" s="25" t="str">
-        <f>VLOOKUP(H188,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H188,Source!$A$2:$G$232,3,FALSE)</f>
         <v>WB: LO.PISA.MAT.2</v>
       </c>
       <c r="K188" s="1"/>
@@ -15841,11 +15883,11 @@
         <v>1274</v>
       </c>
       <c r="C189" s="49" t="str">
-        <f>VLOOKUP(B189,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B189,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 3 (%) in Mathematics</v>
       </c>
       <c r="D189" s="25" t="str">
-        <f>VLOOKUP(B189,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B189,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_PISA_MAT3</v>
       </c>
       <c r="E189" s="1">
@@ -15862,7 +15904,7 @@
         <v>2565</v>
       </c>
       <c r="I189" s="25" t="str">
-        <f>VLOOKUP(H189,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H189,Source!$A$2:$G$232,3,FALSE)</f>
         <v>WB: LO.PISA.MAT.3</v>
       </c>
       <c r="K189" s="1"/>
@@ -15875,11 +15917,11 @@
         <v>1276</v>
       </c>
       <c r="C190" s="49" t="str">
-        <f>VLOOKUP(B190,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B190,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 4 (%) in Mathematics</v>
       </c>
       <c r="D190" s="25" t="str">
-        <f>VLOOKUP(B190,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B190,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_PISA_MAT4</v>
       </c>
       <c r="E190" s="1">
@@ -15896,7 +15938,7 @@
         <v>2566</v>
       </c>
       <c r="I190" s="25" t="str">
-        <f>VLOOKUP(H190,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H190,Source!$A$2:$G$232,3,FALSE)</f>
         <v>WB: LO.PISA.MAT.4</v>
       </c>
       <c r="K190" s="1"/>
@@ -15909,11 +15951,11 @@
         <v>1278</v>
       </c>
       <c r="C191" s="49" t="str">
-        <f>VLOOKUP(B191,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B191,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 5 (%) in Mathematics</v>
       </c>
       <c r="D191" s="25" t="str">
-        <f>VLOOKUP(B191,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B191,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_PISA_MAT5</v>
       </c>
       <c r="E191" s="1">
@@ -15930,7 +15972,7 @@
         <v>2567</v>
       </c>
       <c r="I191" s="25" t="str">
-        <f>VLOOKUP(H191,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H191,Source!$A$2:$G$232,3,FALSE)</f>
         <v>WB: LO.PISA.MAT.5</v>
       </c>
       <c r="K191" s="1"/>
@@ -15943,11 +15985,11 @@
         <v>1280</v>
       </c>
       <c r="C192" s="49" t="str">
-        <f>VLOOKUP(B192,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B192,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 6 (%) in Mathematics</v>
       </c>
       <c r="D192" s="25" t="str">
-        <f>VLOOKUP(B192,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B192,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_PISA_MAT6</v>
       </c>
       <c r="E192" s="1">
@@ -15964,7 +16006,7 @@
         <v>2572</v>
       </c>
       <c r="I192" s="25" t="str">
-        <f>VLOOKUP(H192,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H192,Source!$A$2:$G$232,3,FALSE)</f>
         <v>WB: LO.PISA.MAT.6</v>
       </c>
       <c r="K192" s="1"/>
@@ -15977,11 +16019,11 @@
         <v>1282</v>
       </c>
       <c r="C193" s="49" t="str">
-        <f>VLOOKUP(B193,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B193,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 2 (%) in Reading</v>
       </c>
       <c r="D193" s="25" t="str">
-        <f>VLOOKUP(B193,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B193,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_PISA_REA2</v>
       </c>
       <c r="E193" s="1">
@@ -15998,7 +16040,7 @@
         <v>2573</v>
       </c>
       <c r="I193" s="25" t="str">
-        <f>VLOOKUP(H193,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H193,Source!$A$2:$G$232,3,FALSE)</f>
         <v>WB: LO.PISA.REA.2</v>
       </c>
       <c r="K193" s="1"/>
@@ -16011,11 +16053,11 @@
         <v>1284</v>
       </c>
       <c r="C194" s="49" t="str">
-        <f>VLOOKUP(B194,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B194,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 3 (%) in Reading</v>
       </c>
       <c r="D194" s="25" t="str">
-        <f>VLOOKUP(B194,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B194,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_PISA_REA3</v>
       </c>
       <c r="E194" s="1">
@@ -16032,7 +16074,7 @@
         <v>2574</v>
       </c>
       <c r="I194" s="25" t="str">
-        <f>VLOOKUP(H194,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H194,Source!$A$2:$G$232,3,FALSE)</f>
         <v>WB: LO.PISA.REA.3</v>
       </c>
       <c r="K194" s="1"/>
@@ -16045,11 +16087,11 @@
         <v>1286</v>
       </c>
       <c r="C195" s="49" t="str">
-        <f>VLOOKUP(B195,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B195,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 4 (%) in Reading</v>
       </c>
       <c r="D195" s="25" t="str">
-        <f>VLOOKUP(B195,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B195,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_PISA_REA4</v>
       </c>
       <c r="E195" s="1">
@@ -16066,7 +16108,7 @@
         <v>2575</v>
       </c>
       <c r="I195" s="25" t="str">
-        <f>VLOOKUP(H195,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H195,Source!$A$2:$G$232,3,FALSE)</f>
         <v>WB: LO.PISA.REA.4</v>
       </c>
       <c r="K195" s="1"/>
@@ -16079,11 +16121,11 @@
         <v>1288</v>
       </c>
       <c r="C196" s="49" t="str">
-        <f>VLOOKUP(B196,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B196,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 5 (%) in Reading</v>
       </c>
       <c r="D196" s="25" t="str">
-        <f>VLOOKUP(B196,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B196,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_PISA_REA5</v>
       </c>
       <c r="E196" s="1">
@@ -16100,7 +16142,7 @@
         <v>2588</v>
       </c>
       <c r="I196" s="25" t="str">
-        <f>VLOOKUP(H196,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H196,Source!$A$2:$G$232,3,FALSE)</f>
         <v>WB: LO.PISA.REA.5</v>
       </c>
       <c r="K196" s="1"/>
@@ -16113,11 +16155,11 @@
         <v>1290</v>
       </c>
       <c r="C197" s="49" t="str">
-        <f>VLOOKUP(B197,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B197,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 6 (%) in Reading</v>
       </c>
       <c r="D197" s="25" t="str">
-        <f>VLOOKUP(B197,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B197,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_PISA_REA6</v>
       </c>
       <c r="E197" s="1">
@@ -16134,7 +16176,7 @@
         <v>2598</v>
       </c>
       <c r="I197" s="25" t="str">
-        <f>VLOOKUP(H197,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H197,Source!$A$2:$G$232,3,FALSE)</f>
         <v>WB: LO.PISA.REA.6</v>
       </c>
       <c r="K197" s="1"/>
@@ -16147,11 +16189,11 @@
         <v>1292</v>
       </c>
       <c r="C198" s="49" t="str">
-        <f>VLOOKUP(B198,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B198,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 2 (%) in Science</v>
       </c>
       <c r="D198" s="25" t="str">
-        <f>VLOOKUP(B198,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B198,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_PISA_SCI2</v>
       </c>
       <c r="E198" s="1">
@@ -16168,7 +16210,7 @@
         <v>2630</v>
       </c>
       <c r="I198" s="25" t="str">
-        <f>VLOOKUP(H198,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H198,Source!$A$2:$G$232,3,FALSE)</f>
         <v>WB: LO.PISA.SCI.2</v>
       </c>
       <c r="K198" s="1"/>
@@ -16181,11 +16223,11 @@
         <v>1293</v>
       </c>
       <c r="C199" s="49" t="str">
-        <f>VLOOKUP(B199,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B199,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 3 (%) in Science</v>
       </c>
       <c r="D199" s="25" t="str">
-        <f>VLOOKUP(B199,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B199,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_PISA_SCI3</v>
       </c>
       <c r="E199" s="1">
@@ -16202,7 +16244,7 @@
         <v>2631</v>
       </c>
       <c r="I199" s="25" t="str">
-        <f>VLOOKUP(H199,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H199,Source!$A$2:$G$232,3,FALSE)</f>
         <v>WB: LO.PISA.SCI.3</v>
       </c>
       <c r="K199" s="1"/>
@@ -16215,11 +16257,11 @@
         <v>1295</v>
       </c>
       <c r="C200" s="49" t="str">
-        <f>VLOOKUP(B200,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B200,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 4 (%) in Science</v>
       </c>
       <c r="D200" s="25" t="str">
-        <f>VLOOKUP(B200,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B200,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_PISA_SCI4</v>
       </c>
       <c r="E200" s="1">
@@ -16236,7 +16278,7 @@
         <v>2662</v>
       </c>
       <c r="I200" s="25" t="str">
-        <f>VLOOKUP(H200,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H200,Source!$A$2:$G$232,3,FALSE)</f>
         <v>WB: LO.PISA.SCI.4</v>
       </c>
       <c r="K200" s="1"/>
@@ -16249,11 +16291,11 @@
         <v>1297</v>
       </c>
       <c r="C201" s="49" t="str">
-        <f>VLOOKUP(B201,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B201,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 5 (%) in Science</v>
       </c>
       <c r="D201" s="25" t="str">
-        <f>VLOOKUP(B201,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B201,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_PISA_SCI5</v>
       </c>
       <c r="E201" s="1">
@@ -16270,7 +16312,7 @@
         <v>2696</v>
       </c>
       <c r="I201" s="25" t="str">
-        <f>VLOOKUP(H201,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H201,Source!$A$2:$G$232,3,FALSE)</f>
         <v>WB: LO.PISA.SCI.5</v>
       </c>
       <c r="K201" s="1"/>
@@ -16283,11 +16325,11 @@
         <v>1299</v>
       </c>
       <c r="C202" s="49" t="str">
-        <f>VLOOKUP(B202,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B202,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 6 (%) in Science</v>
       </c>
       <c r="D202" s="25" t="str">
-        <f>VLOOKUP(B202,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B202,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDU_PISA_SCI6</v>
       </c>
       <c r="E202" s="1">
@@ -16304,7 +16346,7 @@
         <v>2697</v>
       </c>
       <c r="I202" s="25" t="str">
-        <f>VLOOKUP(H202,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H202,Source!$A$2:$G$232,3,FALSE)</f>
         <v>WB: LO.PISA.SCI.6</v>
       </c>
       <c r="K202" s="1"/>
@@ -16317,11 +16359,11 @@
         <v>1301</v>
       </c>
       <c r="C203" s="49" t="str">
-        <f>VLOOKUP(B203,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B203,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Adult literacy rate, population 15+ years by sex (%)</v>
       </c>
       <c r="D203" s="25" t="str">
-        <f>VLOOKUP(B203,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B203,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_LR_ADULT</v>
       </c>
       <c r="E203" s="1">
@@ -16338,7 +16380,7 @@
         <v>2698</v>
       </c>
       <c r="I203" s="25" t="str">
-        <f>VLOOKUP(H203,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H203,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_LR_ADULT</v>
       </c>
       <c r="K203" s="1"/>
@@ -16351,11 +16393,11 @@
         <v>1303</v>
       </c>
       <c r="C204" s="49" t="str">
-        <f>VLOOKUP(B204,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B204,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Percentage of females among repeaters in secondary education (ISCED 2 and 3)</v>
       </c>
       <c r="D204" s="25" t="str">
-        <f>VLOOKUP(B204,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B204,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_FRP_L2AND3</v>
       </c>
       <c r="E204" s="1">
@@ -16372,7 +16414,7 @@
         <v>2741</v>
       </c>
       <c r="I204" s="25" t="str">
-        <f>VLOOKUP(H204,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H204,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_FRP_L2AND3</v>
       </c>
       <c r="K204" s="1"/>
@@ -16385,11 +16427,11 @@
         <v>1305</v>
       </c>
       <c r="C205" s="49" t="str">
-        <f>VLOOKUP(B205,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B205,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Number of out-of-school children one year younger than the official entry age to primary education by sex</v>
       </c>
       <c r="D205" s="25" t="str">
-        <f>VLOOKUP(B205,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B205,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_OFST_L1_UNDER1</v>
       </c>
       <c r="E205" s="1">
@@ -16406,7 +16448,7 @@
         <v>2222</v>
       </c>
       <c r="I205" s="25" t="str">
-        <f>VLOOKUP(H205,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H205,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_OFST_L1_UNDER1</v>
       </c>
       <c r="K205" s="1"/>
@@ -16419,11 +16461,11 @@
         <v>1307</v>
       </c>
       <c r="C206" s="49" t="str">
-        <f>VLOOKUP(B206,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B206,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Out-of-school rate for children one year younger than the official entry age to primary education by sex (%)</v>
       </c>
       <c r="D206" s="25" t="str">
-        <f>VLOOKUP(B206,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B206,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_ROFST_L1_UNDER1</v>
       </c>
       <c r="E206" s="1">
@@ -16440,7 +16482,7 @@
         <v>2227</v>
       </c>
       <c r="I206" s="25" t="str">
-        <f>VLOOKUP(H206,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H206,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_ROFST_L1_UNDER1</v>
       </c>
       <c r="K206" s="1"/>
@@ -16453,11 +16495,11 @@
         <v>1309</v>
       </c>
       <c r="C207" s="49" t="str">
-        <f>VLOOKUP(B207,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B207,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Gross enrolment ratio, early childhood educational development programmes, Gender Parity Index (GPI)</v>
       </c>
       <c r="D207" s="25" t="str">
-        <f>VLOOKUP(B207,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B207,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_GER_GPI_L01</v>
       </c>
       <c r="E207" s="1">
@@ -16474,7 +16516,7 @@
         <v>2228</v>
       </c>
       <c r="I207" s="25" t="str">
-        <f>VLOOKUP(H207,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H207,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_GER_GPI_L01</v>
       </c>
       <c r="K207" s="1"/>
@@ -16487,11 +16529,11 @@
         <v>1311</v>
       </c>
       <c r="C208" s="49" t="str">
-        <f>VLOOKUP(B208,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B208,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Population of the official age for pre-primary education (number of persons, by sex)</v>
       </c>
       <c r="D208" s="25" t="str">
-        <f>VLOOKUP(B208,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B208,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_SAP_L02</v>
       </c>
       <c r="E208" s="1">
@@ -16508,7 +16550,7 @@
         <v>2234</v>
       </c>
       <c r="I208" s="25" t="str">
-        <f>VLOOKUP(H208,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H208,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_SAP_L02</v>
       </c>
       <c r="K208" s="1"/>
@@ -16521,11 +16563,11 @@
         <v>1313</v>
       </c>
       <c r="C209" s="49" t="str">
-        <f>VLOOKUP(B209,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B209,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Population of the official age for primary education (number of persons, by sex)</v>
       </c>
       <c r="D209" s="25" t="str">
-        <f>VLOOKUP(B209,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B209,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_SAP_L1</v>
       </c>
       <c r="E209" s="1">
@@ -16542,7 +16584,7 @@
         <v>2235</v>
       </c>
       <c r="I209" s="25" t="str">
-        <f>VLOOKUP(H209,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H209,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_SAP_L1</v>
       </c>
       <c r="K209" s="1"/>
@@ -16555,11 +16597,11 @@
         <v>1315</v>
       </c>
       <c r="C210" s="49" t="str">
-        <f>VLOOKUP(B210,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B210,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Population of the official age for lower secondary education (number of persons, by sex)</v>
       </c>
       <c r="D210" s="25" t="str">
-        <f>VLOOKUP(B210,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B210,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_SAP_L2</v>
       </c>
       <c r="E210" s="1">
@@ -16576,7 +16618,7 @@
         <v>2236</v>
       </c>
       <c r="I210" s="25" t="str">
-        <f>VLOOKUP(H210,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H210,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_SAP_L2</v>
       </c>
       <c r="K210" s="1"/>
@@ -16589,11 +16631,11 @@
         <v>1317</v>
       </c>
       <c r="C211" s="49" t="str">
-        <f>VLOOKUP(B211,Indicator!$A$2:$F$691,5,FALSE)</f>
+        <f>VLOOKUP(B211,Indicator!$A$2:$F$693,5,FALSE)</f>
         <v>Population of the official age for upper secondary education (number of persons, by sex)</v>
       </c>
       <c r="D211" s="25" t="str">
-        <f>VLOOKUP(B211,Indicator!$A$2:$F$691,6,FALSE)</f>
+        <f>VLOOKUP(B211,Indicator!$A$2:$F$693,6,FALSE)</f>
         <v>EDUNF_SAP_L3</v>
       </c>
       <c r="E211" s="1">
@@ -16610,97 +16652,99 @@
         <v>2237</v>
       </c>
       <c r="I211" s="25" t="str">
-        <f>VLOOKUP(H211,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H211,Source!$A$2:$G$232,3,FALSE)</f>
         <v>UIS: EDUNF_SAP_L3</v>
       </c>
       <c r="K211" s="1"/>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A212" s="1" t="s">
+        <v>2763</v>
+      </c>
+      <c r="B212" s="16" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C212" s="49" t="str">
+        <f>VLOOKUP(B212,Indicator!$A$2:$F$693,5,FALSE)</f>
+        <v>Population of the official age for primary and secondary education - ISCED 1 to 3 included - (number of persons, by sex)</v>
+      </c>
+      <c r="D212" s="25" t="str">
+        <f>VLOOKUP(B212,Indicator!$A$2:$F$693,6,FALSE)</f>
+        <v>EDUNF_SAP_L1T3</v>
+      </c>
+      <c r="E212" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="G212" s="1" t="str">
+        <f>VLOOKUP(F212,Value_type!$A$2:$H$107,3,FALSE)</f>
+        <v>PS</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>2238</v>
+      </c>
+      <c r="I212" s="25" t="str">
+        <f>VLOOKUP(H212,Source!$A$2:$G$232,3,FALSE)</f>
+        <v>UIS: EDUNF_SAP_L1T3</v>
+      </c>
+      <c r="K212" s="1"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
-        <v>2763</v>
+        <v>2868</v>
       </c>
       <c r="B213" s="16" t="s">
-        <v>1428</v>
-      </c>
-      <c r="C213" s="58" t="str">
-        <f>VLOOKUP(B213,Indicator!$A$2:$F$691,5,FALSE)</f>
-        <v>Percentage of children (by sex, age groups, residence and wealth quintile) whose births are registered</v>
+        <v>1321</v>
+      </c>
+      <c r="C213" s="49" t="str">
+        <f>VLOOKUP(B213,Indicator!$A$2:$F$693,5,FALSE)</f>
+        <v>Number of out-of-school children, adolescents and youth of primary and secondary school age (persons, by sex)</v>
       </c>
       <c r="D213" s="25" t="str">
-        <f>VLOOKUP(B213,Indicator!$A$2:$F$691,6,FALSE)</f>
-        <v>PT_CHLD_Y0T4_REG</v>
+        <f>VLOOKUP(B213,Indicator!$A$2:$F$693,6,FALSE)</f>
+        <v>EDUNF_OFST_L1T3</v>
       </c>
       <c r="E213" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G213" s="1" t="str">
         <f>VLOOKUP(F213,Value_type!$A$2:$H$107,3,FALSE)</f>
-        <v>PCNT</v>
+        <v>PS</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="I213" s="25" t="str">
-        <f>VLOOKUP(H213,Source!$A$2:$G$230,3,FALSE)</f>
-        <v>Helix: PT_CHLD_Y0T4_REG</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A214" s="1" t="s">
-        <v>2868</v>
-      </c>
-      <c r="B214" s="16" t="s">
-        <v>1430</v>
-      </c>
-      <c r="C214" s="58" t="str">
-        <f>VLOOKUP(B214,Indicator!$A$2:$F$691,5,FALSE)</f>
-        <v>Percentage of children (by sex, age groups, residence and wealth quintile) who experienced any physical punishment and/or psychological aggression by caregivers</v>
-      </c>
-      <c r="D214" s="25" t="str">
-        <f>VLOOKUP(B214,Indicator!$A$2:$F$691,6,FALSE)</f>
-        <v>PT_CHLD_1-14_PS-PSY-V_CGVR</v>
-      </c>
-      <c r="E214" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F214" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="G214" s="1" t="str">
-        <f>VLOOKUP(F214,Value_type!$A$2:$H$107,3,FALSE)</f>
-        <v>PCNT</v>
-      </c>
-      <c r="H214" s="1" t="s">
-        <v>2239</v>
-      </c>
-      <c r="I214" s="25" t="str">
-        <f>VLOOKUP(H214,Source!$A$2:$G$230,3,FALSE)</f>
-        <v>Helix: PT_CHLD_1-14_PS-PSY-V_CGVR</v>
-      </c>
+        <f>VLOOKUP(H213,Source!$A$2:$G$232,3,FALSE)</f>
+        <v>UIS: EDUNF_OFST_L1T3</v>
+      </c>
+      <c r="K213" s="1"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>2869</v>
       </c>
       <c r="B215" s="16" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="C215" s="58" t="str">
-        <f>VLOOKUP(B215,Indicator!$A$2:$F$691,5,FALSE)</f>
-        <v>Percentage of children under age 5 (by sex, residence and wealth quintile) left alone or under the supervision of another child younger than 10 years of age for more than 1 hour at least once in the last week</v>
+        <f>VLOOKUP(B215,Indicator!$A$2:$F$693,5,FALSE)</f>
+        <v>Percentage of children (by sex, age groups, residence and wealth quintile) whose births are registered</v>
       </c>
       <c r="D215" s="25" t="str">
-        <f>VLOOKUP(B215,Indicator!$A$2:$F$691,6,FALSE)</f>
-        <v>ECD_CHLD_U5_LFT-ALN</v>
+        <f>VLOOKUP(B215,Indicator!$A$2:$F$693,6,FALSE)</f>
+        <v>PT_CHLD_Y0T4_REG</v>
       </c>
       <c r="E215" s="1">
         <v>2020</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="G215" s="1" t="str">
         <f>VLOOKUP(F215,Value_type!$A$2:$H$107,3,FALSE)</f>
@@ -16710,8 +16754,8 @@
         <v>2240</v>
       </c>
       <c r="I215" s="25" t="str">
-        <f>VLOOKUP(H215,Source!$A$2:$G$230,3,FALSE)</f>
-        <v>Helix: ECD_CHLD_U5_LFT-ALN</v>
+        <f>VLOOKUP(H215,Source!$A$2:$G$232,3,FALSE)</f>
+        <v>Helix: PT_CHLD_Y0T4_REG</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.35">
@@ -16719,32 +16763,32 @@
         <v>2870</v>
       </c>
       <c r="B216" s="16" t="s">
-        <v>1804</v>
+        <v>1432</v>
       </c>
       <c r="C216" s="58" t="str">
-        <f>VLOOKUP(B216,Indicator!$A$2:$F$691,5,FALSE)</f>
-        <v>Maternity leave benefits</v>
+        <f>VLOOKUP(B216,Indicator!$A$2:$F$693,5,FALSE)</f>
+        <v>Percentage of children (by sex, age groups, residence and wealth quintile) who experienced any physical punishment and/or psychological aggression by caregivers</v>
       </c>
       <c r="D216" s="25" t="str">
-        <f>VLOOKUP(B216,Indicator!$A$2:$F$691,6,FALSE)</f>
-        <v>GN_MTNTY_LV_BNFTS</v>
+        <f>VLOOKUP(B216,Indicator!$A$2:$F$693,6,FALSE)</f>
+        <v>PT_CHLD_1-14_PS-PSY-V_CGVR</v>
       </c>
       <c r="E216" s="1">
         <v>2020</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="G216" s="1" t="str">
         <f>VLOOKUP(F216,Value_type!$A$2:$H$107,3,FALSE)</f>
-        <v>BINARY</v>
+        <v>PCNT</v>
       </c>
       <c r="H216" s="1" t="s">
         <v>2241</v>
       </c>
       <c r="I216" s="25" t="str">
-        <f>VLOOKUP(H216,Source!$A$2:$G$230,3,FALSE)</f>
-        <v>Helix: GN_MTNTY_LV_BNFTS</v>
+        <f>VLOOKUP(H216,Source!$A$2:$G$232,3,FALSE)</f>
+        <v>Helix: PT_CHLD_1-14_PS-PSY-V_CGVR</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.35">
@@ -16752,31 +16796,97 @@
         <v>2871</v>
       </c>
       <c r="B217" s="16" t="s">
-        <v>1806</v>
+        <v>1434</v>
       </c>
       <c r="C217" s="58" t="str">
-        <f>VLOOKUP(B217,Indicator!$A$2:$F$691,5,FALSE)</f>
-        <v>Paternity leave benefits</v>
+        <f>VLOOKUP(B217,Indicator!$A$2:$F$693,5,FALSE)</f>
+        <v>Percentage of children under age 5 (by sex, residence and wealth quintile) left alone or under the supervision of another child younger than 10 years of age for more than 1 hour at least once in the last week</v>
       </c>
       <c r="D217" s="25" t="str">
-        <f>VLOOKUP(B217,Indicator!$A$2:$F$691,6,FALSE)</f>
-        <v>GN_PTNTY_LV_BNFTS</v>
+        <f>VLOOKUP(B217,Indicator!$A$2:$F$693,6,FALSE)</f>
+        <v>ECD_CHLD_U5_LFT-ALN</v>
       </c>
       <c r="E217" s="1">
         <v>2020</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="G217" s="1" t="str">
         <f>VLOOKUP(F217,Value_type!$A$2:$H$107,3,FALSE)</f>
-        <v>BINARY</v>
+        <v>PCNT</v>
       </c>
       <c r="H217" s="1" t="s">
         <v>2242</v>
       </c>
       <c r="I217" s="25" t="str">
-        <f>VLOOKUP(H217,Source!$A$2:$G$230,3,FALSE)</f>
+        <f>VLOOKUP(H217,Source!$A$2:$G$232,3,FALSE)</f>
+        <v>Helix: ECD_CHLD_U5_LFT-ALN</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A218" s="1" t="s">
+        <v>2880</v>
+      </c>
+      <c r="B218" s="16" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C218" s="58" t="str">
+        <f>VLOOKUP(B218,Indicator!$A$2:$F$693,5,FALSE)</f>
+        <v>Maternity leave benefits</v>
+      </c>
+      <c r="D218" s="25" t="str">
+        <f>VLOOKUP(B218,Indicator!$A$2:$F$693,6,FALSE)</f>
+        <v>GN_MTNTY_LV_BNFTS</v>
+      </c>
+      <c r="E218" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="G218" s="1" t="str">
+        <f>VLOOKUP(F218,Value_type!$A$2:$H$107,3,FALSE)</f>
+        <v>BINARY</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I218" s="25" t="str">
+        <f>VLOOKUP(H218,Source!$A$2:$G$232,3,FALSE)</f>
+        <v>Helix: GN_MTNTY_LV_BNFTS</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A219" s="1" t="s">
+        <v>2881</v>
+      </c>
+      <c r="B219" s="16" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C219" s="58" t="str">
+        <f>VLOOKUP(B219,Indicator!$A$2:$F$693,5,FALSE)</f>
+        <v>Paternity leave benefits</v>
+      </c>
+      <c r="D219" s="25" t="str">
+        <f>VLOOKUP(B219,Indicator!$A$2:$F$693,6,FALSE)</f>
+        <v>GN_PTNTY_LV_BNFTS</v>
+      </c>
+      <c r="E219" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="G219" s="1" t="str">
+        <f>VLOOKUP(F219,Value_type!$A$2:$H$107,3,FALSE)</f>
+        <v>BINARY</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I219" s="25" t="str">
+        <f>VLOOKUP(H219,Source!$A$2:$G$232,3,FALSE)</f>
         <v>Helix: GN_PTNTY_LV_BNFTS</v>
       </c>
     </row>
@@ -17315,11 +17425,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M638"/>
+  <dimension ref="A1:M640"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A269" sqref="A269:A638"/>
+      <pane ySplit="1" topLeftCell="A259" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A271" sqref="A271:A640"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22893,32 +23003,52 @@
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A268" s="16"/>
-      <c r="B268" s="58"/>
-      <c r="C268" s="58"/>
-      <c r="D268" s="36"/>
-      <c r="E268" s="36"/>
-      <c r="F268" s="36"/>
-      <c r="I268"/>
-      <c r="J268"/>
+      <c r="A268" s="16" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B268" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="C268" s="49" t="s">
+        <v>2380</v>
+      </c>
+      <c r="D268" s="25" t="s">
+        <v>2843</v>
+      </c>
+      <c r="E268" s="50" t="s">
+        <v>2872</v>
+      </c>
+      <c r="F268" t="s">
+        <v>2873</v>
+      </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A269" s="16" t="s">
-        <v>1319</v>
-      </c>
-      <c r="E269" t="s">
-        <v>1259</v>
-      </c>
-      <c r="I269"/>
-      <c r="J269"/>
+        <v>1321</v>
+      </c>
+      <c r="B269" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="C269" s="49" t="s">
+        <v>2380</v>
+      </c>
+      <c r="D269" s="25" t="s">
+        <v>2615</v>
+      </c>
+      <c r="E269" s="50" t="s">
+        <v>2877</v>
+      </c>
+      <c r="F269" t="s">
+        <v>2876</v>
+      </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A270" s="16" t="s">
-        <v>1321</v>
-      </c>
-      <c r="E270" t="s">
-        <v>1261</v>
-      </c>
+      <c r="A270" s="16"/>
+      <c r="B270" s="58"/>
+      <c r="C270" s="58"/>
+      <c r="D270" s="36"/>
+      <c r="E270" s="36"/>
+      <c r="F270" s="36"/>
       <c r="I270"/>
       <c r="J270"/>
     </row>
@@ -22927,7 +23057,7 @@
         <v>1323</v>
       </c>
       <c r="E271" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="I271"/>
       <c r="J271"/>
@@ -22937,7 +23067,7 @@
         <v>1325</v>
       </c>
       <c r="E272" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="I272"/>
       <c r="J272"/>
@@ -22947,7 +23077,7 @@
         <v>1327</v>
       </c>
       <c r="E273" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="I273"/>
       <c r="J273"/>
@@ -22957,7 +23087,7 @@
         <v>1329</v>
       </c>
       <c r="E274" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="I274"/>
       <c r="J274"/>
@@ -22967,7 +23097,7 @@
         <v>1331</v>
       </c>
       <c r="E275" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="I275"/>
       <c r="J275"/>
@@ -22977,7 +23107,7 @@
         <v>1333</v>
       </c>
       <c r="E276" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="I276"/>
       <c r="J276"/>
@@ -22987,7 +23117,7 @@
         <v>1335</v>
       </c>
       <c r="E277" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="I277"/>
       <c r="J277"/>
@@ -22997,7 +23127,7 @@
         <v>1337</v>
       </c>
       <c r="E278" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="I278"/>
       <c r="J278"/>
@@ -23007,7 +23137,7 @@
         <v>1339</v>
       </c>
       <c r="E279" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="I279"/>
       <c r="J279"/>
@@ -23017,7 +23147,7 @@
         <v>1341</v>
       </c>
       <c r="E280" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="I280"/>
       <c r="J280"/>
@@ -23027,7 +23157,7 @@
         <v>1343</v>
       </c>
       <c r="E281" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="I281"/>
       <c r="J281"/>
@@ -23037,7 +23167,7 @@
         <v>1345</v>
       </c>
       <c r="E282" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="I282"/>
       <c r="J282"/>
@@ -23047,7 +23177,7 @@
         <v>1347</v>
       </c>
       <c r="E283" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="I283"/>
       <c r="J283"/>
@@ -23057,7 +23187,7 @@
         <v>1349</v>
       </c>
       <c r="E284" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="I284"/>
       <c r="J284"/>
@@ -23067,7 +23197,7 @@
         <v>1351</v>
       </c>
       <c r="E285" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="I285"/>
       <c r="J285"/>
@@ -23077,7 +23207,7 @@
         <v>1353</v>
       </c>
       <c r="E286" t="s">
-        <v>1214</v>
+        <v>1289</v>
       </c>
       <c r="I286"/>
       <c r="J286"/>
@@ -23087,7 +23217,7 @@
         <v>1355</v>
       </c>
       <c r="E287" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="I287"/>
       <c r="J287"/>
@@ -23097,7 +23227,7 @@
         <v>1357</v>
       </c>
       <c r="E288" t="s">
-        <v>1296</v>
+        <v>1214</v>
       </c>
       <c r="I288"/>
       <c r="J288"/>
@@ -23107,7 +23237,7 @@
         <v>1359</v>
       </c>
       <c r="E289" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="I289"/>
       <c r="J289"/>
@@ -23117,7 +23247,7 @@
         <v>1361</v>
       </c>
       <c r="E290" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="I290"/>
       <c r="J290"/>
@@ -23127,7 +23257,7 @@
         <v>1363</v>
       </c>
       <c r="E291" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="I291"/>
       <c r="J291"/>
@@ -23137,7 +23267,7 @@
         <v>1365</v>
       </c>
       <c r="E292" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="I292"/>
       <c r="J292"/>
@@ -23147,7 +23277,7 @@
         <v>1367</v>
       </c>
       <c r="E293" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="I293"/>
       <c r="J293"/>
@@ -23157,7 +23287,7 @@
         <v>1369</v>
       </c>
       <c r="E294" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="I294"/>
       <c r="J294"/>
@@ -23167,7 +23297,7 @@
         <v>1371</v>
       </c>
       <c r="E295" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="I295"/>
       <c r="J295"/>
@@ -23177,7 +23307,7 @@
         <v>507</v>
       </c>
       <c r="E296" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="I296"/>
       <c r="J296"/>
@@ -23187,7 +23317,7 @@
         <v>510</v>
       </c>
       <c r="E297" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="I297"/>
       <c r="J297"/>
@@ -23197,23 +23327,27 @@
         <v>1375</v>
       </c>
       <c r="E298" t="s">
-        <v>1316</v>
-      </c>
+        <v>1312</v>
+      </c>
+      <c r="I298"/>
+      <c r="J298"/>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A299" s="16" t="s">
         <v>513</v>
       </c>
       <c r="E299" t="s">
-        <v>1318</v>
-      </c>
+        <v>1314</v>
+      </c>
+      <c r="I299"/>
+      <c r="J299"/>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A300" s="16" t="s">
         <v>1378</v>
       </c>
       <c r="E300" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.35">
@@ -23221,7 +23355,7 @@
         <v>1380</v>
       </c>
       <c r="E301" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.35">
@@ -23229,7 +23363,7 @@
         <v>1382</v>
       </c>
       <c r="E302" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.35">
@@ -23237,7 +23371,7 @@
         <v>1384</v>
       </c>
       <c r="E303" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.35">
@@ -23245,7 +23379,7 @@
         <v>1386</v>
       </c>
       <c r="E304" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.35">
@@ -23253,7 +23387,7 @@
         <v>1388</v>
       </c>
       <c r="E305" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.35">
@@ -23261,7 +23395,7 @@
         <v>1390</v>
       </c>
       <c r="E306" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.35">
@@ -23269,7 +23403,7 @@
         <v>1392</v>
       </c>
       <c r="E307" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.35">
@@ -23277,7 +23411,7 @@
         <v>1394</v>
       </c>
       <c r="E308" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.35">
@@ -23285,7 +23419,7 @@
         <v>1396</v>
       </c>
       <c r="E309" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.35">
@@ -23293,7 +23427,7 @@
         <v>1398</v>
       </c>
       <c r="E310" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.35">
@@ -23301,7 +23435,7 @@
         <v>1400</v>
       </c>
       <c r="E311" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.35">
@@ -23309,7 +23443,7 @@
         <v>1402</v>
       </c>
       <c r="E312" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.35">
@@ -23317,7 +23451,7 @@
         <v>1404</v>
       </c>
       <c r="E313" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.35">
@@ -23325,7 +23459,7 @@
         <v>1406</v>
       </c>
       <c r="E314" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.35">
@@ -23333,7 +23467,7 @@
         <v>1408</v>
       </c>
       <c r="E315" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.35">
@@ -23341,7 +23475,7 @@
         <v>1410</v>
       </c>
       <c r="E316" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.35">
@@ -23349,7 +23483,7 @@
         <v>1412</v>
       </c>
       <c r="E317" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.35">
@@ -23357,7 +23491,7 @@
         <v>1414</v>
       </c>
       <c r="E318" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.35">
@@ -23365,7 +23499,7 @@
         <v>1416</v>
       </c>
       <c r="E319" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.35">
@@ -23373,7 +23507,7 @@
         <v>1418</v>
       </c>
       <c r="E320" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.35">
@@ -23381,7 +23515,7 @@
         <v>1420</v>
       </c>
       <c r="E321" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.35">
@@ -23389,7 +23523,7 @@
         <v>1422</v>
       </c>
       <c r="E322" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.35">
@@ -23397,7 +23531,7 @@
         <v>1424</v>
       </c>
       <c r="E323" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.35">
@@ -23405,7 +23539,7 @@
         <v>1425</v>
       </c>
       <c r="E324" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.35">
@@ -23413,7 +23547,7 @@
         <v>1426</v>
       </c>
       <c r="E325" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.35">
@@ -23421,7 +23555,7 @@
         <v>1427</v>
       </c>
       <c r="E326" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.35">
@@ -23429,10 +23563,7 @@
         <v>1428</v>
       </c>
       <c r="E327" t="s">
-        <v>2826</v>
-      </c>
-      <c r="F327" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.35">
@@ -23440,10 +23571,7 @@
         <v>1430</v>
       </c>
       <c r="E328" t="s">
-        <v>2827</v>
-      </c>
-      <c r="F328" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.35">
@@ -23451,7 +23579,10 @@
         <v>1431</v>
       </c>
       <c r="E329" t="s">
-        <v>1376</v>
+        <v>2826</v>
+      </c>
+      <c r="F329" t="s">
+        <v>1373</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.35">
@@ -23459,30 +23590,29 @@
         <v>1432</v>
       </c>
       <c r="E330" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="F330" t="s">
-        <v>1377</v>
-      </c>
-      <c r="I330"/>
-      <c r="J330"/>
+        <v>1374</v>
+      </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A331" s="16" t="s">
         <v>1433</v>
       </c>
       <c r="E331" t="s">
-        <v>1379</v>
-      </c>
-      <c r="I331"/>
-      <c r="J331"/>
+        <v>1376</v>
+      </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A332" s="16" t="s">
         <v>1434</v>
       </c>
       <c r="E332" t="s">
-        <v>1381</v>
+        <v>2828</v>
+      </c>
+      <c r="F332" t="s">
+        <v>1377</v>
       </c>
       <c r="I332"/>
       <c r="J332"/>
@@ -23492,7 +23622,7 @@
         <v>1436</v>
       </c>
       <c r="E333" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="I333"/>
       <c r="J333"/>
@@ -23502,7 +23632,7 @@
         <v>1438</v>
       </c>
       <c r="E334" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="I334"/>
       <c r="J334"/>
@@ -23512,7 +23642,7 @@
         <v>1440</v>
       </c>
       <c r="E335" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I335"/>
       <c r="J335"/>
@@ -23522,7 +23652,7 @@
         <v>1442</v>
       </c>
       <c r="E336" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="I336"/>
       <c r="J336"/>
@@ -23532,7 +23662,7 @@
         <v>1443</v>
       </c>
       <c r="E337" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="I337"/>
       <c r="J337"/>
@@ -23542,7 +23672,7 @@
         <v>1444</v>
       </c>
       <c r="E338" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="I338"/>
       <c r="J338"/>
@@ -23552,7 +23682,7 @@
         <v>1445</v>
       </c>
       <c r="E339" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="I339"/>
       <c r="J339"/>
@@ -23562,7 +23692,7 @@
         <v>1446</v>
       </c>
       <c r="E340" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="I340"/>
       <c r="J340"/>
@@ -23572,7 +23702,7 @@
         <v>1448</v>
       </c>
       <c r="E341" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="I341"/>
       <c r="J341"/>
@@ -23582,7 +23712,7 @@
         <v>1450</v>
       </c>
       <c r="E342" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="I342"/>
       <c r="J342"/>
@@ -23592,7 +23722,7 @@
         <v>1452</v>
       </c>
       <c r="E343" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="I343"/>
       <c r="J343"/>
@@ -23602,7 +23732,7 @@
         <v>1454</v>
       </c>
       <c r="E344" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="I344"/>
       <c r="J344"/>
@@ -23612,7 +23742,7 @@
         <v>1456</v>
       </c>
       <c r="E345" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="I345"/>
       <c r="J345"/>
@@ -23622,7 +23752,7 @@
         <v>1458</v>
       </c>
       <c r="E346" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="I346"/>
       <c r="J346"/>
@@ -23632,7 +23762,7 @@
         <v>1460</v>
       </c>
       <c r="E347" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="I347"/>
       <c r="J347"/>
@@ -23642,7 +23772,7 @@
         <v>1462</v>
       </c>
       <c r="E348" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="I348"/>
       <c r="J348"/>
@@ -23652,7 +23782,7 @@
         <v>1464</v>
       </c>
       <c r="E349" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="I349"/>
       <c r="J349"/>
@@ -23662,7 +23792,7 @@
         <v>1466</v>
       </c>
       <c r="E350" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="I350"/>
       <c r="J350"/>
@@ -23672,7 +23802,7 @@
         <v>1467</v>
       </c>
       <c r="E351" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="I351"/>
       <c r="J351"/>
@@ -23682,7 +23812,7 @@
         <v>1469</v>
       </c>
       <c r="E352" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="I352"/>
       <c r="J352"/>
@@ -23692,7 +23822,7 @@
         <v>1471</v>
       </c>
       <c r="E353" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="I353"/>
       <c r="J353"/>
@@ -23702,7 +23832,7 @@
         <v>1473</v>
       </c>
       <c r="E354" t="s">
-        <v>1415</v>
+        <v>1421</v>
       </c>
       <c r="I354"/>
       <c r="J354"/>
@@ -23712,7 +23842,7 @@
         <v>1475</v>
       </c>
       <c r="E355" t="s">
-        <v>1417</v>
+        <v>1423</v>
       </c>
       <c r="I355"/>
       <c r="J355"/>
@@ -23722,7 +23852,7 @@
         <v>1477</v>
       </c>
       <c r="E356" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="I356"/>
       <c r="J356"/>
@@ -23732,7 +23862,7 @@
         <v>1479</v>
       </c>
       <c r="E357" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="I357"/>
       <c r="J357"/>
@@ -23742,7 +23872,7 @@
         <v>1481</v>
       </c>
       <c r="E358" t="s">
-        <v>1429</v>
+        <v>1419</v>
       </c>
       <c r="I358"/>
       <c r="J358"/>
@@ -23752,7 +23882,7 @@
         <v>1483</v>
       </c>
       <c r="E359" t="s">
-        <v>1415</v>
+        <v>1421</v>
       </c>
       <c r="I359"/>
       <c r="J359"/>
@@ -23762,7 +23892,7 @@
         <v>1485</v>
       </c>
       <c r="E360" t="s">
-        <v>1417</v>
+        <v>1429</v>
       </c>
       <c r="I360"/>
       <c r="J360"/>
@@ -23772,7 +23902,7 @@
         <v>1487</v>
       </c>
       <c r="E361" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="I361"/>
       <c r="J361"/>
@@ -23782,7 +23912,7 @@
         <v>1489</v>
       </c>
       <c r="E362" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="I362"/>
       <c r="J362"/>
@@ -23792,7 +23922,7 @@
         <v>1491</v>
       </c>
       <c r="E363" t="s">
-        <v>1435</v>
+        <v>1419</v>
       </c>
       <c r="I363"/>
       <c r="J363"/>
@@ -23802,7 +23932,7 @@
         <v>1493</v>
       </c>
       <c r="E364" t="s">
-        <v>1437</v>
+        <v>1421</v>
       </c>
       <c r="I364"/>
       <c r="J364"/>
@@ -23812,7 +23942,7 @@
         <v>1495</v>
       </c>
       <c r="E365" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="I365"/>
       <c r="J365"/>
@@ -23822,7 +23952,7 @@
         <v>1497</v>
       </c>
       <c r="E366" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="I366"/>
       <c r="J366"/>
@@ -23832,7 +23962,7 @@
         <v>1499</v>
       </c>
       <c r="E367" t="s">
-        <v>1415</v>
+        <v>1439</v>
       </c>
       <c r="I367"/>
       <c r="J367"/>
@@ -23842,7 +23972,7 @@
         <v>1501</v>
       </c>
       <c r="E368" t="s">
-        <v>1417</v>
+        <v>1441</v>
       </c>
       <c r="I368"/>
       <c r="J368"/>
@@ -23852,7 +23982,7 @@
         <v>1502</v>
       </c>
       <c r="E369" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="I369"/>
       <c r="J369"/>
@@ -23862,7 +23992,7 @@
         <v>1503</v>
       </c>
       <c r="E370" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="I370"/>
       <c r="J370"/>
@@ -23872,7 +24002,7 @@
         <v>1504</v>
       </c>
       <c r="E371" t="s">
-        <v>1447</v>
+        <v>1419</v>
       </c>
       <c r="I371"/>
       <c r="J371"/>
@@ -23882,7 +24012,7 @@
         <v>1506</v>
       </c>
       <c r="E372" t="s">
-        <v>1449</v>
+        <v>1421</v>
       </c>
       <c r="I372"/>
       <c r="J372"/>
@@ -23892,7 +24022,7 @@
         <v>1508</v>
       </c>
       <c r="E373" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="I373"/>
       <c r="J373"/>
@@ -23902,7 +24032,7 @@
         <v>1509</v>
       </c>
       <c r="E374" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="I374"/>
       <c r="J374"/>
@@ -23912,7 +24042,7 @@
         <v>1510</v>
       </c>
       <c r="E375" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="I375"/>
       <c r="J375"/>
@@ -23922,7 +24052,7 @@
         <v>1511</v>
       </c>
       <c r="E376" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="I376"/>
       <c r="J376"/>
@@ -23932,7 +24062,7 @@
         <v>1512</v>
       </c>
       <c r="E377" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="I377"/>
       <c r="J377"/>
@@ -23942,7 +24072,7 @@
         <v>1514</v>
       </c>
       <c r="E378" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="I378"/>
       <c r="J378"/>
@@ -23952,7 +24082,7 @@
         <v>1515</v>
       </c>
       <c r="E379" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="I379"/>
       <c r="J379"/>
@@ -23962,7 +24092,7 @@
         <v>1516</v>
       </c>
       <c r="E380" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="I380"/>
       <c r="J380"/>
@@ -23972,7 +24102,7 @@
         <v>1517</v>
       </c>
       <c r="E381" t="s">
-        <v>1419</v>
+        <v>1463</v>
       </c>
       <c r="I381"/>
       <c r="J381"/>
@@ -23982,7 +24112,7 @@
         <v>1518</v>
       </c>
       <c r="E382" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="I382"/>
       <c r="J382"/>
@@ -23992,7 +24122,7 @@
         <v>1520</v>
       </c>
       <c r="E383" t="s">
-        <v>1470</v>
+        <v>1419</v>
       </c>
       <c r="I383"/>
       <c r="J383"/>
@@ -24002,7 +24132,7 @@
         <v>1522</v>
       </c>
       <c r="E384" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="I384"/>
       <c r="J384"/>
@@ -24012,7 +24142,7 @@
         <v>1524</v>
       </c>
       <c r="E385" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="I385"/>
       <c r="J385"/>
@@ -24022,7 +24152,7 @@
         <v>1526</v>
       </c>
       <c r="E386" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="I386"/>
       <c r="J386"/>
@@ -24032,7 +24162,7 @@
         <v>1528</v>
       </c>
       <c r="E387" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="I387"/>
       <c r="J387"/>
@@ -24042,7 +24172,7 @@
         <v>1530</v>
       </c>
       <c r="E388" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="I388"/>
       <c r="J388"/>
@@ -24052,7 +24182,7 @@
         <v>1532</v>
       </c>
       <c r="E389" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="I389"/>
       <c r="J389"/>
@@ -24062,7 +24192,7 @@
         <v>1533</v>
       </c>
       <c r="E390" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="I390"/>
       <c r="J390"/>
@@ -24072,7 +24202,7 @@
         <v>1535</v>
       </c>
       <c r="E391" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="I391"/>
       <c r="J391"/>
@@ -24082,7 +24212,7 @@
         <v>1537</v>
       </c>
       <c r="E392" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="I392"/>
       <c r="J392"/>
@@ -24092,7 +24222,7 @@
         <v>1539</v>
       </c>
       <c r="E393" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="I393"/>
       <c r="J393"/>
@@ -24102,7 +24232,7 @@
         <v>1541</v>
       </c>
       <c r="E394" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="I394"/>
       <c r="J394"/>
@@ -24112,7 +24242,7 @@
         <v>1543</v>
       </c>
       <c r="E395" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="I395"/>
       <c r="J395"/>
@@ -24122,7 +24252,7 @@
         <v>1545</v>
       </c>
       <c r="E396" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="I396"/>
       <c r="J396"/>
@@ -24132,7 +24262,7 @@
         <v>1547</v>
       </c>
       <c r="E397" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="I397"/>
       <c r="J397"/>
@@ -24142,7 +24272,7 @@
         <v>1549</v>
       </c>
       <c r="E398" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="I398"/>
       <c r="J398"/>
@@ -24152,7 +24282,7 @@
         <v>1551</v>
       </c>
       <c r="E399" t="s">
-        <v>1415</v>
+        <v>1498</v>
       </c>
       <c r="I399"/>
       <c r="J399"/>
@@ -24162,7 +24292,7 @@
         <v>1553</v>
       </c>
       <c r="E400" t="s">
-        <v>1417</v>
+        <v>1500</v>
       </c>
       <c r="I400"/>
       <c r="J400"/>
@@ -24172,7 +24302,7 @@
         <v>1555</v>
       </c>
       <c r="E401" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="I401"/>
       <c r="J401"/>
@@ -24182,7 +24312,7 @@
         <v>1557</v>
       </c>
       <c r="E402" t="s">
-        <v>1505</v>
+        <v>1417</v>
       </c>
       <c r="I402"/>
       <c r="J402"/>
@@ -24192,7 +24322,7 @@
         <v>1559</v>
       </c>
       <c r="E403" t="s">
-        <v>1507</v>
+        <v>1419</v>
       </c>
       <c r="I403"/>
       <c r="J403"/>
@@ -24202,7 +24332,7 @@
         <v>1561</v>
       </c>
       <c r="E404" t="s">
-        <v>1415</v>
+        <v>1505</v>
       </c>
       <c r="I404"/>
       <c r="J404"/>
@@ -24212,7 +24342,7 @@
         <v>1563</v>
       </c>
       <c r="E405" t="s">
-        <v>1417</v>
+        <v>1507</v>
       </c>
       <c r="I405"/>
       <c r="J405"/>
@@ -24222,7 +24352,7 @@
         <v>1565</v>
       </c>
       <c r="E406" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="I406"/>
       <c r="J406"/>
@@ -24232,7 +24362,7 @@
         <v>1567</v>
       </c>
       <c r="E407" t="s">
-        <v>1505</v>
+        <v>1417</v>
       </c>
       <c r="I407"/>
       <c r="J407"/>
@@ -24242,7 +24372,7 @@
         <v>1569</v>
       </c>
       <c r="E408" t="s">
-        <v>1513</v>
+        <v>1419</v>
       </c>
       <c r="I408"/>
       <c r="J408"/>
@@ -24252,7 +24382,7 @@
         <v>1571</v>
       </c>
       <c r="E409" t="s">
-        <v>1415</v>
+        <v>1505</v>
       </c>
       <c r="I409"/>
       <c r="J409"/>
@@ -24262,7 +24392,7 @@
         <v>1573</v>
       </c>
       <c r="E410" t="s">
-        <v>1417</v>
+        <v>1513</v>
       </c>
       <c r="I410"/>
       <c r="J410"/>
@@ -24272,7 +24402,7 @@
         <v>1575</v>
       </c>
       <c r="E411" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="I411"/>
       <c r="J411"/>
@@ -24282,7 +24412,7 @@
         <v>1577</v>
       </c>
       <c r="E412" t="s">
-        <v>1505</v>
+        <v>1417</v>
       </c>
       <c r="I412"/>
       <c r="J412"/>
@@ -24292,7 +24422,7 @@
         <v>1579</v>
       </c>
       <c r="E413" t="s">
-        <v>1519</v>
+        <v>1419</v>
       </c>
       <c r="I413"/>
       <c r="J413"/>
@@ -24302,7 +24432,7 @@
         <v>1581</v>
       </c>
       <c r="E414" t="s">
-        <v>1521</v>
+        <v>1505</v>
       </c>
       <c r="I414"/>
       <c r="J414"/>
@@ -24312,7 +24442,7 @@
         <v>1583</v>
       </c>
       <c r="E415" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="I415"/>
       <c r="J415"/>
@@ -24322,7 +24452,7 @@
         <v>1585</v>
       </c>
       <c r="E416" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="I416"/>
       <c r="J416"/>
@@ -24332,7 +24462,7 @@
         <v>1587</v>
       </c>
       <c r="E417" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="I417"/>
       <c r="J417"/>
@@ -24342,7 +24472,7 @@
         <v>1589</v>
       </c>
       <c r="E418" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="I418"/>
       <c r="J418"/>
@@ -24352,7 +24482,7 @@
         <v>1591</v>
       </c>
       <c r="E419" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="I419"/>
       <c r="J419"/>
@@ -24362,7 +24492,7 @@
         <v>1593</v>
       </c>
       <c r="E420" t="s">
-        <v>1525</v>
+        <v>1529</v>
       </c>
       <c r="I420"/>
       <c r="J420"/>
@@ -24372,7 +24502,7 @@
         <v>1594</v>
       </c>
       <c r="E421" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="I421"/>
       <c r="J421"/>
@@ -24382,7 +24512,7 @@
         <v>1596</v>
       </c>
       <c r="E422" t="s">
-        <v>1536</v>
+        <v>1525</v>
       </c>
       <c r="I422"/>
       <c r="J422"/>
@@ -24392,7 +24522,7 @@
         <v>1598</v>
       </c>
       <c r="E423" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="I423"/>
       <c r="J423"/>
@@ -24402,7 +24532,7 @@
         <v>1600</v>
       </c>
       <c r="E424" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="I424"/>
       <c r="J424"/>
@@ -24412,7 +24542,7 @@
         <v>1602</v>
       </c>
       <c r="E425" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="I425"/>
       <c r="J425"/>
@@ -24422,7 +24552,7 @@
         <v>1604</v>
       </c>
       <c r="E426" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="I426"/>
       <c r="J426"/>
@@ -24432,7 +24562,7 @@
         <v>1606</v>
       </c>
       <c r="E427" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="I427"/>
       <c r="J427"/>
@@ -24442,7 +24572,7 @@
         <v>1608</v>
       </c>
       <c r="E428" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="I428"/>
       <c r="J428"/>
@@ -24452,7 +24582,7 @@
         <v>1610</v>
       </c>
       <c r="E429" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="I429"/>
       <c r="J429"/>
@@ -24462,7 +24592,7 @@
         <v>1612</v>
       </c>
       <c r="E430" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="I430"/>
       <c r="J430"/>
@@ -24472,7 +24602,7 @@
         <v>1614</v>
       </c>
       <c r="E431" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="I431"/>
       <c r="J431"/>
@@ -24482,7 +24612,7 @@
         <v>1616</v>
       </c>
       <c r="E432" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="I432"/>
       <c r="J432"/>
@@ -24492,7 +24622,7 @@
         <v>1617</v>
       </c>
       <c r="E433" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="I433"/>
       <c r="J433"/>
@@ -24502,7 +24632,7 @@
         <v>1619</v>
       </c>
       <c r="E434" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="I434"/>
       <c r="J434"/>
@@ -24512,7 +24642,7 @@
         <v>1620</v>
       </c>
       <c r="E435" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="I435"/>
       <c r="J435"/>
@@ -24522,7 +24652,7 @@
         <v>1622</v>
       </c>
       <c r="E436" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="I436"/>
       <c r="J436"/>
@@ -24532,7 +24662,7 @@
         <v>1624</v>
       </c>
       <c r="E437" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="I437"/>
       <c r="J437"/>
@@ -24542,7 +24672,7 @@
         <v>1626</v>
       </c>
       <c r="E438" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="I438"/>
       <c r="J438"/>
@@ -24552,7 +24682,7 @@
         <v>1628</v>
       </c>
       <c r="E439" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="I439"/>
       <c r="J439"/>
@@ -24562,7 +24692,7 @@
         <v>1630</v>
       </c>
       <c r="E440" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="I440"/>
       <c r="J440"/>
@@ -24572,7 +24702,7 @@
         <v>1632</v>
       </c>
       <c r="E441" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="I441"/>
       <c r="J441"/>
@@ -24582,7 +24712,7 @@
         <v>1634</v>
       </c>
       <c r="E442" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="I442"/>
       <c r="J442"/>
@@ -24592,7 +24722,7 @@
         <v>1636</v>
       </c>
       <c r="E443" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="I443"/>
       <c r="J443"/>
@@ -24602,7 +24732,7 @@
         <v>1638</v>
       </c>
       <c r="E444" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="I444"/>
       <c r="J444"/>
@@ -24612,7 +24742,7 @@
         <v>1640</v>
       </c>
       <c r="E445" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="I445"/>
       <c r="J445"/>
@@ -24622,7 +24752,7 @@
         <v>1642</v>
       </c>
       <c r="E446" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="I446"/>
       <c r="J446"/>
@@ -24632,7 +24762,7 @@
         <v>1644</v>
       </c>
       <c r="E447" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="I447"/>
       <c r="J447"/>
@@ -24642,7 +24772,7 @@
         <v>1646</v>
       </c>
       <c r="E448" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="I448"/>
       <c r="J448"/>
@@ -24652,7 +24782,7 @@
         <v>1648</v>
       </c>
       <c r="E449" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="I449"/>
       <c r="J449"/>
@@ -24662,7 +24792,7 @@
         <v>1650</v>
       </c>
       <c r="E450" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="I450"/>
       <c r="J450"/>
@@ -24672,10 +24802,7 @@
         <v>1652</v>
       </c>
       <c r="E451" t="s">
-        <v>2829</v>
-      </c>
-      <c r="F451" t="s">
-        <v>2151</v>
+        <v>1590</v>
       </c>
       <c r="I451"/>
       <c r="J451"/>
@@ -24685,7 +24812,7 @@
         <v>1654</v>
       </c>
       <c r="E452" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="I452"/>
       <c r="J452"/>
@@ -24695,7 +24822,10 @@
         <v>1656</v>
       </c>
       <c r="E453" t="s">
-        <v>1597</v>
+        <v>2829</v>
+      </c>
+      <c r="F453" t="s">
+        <v>2151</v>
       </c>
       <c r="I453"/>
       <c r="J453"/>
@@ -24705,7 +24835,7 @@
         <v>1658</v>
       </c>
       <c r="E454" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="I454"/>
       <c r="J454"/>
@@ -24715,7 +24845,7 @@
         <v>1660</v>
       </c>
       <c r="E455" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="I455"/>
       <c r="J455"/>
@@ -24725,7 +24855,7 @@
         <v>1662</v>
       </c>
       <c r="E456" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="I456"/>
       <c r="J456"/>
@@ -24735,7 +24865,7 @@
         <v>1664</v>
       </c>
       <c r="E457" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="I457"/>
       <c r="J457"/>
@@ -24745,7 +24875,7 @@
         <v>1666</v>
       </c>
       <c r="E458" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="I458"/>
       <c r="J458"/>
@@ -24755,7 +24885,7 @@
         <v>1668</v>
       </c>
       <c r="E459" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="I459"/>
       <c r="J459"/>
@@ -24765,7 +24895,7 @@
         <v>1670</v>
       </c>
       <c r="E460" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="I460"/>
       <c r="J460"/>
@@ -24775,7 +24905,7 @@
         <v>1672</v>
       </c>
       <c r="E461" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="I461"/>
       <c r="J461"/>
@@ -24785,7 +24915,7 @@
         <v>1674</v>
       </c>
       <c r="E462" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="I462"/>
       <c r="J462"/>
@@ -24795,7 +24925,7 @@
         <v>1676</v>
       </c>
       <c r="E463" t="s">
-        <v>1519</v>
+        <v>1613</v>
       </c>
       <c r="I463"/>
       <c r="J463"/>
@@ -24805,7 +24935,7 @@
         <v>1678</v>
       </c>
       <c r="E464" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="I464"/>
       <c r="J464"/>
@@ -24815,7 +24945,7 @@
         <v>1680</v>
       </c>
       <c r="E465" t="s">
-        <v>1534</v>
+        <v>1519</v>
       </c>
       <c r="I465"/>
       <c r="J465"/>
@@ -24825,7 +24955,7 @@
         <v>1682</v>
       </c>
       <c r="E466" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="I466"/>
       <c r="J466"/>
@@ -24835,7 +24965,7 @@
         <v>1684</v>
       </c>
       <c r="E467" t="s">
-        <v>1623</v>
+        <v>1534</v>
       </c>
       <c r="I467"/>
       <c r="J467"/>
@@ -24845,7 +24975,7 @@
         <v>1686</v>
       </c>
       <c r="E468" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="I468"/>
       <c r="J468"/>
@@ -24855,7 +24985,7 @@
         <v>1688</v>
       </c>
       <c r="E469" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="I469"/>
       <c r="J469"/>
@@ -24865,7 +24995,7 @@
         <v>1690</v>
       </c>
       <c r="E470" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="I470"/>
       <c r="J470"/>
@@ -24875,7 +25005,7 @@
         <v>1692</v>
       </c>
       <c r="E471" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="I471"/>
       <c r="J471"/>
@@ -24885,7 +25015,7 @@
         <v>1694</v>
       </c>
       <c r="E472" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="I472"/>
       <c r="J472"/>
@@ -24895,7 +25025,7 @@
         <v>1696</v>
       </c>
       <c r="E473" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
       <c r="I473"/>
       <c r="J473"/>
@@ -24905,7 +25035,7 @@
         <v>1698</v>
       </c>
       <c r="E474" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="I474"/>
       <c r="J474"/>
@@ -24915,7 +25045,7 @@
         <v>1700</v>
       </c>
       <c r="E475" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="I475"/>
       <c r="J475"/>
@@ -24925,7 +25055,7 @@
         <v>1702</v>
       </c>
       <c r="E476" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="I476"/>
       <c r="J476"/>
@@ -24935,7 +25065,7 @@
         <v>1704</v>
       </c>
       <c r="E477" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="I477"/>
       <c r="J477"/>
@@ -24945,7 +25075,7 @@
         <v>1706</v>
       </c>
       <c r="E478" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="I478"/>
       <c r="J478"/>
@@ -24955,7 +25085,7 @@
         <v>1708</v>
       </c>
       <c r="E479" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="I479"/>
       <c r="J479"/>
@@ -24965,7 +25095,7 @@
         <v>1710</v>
       </c>
       <c r="E480" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
       <c r="I480"/>
       <c r="J480"/>
@@ -24975,7 +25105,7 @@
         <v>1712</v>
       </c>
       <c r="E481" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
       <c r="I481"/>
       <c r="J481"/>
@@ -24985,7 +25115,7 @@
         <v>1714</v>
       </c>
       <c r="E482" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
       <c r="I482"/>
       <c r="J482"/>
@@ -24995,7 +25125,7 @@
         <v>1716</v>
       </c>
       <c r="E483" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
       <c r="I483"/>
       <c r="J483"/>
@@ -25005,7 +25135,7 @@
         <v>1718</v>
       </c>
       <c r="E484" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="I484"/>
       <c r="J484"/>
@@ -25015,7 +25145,7 @@
         <v>1720</v>
       </c>
       <c r="E485" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="I485"/>
       <c r="J485"/>
@@ -25025,7 +25155,7 @@
         <v>1722</v>
       </c>
       <c r="E486" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="I486"/>
       <c r="J486"/>
@@ -25035,7 +25165,7 @@
         <v>1724</v>
       </c>
       <c r="E487" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="I487"/>
       <c r="J487"/>
@@ -25045,7 +25175,7 @@
         <v>1726</v>
       </c>
       <c r="E488" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
       <c r="I488"/>
       <c r="J488"/>
@@ -25055,7 +25185,7 @@
         <v>1728</v>
       </c>
       <c r="E489" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
       <c r="I489"/>
       <c r="J489"/>
@@ -25065,7 +25195,7 @@
         <v>1730</v>
       </c>
       <c r="E490" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="I490"/>
       <c r="J490"/>
@@ -25075,7 +25205,7 @@
         <v>1732</v>
       </c>
       <c r="E491" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
       <c r="I491"/>
       <c r="J491"/>
@@ -25085,7 +25215,7 @@
         <v>1734</v>
       </c>
       <c r="E492" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="I492"/>
       <c r="J492"/>
@@ -25095,7 +25225,7 @@
         <v>1736</v>
       </c>
       <c r="E493" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="I493"/>
       <c r="J493"/>
@@ -25105,7 +25235,7 @@
         <v>1738</v>
       </c>
       <c r="E494" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
       <c r="I494"/>
       <c r="J494"/>
@@ -25115,7 +25245,7 @@
         <v>1740</v>
       </c>
       <c r="E495" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
       <c r="I495"/>
       <c r="J495"/>
@@ -25125,7 +25255,7 @@
         <v>516</v>
       </c>
       <c r="E496" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="I496"/>
       <c r="J496"/>
@@ -25135,7 +25265,7 @@
         <v>520</v>
       </c>
       <c r="E497" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="I497"/>
       <c r="J497"/>
@@ -25145,7 +25275,7 @@
         <v>1746</v>
       </c>
       <c r="E498" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="I498"/>
       <c r="J498"/>
@@ -25155,7 +25285,7 @@
         <v>1748</v>
       </c>
       <c r="E499" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
       <c r="I499"/>
       <c r="J499"/>
@@ -25165,7 +25295,7 @@
         <v>1750</v>
       </c>
       <c r="E500" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
       <c r="I500"/>
       <c r="J500"/>
@@ -25175,7 +25305,7 @@
         <v>1752</v>
       </c>
       <c r="E501" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
       <c r="I501"/>
       <c r="J501"/>
@@ -25185,7 +25315,7 @@
         <v>1754</v>
       </c>
       <c r="E502" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="I502"/>
       <c r="J502"/>
@@ -25195,7 +25325,7 @@
         <v>1756</v>
       </c>
       <c r="E503" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="I503"/>
       <c r="J503"/>
@@ -25205,7 +25335,7 @@
         <v>1758</v>
       </c>
       <c r="E504" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="I504"/>
       <c r="J504"/>
@@ -25215,7 +25345,7 @@
         <v>1760</v>
       </c>
       <c r="E505" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
       <c r="I505"/>
       <c r="J505"/>
@@ -25225,23 +25355,27 @@
         <v>1762</v>
       </c>
       <c r="E506" t="s">
-        <v>1701</v>
-      </c>
+        <v>1697</v>
+      </c>
+      <c r="I506"/>
+      <c r="J506"/>
     </row>
     <row r="507" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A507" s="16" t="s">
         <v>1764</v>
       </c>
       <c r="E507" t="s">
-        <v>1703</v>
-      </c>
+        <v>1699</v>
+      </c>
+      <c r="I507"/>
+      <c r="J507"/>
     </row>
     <row r="508" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A508" s="16" t="s">
         <v>1766</v>
       </c>
       <c r="E508" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="509" spans="1:10" x14ac:dyDescent="0.35">
@@ -25249,7 +25383,7 @@
         <v>1768</v>
       </c>
       <c r="E509" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="510" spans="1:10" x14ac:dyDescent="0.35">
@@ -25257,7 +25391,7 @@
         <v>1770</v>
       </c>
       <c r="E510" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="511" spans="1:10" x14ac:dyDescent="0.35">
@@ -25265,7 +25399,7 @@
         <v>1772</v>
       </c>
       <c r="E511" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="512" spans="1:10" x14ac:dyDescent="0.35">
@@ -25273,7 +25407,7 @@
         <v>1774</v>
       </c>
       <c r="E512" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="513" spans="1:10" x14ac:dyDescent="0.35">
@@ -25281,7 +25415,7 @@
         <v>1776</v>
       </c>
       <c r="E513" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="514" spans="1:10" x14ac:dyDescent="0.35">
@@ -25289,7 +25423,7 @@
         <v>1778</v>
       </c>
       <c r="E514" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="515" spans="1:10" x14ac:dyDescent="0.35">
@@ -25297,7 +25431,7 @@
         <v>1780</v>
       </c>
       <c r="E515" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="516" spans="1:10" x14ac:dyDescent="0.35">
@@ -25305,7 +25439,7 @@
         <v>1782</v>
       </c>
       <c r="E516" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="517" spans="1:10" x14ac:dyDescent="0.35">
@@ -25313,7 +25447,7 @@
         <v>1784</v>
       </c>
       <c r="E517" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="518" spans="1:10" x14ac:dyDescent="0.35">
@@ -25321,7 +25455,7 @@
         <v>1786</v>
       </c>
       <c r="E518" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="519" spans="1:10" x14ac:dyDescent="0.35">
@@ -25329,7 +25463,7 @@
         <v>1788</v>
       </c>
       <c r="E519" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="520" spans="1:10" x14ac:dyDescent="0.35">
@@ -25337,7 +25471,7 @@
         <v>1790</v>
       </c>
       <c r="E520" t="s">
-        <v>1729</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="521" spans="1:10" x14ac:dyDescent="0.35">
@@ -25345,7 +25479,7 @@
         <v>1792</v>
       </c>
       <c r="E521" t="s">
-        <v>1731</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="522" spans="1:10" x14ac:dyDescent="0.35">
@@ -25353,27 +25487,23 @@
         <v>1794</v>
       </c>
       <c r="E522" t="s">
-        <v>1733</v>
-      </c>
-      <c r="I522"/>
-      <c r="J522"/>
+        <v>1729</v>
+      </c>
     </row>
     <row r="523" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A523" s="16" t="s">
         <v>1796</v>
       </c>
       <c r="E523" t="s">
-        <v>1735</v>
-      </c>
-      <c r="I523"/>
-      <c r="J523"/>
+        <v>1731</v>
+      </c>
     </row>
     <row r="524" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A524" s="16" t="s">
         <v>1798</v>
       </c>
       <c r="E524" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="I524"/>
       <c r="J524"/>
@@ -25383,7 +25513,7 @@
         <v>1800</v>
       </c>
       <c r="E525" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="I525"/>
       <c r="J525"/>
@@ -25393,7 +25523,7 @@
         <v>1802</v>
       </c>
       <c r="E526" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
       <c r="I526"/>
       <c r="J526"/>
@@ -25403,10 +25533,7 @@
         <v>1804</v>
       </c>
       <c r="E527" t="s">
-        <v>1742</v>
-      </c>
-      <c r="F527" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
       <c r="I527"/>
       <c r="J527"/>
@@ -25416,10 +25543,7 @@
         <v>1806</v>
       </c>
       <c r="E528" t="s">
-        <v>1744</v>
-      </c>
-      <c r="F528" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
       <c r="I528"/>
       <c r="J528"/>
@@ -25429,7 +25553,10 @@
         <v>1808</v>
       </c>
       <c r="E529" t="s">
-        <v>1747</v>
+        <v>1742</v>
+      </c>
+      <c r="F529" t="s">
+        <v>1743</v>
       </c>
       <c r="I529"/>
       <c r="J529"/>
@@ -25439,7 +25566,10 @@
         <v>1810</v>
       </c>
       <c r="E530" t="s">
-        <v>1749</v>
+        <v>1744</v>
+      </c>
+      <c r="F530" t="s">
+        <v>1745</v>
       </c>
       <c r="I530"/>
       <c r="J530"/>
@@ -25449,7 +25579,7 @@
         <v>1812</v>
       </c>
       <c r="E531" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
       <c r="I531"/>
       <c r="J531"/>
@@ -25459,7 +25589,7 @@
         <v>1814</v>
       </c>
       <c r="E532" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
       <c r="I532"/>
       <c r="J532"/>
@@ -25469,7 +25599,7 @@
         <v>1816</v>
       </c>
       <c r="E533" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
       <c r="I533"/>
       <c r="J533"/>
@@ -25479,7 +25609,7 @@
         <v>1818</v>
       </c>
       <c r="E534" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
       <c r="I534"/>
       <c r="J534"/>
@@ -25489,7 +25619,7 @@
         <v>1820</v>
       </c>
       <c r="E535" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
       <c r="I535"/>
       <c r="J535"/>
@@ -25499,7 +25629,7 @@
         <v>1822</v>
       </c>
       <c r="E536" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
       <c r="I536"/>
       <c r="J536"/>
@@ -25509,7 +25639,7 @@
         <v>1824</v>
       </c>
       <c r="E537" t="s">
-        <v>1763</v>
+        <v>1759</v>
       </c>
       <c r="I537"/>
       <c r="J537"/>
@@ -25519,7 +25649,7 @@
         <v>1826</v>
       </c>
       <c r="E538" t="s">
-        <v>1765</v>
+        <v>1761</v>
       </c>
       <c r="I538"/>
       <c r="J538"/>
@@ -25529,7 +25659,7 @@
         <v>1828</v>
       </c>
       <c r="E539" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
       <c r="I539"/>
       <c r="J539"/>
@@ -25539,7 +25669,7 @@
         <v>1830</v>
       </c>
       <c r="E540" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
       <c r="I540"/>
       <c r="J540"/>
@@ -25549,7 +25679,7 @@
         <v>1832</v>
       </c>
       <c r="E541" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
       <c r="I541"/>
       <c r="J541"/>
@@ -25559,7 +25689,7 @@
         <v>1834</v>
       </c>
       <c r="E542" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
       <c r="I542"/>
       <c r="J542"/>
@@ -25569,7 +25699,7 @@
         <v>1836</v>
       </c>
       <c r="E543" t="s">
-        <v>1775</v>
+        <v>1771</v>
       </c>
       <c r="I543"/>
       <c r="J543"/>
@@ -25579,7 +25709,7 @@
         <v>1838</v>
       </c>
       <c r="E544" t="s">
-        <v>1777</v>
+        <v>1773</v>
       </c>
       <c r="I544"/>
       <c r="J544"/>
@@ -25589,7 +25719,7 @@
         <v>1840</v>
       </c>
       <c r="E545" t="s">
-        <v>1779</v>
+        <v>1775</v>
       </c>
       <c r="I545"/>
       <c r="J545"/>
@@ -25599,7 +25729,7 @@
         <v>1842</v>
       </c>
       <c r="E546" t="s">
-        <v>1781</v>
+        <v>1777</v>
       </c>
       <c r="I546"/>
       <c r="J546"/>
@@ -25609,7 +25739,7 @@
         <v>1844</v>
       </c>
       <c r="E547" t="s">
-        <v>1783</v>
+        <v>1779</v>
       </c>
       <c r="I547"/>
       <c r="J547"/>
@@ -25619,7 +25749,7 @@
         <v>1846</v>
       </c>
       <c r="E548" t="s">
-        <v>1785</v>
+        <v>1781</v>
       </c>
       <c r="I548"/>
       <c r="J548"/>
@@ -25629,7 +25759,7 @@
         <v>1848</v>
       </c>
       <c r="E549" t="s">
-        <v>1787</v>
+        <v>1783</v>
       </c>
       <c r="I549"/>
       <c r="J549"/>
@@ -25639,7 +25769,7 @@
         <v>1850</v>
       </c>
       <c r="E550" t="s">
-        <v>1789</v>
+        <v>1785</v>
       </c>
       <c r="I550"/>
       <c r="J550"/>
@@ -25649,7 +25779,7 @@
         <v>1852</v>
       </c>
       <c r="E551" t="s">
-        <v>1791</v>
+        <v>1787</v>
       </c>
       <c r="I551"/>
       <c r="J551"/>
@@ -25659,7 +25789,7 @@
         <v>1854</v>
       </c>
       <c r="E552" t="s">
-        <v>1793</v>
+        <v>1789</v>
       </c>
       <c r="I552"/>
       <c r="J552"/>
@@ -25669,7 +25799,7 @@
         <v>1856</v>
       </c>
       <c r="E553" t="s">
-        <v>1795</v>
+        <v>1791</v>
       </c>
       <c r="I553"/>
       <c r="J553"/>
@@ -25679,7 +25809,7 @@
         <v>1858</v>
       </c>
       <c r="E554" t="s">
-        <v>1797</v>
+        <v>1793</v>
       </c>
       <c r="I554"/>
       <c r="J554"/>
@@ -25689,7 +25819,7 @@
         <v>1860</v>
       </c>
       <c r="E555" t="s">
-        <v>1799</v>
+        <v>1795</v>
       </c>
       <c r="I555"/>
       <c r="J555"/>
@@ -25699,7 +25829,7 @@
         <v>1862</v>
       </c>
       <c r="E556" t="s">
-        <v>1801</v>
+        <v>1797</v>
       </c>
       <c r="I556"/>
       <c r="J556"/>
@@ -25709,7 +25839,7 @@
         <v>1864</v>
       </c>
       <c r="E557" t="s">
-        <v>1803</v>
+        <v>1799</v>
       </c>
       <c r="I557"/>
       <c r="J557"/>
@@ -25719,7 +25849,7 @@
         <v>1866</v>
       </c>
       <c r="E558" t="s">
-        <v>1805</v>
+        <v>1801</v>
       </c>
       <c r="I558"/>
       <c r="J558"/>
@@ -25729,7 +25859,7 @@
         <v>1868</v>
       </c>
       <c r="E559" t="s">
-        <v>1807</v>
+        <v>1803</v>
       </c>
       <c r="I559"/>
       <c r="J559"/>
@@ -25739,7 +25869,7 @@
         <v>1870</v>
       </c>
       <c r="E560" t="s">
-        <v>1809</v>
+        <v>1805</v>
       </c>
       <c r="I560"/>
       <c r="J560"/>
@@ -25749,7 +25879,7 @@
         <v>1872</v>
       </c>
       <c r="E561" t="s">
-        <v>1811</v>
+        <v>1807</v>
       </c>
       <c r="I561"/>
       <c r="J561"/>
@@ -25759,7 +25889,7 @@
         <v>1874</v>
       </c>
       <c r="E562" t="s">
-        <v>1813</v>
+        <v>1809</v>
       </c>
       <c r="I562"/>
       <c r="J562"/>
@@ -25769,7 +25899,7 @@
         <v>1876</v>
       </c>
       <c r="E563" t="s">
-        <v>1815</v>
+        <v>1811</v>
       </c>
       <c r="I563"/>
       <c r="J563"/>
@@ -25779,7 +25909,7 @@
         <v>1878</v>
       </c>
       <c r="E564" t="s">
-        <v>1817</v>
+        <v>1813</v>
       </c>
       <c r="I564"/>
       <c r="J564"/>
@@ -25789,7 +25919,7 @@
         <v>1880</v>
       </c>
       <c r="E565" t="s">
-        <v>1819</v>
+        <v>1815</v>
       </c>
       <c r="I565"/>
       <c r="J565"/>
@@ -25799,7 +25929,7 @@
         <v>1882</v>
       </c>
       <c r="E566" t="s">
-        <v>1821</v>
+        <v>1817</v>
       </c>
       <c r="I566"/>
       <c r="J566"/>
@@ -25809,7 +25939,7 @@
         <v>1884</v>
       </c>
       <c r="E567" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
       <c r="I567"/>
       <c r="J567"/>
@@ -25819,7 +25949,7 @@
         <v>1886</v>
       </c>
       <c r="E568" t="s">
-        <v>1825</v>
+        <v>1821</v>
       </c>
       <c r="I568"/>
       <c r="J568"/>
@@ -25829,7 +25959,7 @@
         <v>1888</v>
       </c>
       <c r="E569" t="s">
-        <v>1827</v>
+        <v>1823</v>
       </c>
       <c r="I569"/>
       <c r="J569"/>
@@ -25839,7 +25969,7 @@
         <v>1890</v>
       </c>
       <c r="E570" t="s">
-        <v>1829</v>
+        <v>1825</v>
       </c>
       <c r="I570"/>
       <c r="J570"/>
@@ -25849,7 +25979,7 @@
         <v>1892</v>
       </c>
       <c r="E571" t="s">
-        <v>1831</v>
+        <v>1827</v>
       </c>
       <c r="I571"/>
       <c r="J571"/>
@@ -25859,7 +25989,7 @@
         <v>1894</v>
       </c>
       <c r="E572" t="s">
-        <v>1833</v>
+        <v>1829</v>
       </c>
       <c r="I572"/>
       <c r="J572"/>
@@ -25869,7 +25999,7 @@
         <v>1896</v>
       </c>
       <c r="E573" t="s">
-        <v>1835</v>
+        <v>1831</v>
       </c>
       <c r="I573"/>
       <c r="J573"/>
@@ -25879,7 +26009,7 @@
         <v>1898</v>
       </c>
       <c r="E574" t="s">
-        <v>1837</v>
+        <v>1833</v>
       </c>
       <c r="I574"/>
       <c r="J574"/>
@@ -25889,7 +26019,7 @@
         <v>1900</v>
       </c>
       <c r="E575" t="s">
-        <v>1839</v>
+        <v>1835</v>
       </c>
       <c r="I575"/>
       <c r="J575"/>
@@ -25899,7 +26029,7 @@
         <v>1902</v>
       </c>
       <c r="E576" t="s">
-        <v>1841</v>
+        <v>1837</v>
       </c>
       <c r="I576"/>
       <c r="J576"/>
@@ -25909,7 +26039,7 @@
         <v>1904</v>
       </c>
       <c r="E577" t="s">
-        <v>1843</v>
+        <v>1839</v>
       </c>
       <c r="I577"/>
       <c r="J577"/>
@@ -25919,7 +26049,7 @@
         <v>1906</v>
       </c>
       <c r="E578" t="s">
-        <v>1845</v>
+        <v>1841</v>
       </c>
       <c r="I578"/>
       <c r="J578"/>
@@ -25929,7 +26059,7 @@
         <v>1908</v>
       </c>
       <c r="E579" t="s">
-        <v>1847</v>
+        <v>1843</v>
       </c>
       <c r="I579"/>
       <c r="J579"/>
@@ -25939,7 +26069,7 @@
         <v>1910</v>
       </c>
       <c r="E580" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
       <c r="I580"/>
       <c r="J580"/>
@@ -25949,7 +26079,7 @@
         <v>1912</v>
       </c>
       <c r="E581" t="s">
-        <v>1851</v>
+        <v>1847</v>
       </c>
       <c r="I581"/>
       <c r="J581"/>
@@ -25959,7 +26089,7 @@
         <v>1914</v>
       </c>
       <c r="E582" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="I582"/>
       <c r="J582"/>
@@ -25969,7 +26099,7 @@
         <v>1916</v>
       </c>
       <c r="E583" t="s">
-        <v>1855</v>
+        <v>1851</v>
       </c>
       <c r="I583"/>
       <c r="J583"/>
@@ -25979,7 +26109,7 @@
         <v>1918</v>
       </c>
       <c r="E584" t="s">
-        <v>1857</v>
+        <v>1853</v>
       </c>
       <c r="I584"/>
       <c r="J584"/>
@@ -25989,7 +26119,7 @@
         <v>1920</v>
       </c>
       <c r="E585" t="s">
-        <v>1859</v>
+        <v>1855</v>
       </c>
       <c r="I585"/>
       <c r="J585"/>
@@ -25999,7 +26129,7 @@
         <v>1922</v>
       </c>
       <c r="E586" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
       <c r="I586"/>
       <c r="J586"/>
@@ -26009,7 +26139,7 @@
         <v>1924</v>
       </c>
       <c r="E587" t="s">
-        <v>1863</v>
+        <v>1859</v>
       </c>
       <c r="I587"/>
       <c r="J587"/>
@@ -26019,7 +26149,7 @@
         <v>1926</v>
       </c>
       <c r="E588" t="s">
-        <v>1865</v>
+        <v>1861</v>
       </c>
       <c r="I588"/>
       <c r="J588"/>
@@ -26029,7 +26159,7 @@
         <v>1928</v>
       </c>
       <c r="E589" t="s">
-        <v>1867</v>
+        <v>1863</v>
       </c>
       <c r="I589"/>
       <c r="J589"/>
@@ -26039,7 +26169,7 @@
         <v>1930</v>
       </c>
       <c r="E590" t="s">
-        <v>1869</v>
+        <v>1865</v>
       </c>
       <c r="I590"/>
       <c r="J590"/>
@@ -26049,7 +26179,7 @@
         <v>1932</v>
       </c>
       <c r="E591" t="s">
-        <v>1871</v>
+        <v>1867</v>
       </c>
       <c r="I591"/>
       <c r="J591"/>
@@ -26059,7 +26189,7 @@
         <v>1934</v>
       </c>
       <c r="E592" t="s">
-        <v>1873</v>
+        <v>1869</v>
       </c>
       <c r="I592"/>
       <c r="J592"/>
@@ -26069,7 +26199,7 @@
         <v>1936</v>
       </c>
       <c r="E593" t="s">
-        <v>1875</v>
+        <v>1871</v>
       </c>
       <c r="I593"/>
       <c r="J593"/>
@@ -26079,7 +26209,7 @@
         <v>1938</v>
       </c>
       <c r="E594" t="s">
-        <v>1877</v>
+        <v>1873</v>
       </c>
       <c r="I594"/>
       <c r="J594"/>
@@ -26089,7 +26219,7 @@
         <v>1940</v>
       </c>
       <c r="E595" t="s">
-        <v>1879</v>
+        <v>1875</v>
       </c>
       <c r="I595"/>
       <c r="J595"/>
@@ -26099,7 +26229,7 @@
         <v>1942</v>
       </c>
       <c r="E596" t="s">
-        <v>1881</v>
+        <v>1877</v>
       </c>
       <c r="I596"/>
       <c r="J596"/>
@@ -26109,7 +26239,7 @@
         <v>1944</v>
       </c>
       <c r="E597" t="s">
-        <v>1883</v>
+        <v>1879</v>
       </c>
       <c r="I597"/>
       <c r="J597"/>
@@ -26119,7 +26249,7 @@
         <v>1946</v>
       </c>
       <c r="E598" t="s">
-        <v>1885</v>
+        <v>1881</v>
       </c>
       <c r="I598"/>
       <c r="J598"/>
@@ -26129,7 +26259,7 @@
         <v>1948</v>
       </c>
       <c r="E599" t="s">
-        <v>1887</v>
+        <v>1883</v>
       </c>
       <c r="I599"/>
       <c r="J599"/>
@@ -26139,7 +26269,7 @@
         <v>1950</v>
       </c>
       <c r="E600" t="s">
-        <v>1889</v>
+        <v>1885</v>
       </c>
       <c r="I600"/>
       <c r="J600"/>
@@ -26149,7 +26279,7 @@
         <v>1952</v>
       </c>
       <c r="E601" t="s">
-        <v>1891</v>
+        <v>1887</v>
       </c>
       <c r="I601"/>
       <c r="J601"/>
@@ -26159,7 +26289,7 @@
         <v>1954</v>
       </c>
       <c r="E602" t="s">
-        <v>1893</v>
+        <v>1889</v>
       </c>
       <c r="I602"/>
       <c r="J602"/>
@@ -26169,7 +26299,7 @@
         <v>1956</v>
       </c>
       <c r="E603" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
       <c r="I603"/>
       <c r="J603"/>
@@ -26179,7 +26309,7 @@
         <v>1958</v>
       </c>
       <c r="E604" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="I604"/>
       <c r="J604"/>
@@ -26189,7 +26319,7 @@
         <v>523</v>
       </c>
       <c r="E605" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="I605"/>
       <c r="J605"/>
@@ -26199,7 +26329,7 @@
         <v>1960</v>
       </c>
       <c r="E606" t="s">
-        <v>1901</v>
+        <v>1897</v>
       </c>
       <c r="I606"/>
       <c r="J606"/>
@@ -26209,7 +26339,7 @@
         <v>1962</v>
       </c>
       <c r="E607" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="I607"/>
       <c r="J607"/>
@@ -26219,7 +26349,7 @@
         <v>2084</v>
       </c>
       <c r="E608" t="s">
-        <v>1905</v>
+        <v>1901</v>
       </c>
       <c r="I608"/>
       <c r="J608"/>
@@ -26229,7 +26359,7 @@
         <v>2085</v>
       </c>
       <c r="E609" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="I609"/>
       <c r="J609"/>
@@ -26239,7 +26369,7 @@
         <v>2086</v>
       </c>
       <c r="E610" t="s">
-        <v>1909</v>
+        <v>1905</v>
       </c>
       <c r="I610"/>
       <c r="J610"/>
@@ -26249,7 +26379,7 @@
         <v>2087</v>
       </c>
       <c r="E611" t="s">
-        <v>1911</v>
+        <v>1907</v>
       </c>
       <c r="I611"/>
       <c r="J611"/>
@@ -26259,7 +26389,7 @@
         <v>2744</v>
       </c>
       <c r="E612" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
       <c r="I612"/>
       <c r="J612"/>
@@ -26269,7 +26399,7 @@
         <v>2095</v>
       </c>
       <c r="E613" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
       <c r="I613"/>
       <c r="J613"/>
@@ -26279,7 +26409,7 @@
         <v>2096</v>
       </c>
       <c r="E614" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
       <c r="I614"/>
       <c r="J614"/>
@@ -26289,7 +26419,7 @@
         <v>2097</v>
       </c>
       <c r="E615" t="s">
-        <v>1919</v>
+        <v>1915</v>
       </c>
       <c r="I615"/>
       <c r="J615"/>
@@ -26299,7 +26429,7 @@
         <v>2098</v>
       </c>
       <c r="E616" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
       <c r="I616"/>
       <c r="J616"/>
@@ -26309,7 +26439,7 @@
         <v>2099</v>
       </c>
       <c r="E617" t="s">
-        <v>1923</v>
+        <v>1919</v>
       </c>
       <c r="I617"/>
       <c r="J617"/>
@@ -26319,23 +26449,27 @@
         <v>2185</v>
       </c>
       <c r="E618" t="s">
-        <v>1925</v>
-      </c>
+        <v>1921</v>
+      </c>
+      <c r="I618"/>
+      <c r="J618"/>
     </row>
     <row r="619" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A619" s="16" t="s">
         <v>2186</v>
       </c>
       <c r="E619" t="s">
-        <v>1927</v>
-      </c>
+        <v>1923</v>
+      </c>
+      <c r="I619"/>
+      <c r="J619"/>
     </row>
     <row r="620" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A620" s="16" t="s">
         <v>2187</v>
       </c>
       <c r="E620" t="s">
-        <v>1929</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="621" spans="1:10" x14ac:dyDescent="0.35">
@@ -26343,7 +26477,7 @@
         <v>2745</v>
       </c>
       <c r="E621" t="s">
-        <v>1931</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="622" spans="1:10" x14ac:dyDescent="0.35">
@@ -26351,7 +26485,7 @@
         <v>2746</v>
       </c>
       <c r="E622" t="s">
-        <v>1933</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="623" spans="1:10" x14ac:dyDescent="0.35">
@@ -26359,10 +26493,7 @@
         <v>2747</v>
       </c>
       <c r="E623" t="s">
-        <v>1935</v>
-      </c>
-      <c r="F623" t="s">
-        <v>2830</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="624" spans="1:10" x14ac:dyDescent="0.35">
@@ -26370,7 +26501,7 @@
         <v>2748</v>
       </c>
       <c r="E624" t="s">
-        <v>1937</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="625" spans="1:13" x14ac:dyDescent="0.35">
@@ -26378,7 +26509,10 @@
         <v>2749</v>
       </c>
       <c r="E625" t="s">
-        <v>1939</v>
+        <v>1935</v>
+      </c>
+      <c r="F625" t="s">
+        <v>2830</v>
       </c>
     </row>
     <row r="626" spans="1:13" x14ac:dyDescent="0.35">
@@ -26386,7 +26520,7 @@
         <v>2750</v>
       </c>
       <c r="E626" t="s">
-        <v>1941</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="627" spans="1:13" x14ac:dyDescent="0.35">
@@ -26394,7 +26528,7 @@
         <v>2751</v>
       </c>
       <c r="E627" t="s">
-        <v>1943</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="628" spans="1:13" x14ac:dyDescent="0.35">
@@ -26402,7 +26536,7 @@
         <v>2752</v>
       </c>
       <c r="E628" t="s">
-        <v>1945</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="629" spans="1:13" x14ac:dyDescent="0.35">
@@ -26410,27 +26544,23 @@
         <v>2753</v>
       </c>
       <c r="E629" t="s">
-        <v>1947</v>
-      </c>
-      <c r="I629"/>
-      <c r="J629"/>
+        <v>1943</v>
+      </c>
     </row>
     <row r="630" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A630" s="16" t="s">
         <v>2754</v>
       </c>
       <c r="E630" t="s">
-        <v>1949</v>
-      </c>
-      <c r="I630"/>
-      <c r="J630"/>
+        <v>1945</v>
+      </c>
     </row>
     <row r="631" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A631" s="16" t="s">
         <v>2755</v>
       </c>
       <c r="E631" t="s">
-        <v>1951</v>
+        <v>1947</v>
       </c>
       <c r="I631"/>
       <c r="J631"/>
@@ -26440,7 +26570,7 @@
         <v>2756</v>
       </c>
       <c r="E632" t="s">
-        <v>1953</v>
+        <v>1949</v>
       </c>
       <c r="I632"/>
       <c r="J632"/>
@@ -26450,7 +26580,7 @@
         <v>2757</v>
       </c>
       <c r="E633" t="s">
-        <v>1955</v>
+        <v>1951</v>
       </c>
       <c r="I633"/>
       <c r="J633"/>
@@ -26460,26 +26590,17 @@
         <v>2758</v>
       </c>
       <c r="E634" t="s">
-        <v>1957</v>
-      </c>
-      <c r="F634" t="s">
-        <v>2835</v>
+        <v>1953</v>
       </c>
       <c r="I634"/>
       <c r="J634"/>
-      <c r="M634" s="37" t="s">
-        <v>2836</v>
-      </c>
     </row>
     <row r="635" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A635" s="16" t="s">
         <v>2853</v>
       </c>
       <c r="E635" t="s">
-        <v>2837</v>
-      </c>
-      <c r="F635" t="s">
-        <v>2147</v>
+        <v>1955</v>
       </c>
       <c r="I635"/>
       <c r="J635"/>
@@ -26489,12 +26610,15 @@
         <v>2854</v>
       </c>
       <c r="E636" t="s">
-        <v>1959</v>
+        <v>1957</v>
+      </c>
+      <c r="F636" t="s">
+        <v>2835</v>
       </c>
       <c r="I636"/>
       <c r="J636"/>
       <c r="M636" s="37" t="s">
-        <v>2394</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="637" spans="1:13" x14ac:dyDescent="0.35">
@@ -26502,7 +26626,10 @@
         <v>2855</v>
       </c>
       <c r="E637" t="s">
-        <v>1961</v>
+        <v>2837</v>
+      </c>
+      <c r="F637" t="s">
+        <v>2147</v>
       </c>
       <c r="I637"/>
       <c r="J637"/>
@@ -26512,10 +26639,33 @@
         <v>2856</v>
       </c>
       <c r="E638" t="s">
-        <v>1963</v>
+        <v>1959</v>
       </c>
       <c r="I638"/>
       <c r="J638"/>
+      <c r="M638" s="37" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="639" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A639" s="16" t="s">
+        <v>2882</v>
+      </c>
+      <c r="E639" t="s">
+        <v>1961</v>
+      </c>
+      <c r="I639"/>
+      <c r="J639"/>
+    </row>
+    <row r="640" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A640" s="16" t="s">
+        <v>2883</v>
+      </c>
+      <c r="E640" t="s">
+        <v>1963</v>
+      </c>
+      <c r="I640"/>
+      <c r="J640"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -27580,10 +27730,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K227"/>
+  <dimension ref="A1:K229"/>
   <sheetViews>
-    <sheetView topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="A219" sqref="A219:A227"/>
+    <sheetView topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="A221" sqref="A221:A229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33865,25 +34015,46 @@
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
-      <c r="C218" s="36"/>
-      <c r="D218"/>
-      <c r="F218" s="8"/>
-      <c r="G218" s="1"/>
+      <c r="A218" s="1" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C218" s="50" t="s">
+        <v>2874</v>
+      </c>
+      <c r="D218" t="s">
+        <v>2875</v>
+      </c>
+      <c r="E218" t="s">
+        <v>2157</v>
+      </c>
+      <c r="F218" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="G218" s="1">
+        <v>2021</v>
+      </c>
+      <c r="I218" t="s">
+        <v>2402</v>
+      </c>
+      <c r="J218" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="C219" t="s">
-        <v>831</v>
+      <c r="C219" s="50" t="s">
+        <v>2878</v>
       </c>
       <c r="D219" t="s">
-        <v>832</v>
+        <v>2879</v>
       </c>
       <c r="E219" t="s">
         <v>2157</v>
@@ -33892,43 +34063,22 @@
         <v>642</v>
       </c>
       <c r="G219" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="I219" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
       <c r="J219" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A220" s="1" t="s">
-        <v>2239</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="C220" t="s">
-        <v>833</v>
-      </c>
-      <c r="D220" t="s">
-        <v>832</v>
-      </c>
-      <c r="E220" t="s">
-        <v>2157</v>
-      </c>
-      <c r="F220" s="8" t="s">
-        <v>642</v>
-      </c>
-      <c r="G220" s="1">
-        <v>2020</v>
-      </c>
-      <c r="I220" t="s">
-        <v>2401</v>
-      </c>
-      <c r="J220" t="s">
-        <v>643</v>
-      </c>
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
+      <c r="C220" s="36"/>
+      <c r="D220"/>
+      <c r="F220" s="8"/>
+      <c r="G220" s="1"/>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
@@ -33938,10 +34088,10 @@
         <v>639</v>
       </c>
       <c r="C221" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D221" t="s">
-        <v>670</v>
+        <v>832</v>
       </c>
       <c r="E221" t="s">
         <v>2157</v>
@@ -33967,10 +34117,10 @@
         <v>639</v>
       </c>
       <c r="C222" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D222" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="E222" t="s">
         <v>2157</v>
@@ -33996,10 +34146,10 @@
         <v>639</v>
       </c>
       <c r="C223" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D223" t="s">
-        <v>836</v>
+        <v>670</v>
       </c>
       <c r="E223" t="s">
         <v>2157</v>
@@ -34022,22 +34172,25 @@
         <v>2864</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>2158</v>
-      </c>
-      <c r="C224" s="24" t="s">
-        <v>2831</v>
-      </c>
-      <c r="D224" s="24" t="s">
-        <v>2832</v>
+        <v>639</v>
+      </c>
+      <c r="C224" t="s">
+        <v>835</v>
+      </c>
+      <c r="D224" t="s">
+        <v>836</v>
       </c>
       <c r="E224" t="s">
-        <v>2195</v>
+        <v>2157</v>
       </c>
       <c r="F224" s="8" t="s">
         <v>642</v>
       </c>
       <c r="G224" s="1">
         <v>2020</v>
+      </c>
+      <c r="I224" t="s">
+        <v>2401</v>
       </c>
       <c r="J224" t="s">
         <v>643</v>
@@ -34048,22 +34201,25 @@
         <v>2865</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>2158</v>
-      </c>
-      <c r="C225" s="24" t="s">
-        <v>2149</v>
-      </c>
-      <c r="D225" s="24" t="s">
-        <v>2150</v>
+        <v>639</v>
+      </c>
+      <c r="C225" t="s">
+        <v>837</v>
+      </c>
+      <c r="D225" t="s">
+        <v>836</v>
       </c>
       <c r="E225" t="s">
-        <v>2195</v>
+        <v>2157</v>
       </c>
       <c r="F225" s="8" t="s">
         <v>642</v>
       </c>
       <c r="G225" s="1">
         <v>2020</v>
+      </c>
+      <c r="I225" t="s">
+        <v>2401</v>
       </c>
       <c r="J225" t="s">
         <v>643</v>
@@ -34077,10 +34233,10 @@
         <v>2158</v>
       </c>
       <c r="C226" s="24" t="s">
-        <v>2153</v>
+        <v>2831</v>
       </c>
       <c r="D226" s="24" t="s">
-        <v>2154</v>
+        <v>2832</v>
       </c>
       <c r="E226" t="s">
         <v>2195</v>
@@ -34103,10 +34259,10 @@
         <v>2158</v>
       </c>
       <c r="C227" s="24" t="s">
-        <v>2834</v>
+        <v>2149</v>
       </c>
       <c r="D227" s="24" t="s">
-        <v>2833</v>
+        <v>2150</v>
       </c>
       <c r="E227" t="s">
         <v>2195</v>
@@ -34118,6 +34274,58 @@
         <v>2020</v>
       </c>
       <c r="J227" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A228" s="1" t="s">
+        <v>2884</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C228" s="24" t="s">
+        <v>2153</v>
+      </c>
+      <c r="D228" s="24" t="s">
+        <v>2154</v>
+      </c>
+      <c r="E228" t="s">
+        <v>2195</v>
+      </c>
+      <c r="F228" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="G228" s="1">
+        <v>2020</v>
+      </c>
+      <c r="J228" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A229" s="1" t="s">
+        <v>2885</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C229" s="24" t="s">
+        <v>2834</v>
+      </c>
+      <c r="D229" s="24" t="s">
+        <v>2833</v>
+      </c>
+      <c r="E229" t="s">
+        <v>2195</v>
+      </c>
+      <c r="F229" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="G229" s="1">
+        <v>2020</v>
+      </c>
+      <c r="J229" t="s">
         <v>643</v>
       </c>
     </row>

--- a/tmee/data_in/data_dictionary/indicator_dictionary_TM_v5.xlsx
+++ b/tmee/data_in/data_dictionary/indicator_dictionary_TM_v5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16f1c7c3db740efb/UNICEF/TransMonEE/data-etl/tmee/data_in/data_dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="13_ncr:1_{0D7C4ACD-3B96-48F3-99D4-5E393553EB86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CC5ABA01-1283-4611-B102-164D03457B41}"/>
+  <xr:revisionPtr revIDLastSave="154" documentId="13_ncr:1_{0D7C4ACD-3B96-48F3-99D4-5E393553EB86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{89FDB992-444E-4F26-BB5F-C47141965BEF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5741" uniqueCount="2903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5795" uniqueCount="2924">
   <si>
     <t>snapshot_id</t>
   </si>
@@ -8753,6 +8753,69 @@
   </si>
   <si>
     <t>Customized for UNPD population. To my best understanding is estimated: have no references about method and frequency of collection</t>
+  </si>
+  <si>
+    <t>EDUNF_SAP_L2_GLAST</t>
+  </si>
+  <si>
+    <t>Population of the official age for Last Grade of lower secondary education - ISCED 2, Last Grade - (number of persons, by sex)</t>
+  </si>
+  <si>
+    <t>UIS: EDUNF_SAP_L2_GLAST</t>
+  </si>
+  <si>
+    <t>https://api.uis.unesco.org/sdmx/data/UNESCO,EDU_NON_FINANCE,3.0/SAP.PER.L2.._T+F+M.TH_ENTRY_GLAST................</t>
+  </si>
+  <si>
+    <t>EDUNF_PRP_L2AND3</t>
+  </si>
+  <si>
+    <t>Enrolment in private schools of secondary education - ISCED 2 and 3 - (% of all students enrolled in the respective level of education)</t>
+  </si>
+  <si>
+    <t>UIS: EDUNF_PRP_L2AND3</t>
+  </si>
+  <si>
+    <t>https://api.uis.unesco.org/sdmx/data/UNESCO,EDU_NON_FINANCE,3.0/PRP..L2_3...................</t>
+  </si>
+  <si>
+    <t>EDUNF_STU_L2AND3_PRV</t>
+  </si>
+  <si>
+    <t>Enrolment in secondary education - ISCED 2 and 3 - private institutions (number of persons, by sex)</t>
+  </si>
+  <si>
+    <t>UIS: EDUNF_STU_L2AND3_PRV</t>
+  </si>
+  <si>
+    <t>https://api.uis.unesco.org/sdmx/data/UNESCO,EDU_NON_FINANCE,3.0/STU.PER.L2_3._T._T+F+M...INST_PRIV..............</t>
+  </si>
+  <si>
+    <t>SN-220</t>
+  </si>
+  <si>
+    <t>SN-221</t>
+  </si>
+  <si>
+    <t>SN-222</t>
+  </si>
+  <si>
+    <t>I-641</t>
+  </si>
+  <si>
+    <t>I-642</t>
+  </si>
+  <si>
+    <t>I-643</t>
+  </si>
+  <si>
+    <t>S-230</t>
+  </si>
+  <si>
+    <t>S-231</t>
+  </si>
+  <si>
+    <t>S-232</t>
   </si>
 </sst>
 </file>
@@ -9497,10 +9560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L221"/>
+  <dimension ref="A1:L224"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G4"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="H222" sqref="H222:H224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9621,7 +9684,7 @@
         <v>56</v>
       </c>
       <c r="I3" s="25" t="str">
-        <f>VLOOKUP(H3,Source!$A$2:$G$269,3,FALSE)</f>
+        <f>VLOOKUP(H3,Source!$A$2:$G$272,3,FALSE)</f>
         <v>Helix: DM_POP_URBN</v>
       </c>
       <c r="J3" s="1"/>
@@ -9656,7 +9719,7 @@
         <v>53</v>
       </c>
       <c r="I4" s="25" t="str">
-        <f>VLOOKUP(H4,Source!$A$2:$G$269,3,FALSE)</f>
+        <f>VLOOKUP(H4,Source!$A$2:$G$272,3,FALSE)</f>
         <v>Helix: DM_POP_TOT_AGE</v>
       </c>
       <c r="J4" s="1"/>
@@ -9691,7 +9754,7 @@
         <v>62</v>
       </c>
       <c r="I5" s="25" t="str">
-        <f>VLOOKUP(H5,Source!$A$2:$G$269,3,FALSE)</f>
+        <f>VLOOKUP(H5,Source!$A$2:$G$272,3,FALSE)</f>
         <v>WHO: WHS_PBR</v>
       </c>
       <c r="J5" s="1"/>
@@ -10795,11 +10858,11 @@
         <v>120</v>
       </c>
       <c r="C38" s="44" t="str">
-        <f>VLOOKUP(B38,Indicator!$A$2:$F$766,5,FALSE)</f>
+        <f>VLOOKUP(B38,Indicator!$A$2:$F$769,5,FALSE)</f>
         <v>Percentage of children (by sex, age groups, residence and wealth quintile) with whom any adult household member has engaged in 4 or more activities to provide early stimulation and responsive care in the last 3 days</v>
       </c>
       <c r="D38" s="25" t="str">
-        <f>VLOOKUP(B38,Indicator!$A$2:$F$766,6,FALSE)</f>
+        <f>VLOOKUP(B38,Indicator!$A$2:$F$769,6,FALSE)</f>
         <v>ECD_CHLD_36-59M_ADLT_SRC</v>
       </c>
       <c r="E38" s="1">
@@ -10829,11 +10892,11 @@
         <v>123</v>
       </c>
       <c r="C39" s="44" t="str">
-        <f>VLOOKUP(B39,Indicator!$A$2:$F$766,5,FALSE)</f>
+        <f>VLOOKUP(B39,Indicator!$A$2:$F$769,5,FALSE)</f>
         <v>Coverage of treatment interventions (pharmacological, psychosocial and rehabilitation and aftercare services) for substance use disorders (%)</v>
       </c>
       <c r="D39" s="25" t="str">
-        <f>VLOOKUP(B39,Indicator!$A$2:$F$766,6,FALSE)</f>
+        <f>VLOOKUP(B39,Indicator!$A$2:$F$769,6,FALSE)</f>
         <v>HT_SH_SUD_TREAT</v>
       </c>
       <c r="E39" s="1">
@@ -10863,11 +10926,11 @@
         <v>1066</v>
       </c>
       <c r="C40" s="49" t="str">
-        <f>VLOOKUP(B40,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B40,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Early childhood educational development enrolments (absolute number)</v>
       </c>
       <c r="D40" s="25" t="str">
-        <f>VLOOKUP(B40,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B40,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_STU_L01_TOT</v>
       </c>
       <c r="E40" s="1">
@@ -10897,11 +10960,11 @@
         <v>132</v>
       </c>
       <c r="C41" s="49" t="str">
-        <f>VLOOKUP(B41,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B41,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Early childhood educational development enrolments in public institutions</v>
       </c>
       <c r="D41" s="25" t="str">
-        <f>VLOOKUP(B41,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B41,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_STU_L01_PUB</v>
       </c>
       <c r="E41" s="1">
@@ -10931,11 +10994,11 @@
         <v>135</v>
       </c>
       <c r="C42" s="49" t="str">
-        <f>VLOOKUP(B42,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B42,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Early childhood educational development enrolments in private institutions</v>
       </c>
       <c r="D42" s="25" t="str">
-        <f>VLOOKUP(B42,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B42,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_STU_L01_PRV</v>
       </c>
       <c r="E42" s="1">
@@ -10965,11 +11028,11 @@
         <v>138</v>
       </c>
       <c r="C43" s="49" t="str">
-        <f>VLOOKUP(B43,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B43,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Children in early childhood educational development programs (gross enrolment ratio, % of children aged 0-2)</v>
       </c>
       <c r="D43" s="25" t="str">
-        <f>VLOOKUP(B43,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B43,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_SDG_GER_L01</v>
       </c>
       <c r="E43" s="1">
@@ -10999,11 +11062,11 @@
         <v>147</v>
       </c>
       <c r="C44" s="49" t="str">
-        <f>VLOOKUP(B44,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B44,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Number of years of free pre-primary education guaranteed in legal framework (SDG 4.2.5)</v>
       </c>
       <c r="D44" s="25" t="str">
-        <f>VLOOKUP(B44,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B44,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_SDG_FREE_EDU_L02</v>
       </c>
       <c r="E44" s="1">
@@ -11033,11 +11096,11 @@
         <v>150</v>
       </c>
       <c r="C45" s="49" t="str">
-        <f>VLOOKUP(B45,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B45,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Number of years of compulsory pre-primary education guaranteed in legal framework (SDG 4.2.5)</v>
       </c>
       <c r="D45" s="25" t="str">
-        <f>VLOOKUP(B45,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B45,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_SDG_COMP_EDU_L02</v>
       </c>
       <c r="E45" s="1">
@@ -11067,11 +11130,11 @@
         <v>153</v>
       </c>
       <c r="C46" s="49" t="str">
-        <f>VLOOKUP(B46,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B46,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Pre-primary (ISCED 02) education enrolments (absolute number)</v>
       </c>
       <c r="D46" s="25" t="str">
-        <f>VLOOKUP(B46,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B46,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_STU_L02_TOT</v>
       </c>
       <c r="E46" s="1">
@@ -11101,11 +11164,11 @@
         <v>156</v>
       </c>
       <c r="C47" s="49" t="str">
-        <f>VLOOKUP(B47,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B47,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Pre-primary (ISCED 02) education enrolments in public institutions</v>
       </c>
       <c r="D47" s="25" t="str">
-        <f>VLOOKUP(B47,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B47,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_STU_L02_PUB</v>
       </c>
       <c r="E47" s="1">
@@ -11135,11 +11198,11 @@
         <v>1083</v>
       </c>
       <c r="C48" s="49" t="str">
-        <f>VLOOKUP(B48,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B48,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Pre-primary (ISCED 02) education enrolments in  private institutions</v>
       </c>
       <c r="D48" s="25" t="str">
-        <f>VLOOKUP(B48,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B48,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_STU_L02_PRV</v>
       </c>
       <c r="E48" s="1">
@@ -11169,11 +11232,11 @@
         <v>159</v>
       </c>
       <c r="C49" s="49" t="str">
-        <f>VLOOKUP(B49,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B49,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Enrolment in pre-primary (ISCED 02) education (gross enrolment ratio, % of population aged 3-6, by sex)</v>
       </c>
       <c r="D49" s="25" t="str">
-        <f>VLOOKUP(B49,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B49,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_GER_L02</v>
       </c>
       <c r="E49" s="1">
@@ -11203,11 +11266,11 @@
         <v>1086</v>
       </c>
       <c r="C50" s="49" t="str">
-        <f>VLOOKUP(B50,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B50,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Enrolment in pre-primary  (ISCED 02) education (net enrolment ratio, % of population aged 3-6, by sex)</v>
       </c>
       <c r="D50" s="25" t="str">
-        <f>VLOOKUP(B50,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B50,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_NER_L02</v>
       </c>
       <c r="E50" s="1">
@@ -11237,11 +11300,11 @@
         <v>1088</v>
       </c>
       <c r="C51" s="49" t="str">
-        <f>VLOOKUP(B51,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B51,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Enrolment in private institutions of pre-primary (ISCED 02) education ( % of all children enrolled in respective level of education)</v>
       </c>
       <c r="D51" s="25" t="str">
-        <f>VLOOKUP(B51,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B51,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_PRP_L02</v>
       </c>
       <c r="E51" s="1">
@@ -11271,11 +11334,11 @@
         <v>1089</v>
       </c>
       <c r="C52" s="49" t="str">
-        <f>VLOOKUP(B52,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B52,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Percentage of females in pre-primary (ISCED 02) education (% of all students enrolled in the respective level of education)</v>
       </c>
       <c r="D52" s="25" t="str">
-        <f>VLOOKUP(B52,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B52,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_FEP_L02</v>
       </c>
       <c r="E52" s="1">
@@ -11305,11 +11368,11 @@
         <v>1093</v>
       </c>
       <c r="C53" s="49" t="str">
-        <f>VLOOKUP(B53,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B53,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Participation in organized learning (Adjusted net enrolment rate, one year before official primary entry age - Administrative data) (SDG 4.2.2.)</v>
       </c>
       <c r="D53" s="25" t="str">
-        <f>VLOOKUP(B53,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B53,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_NERA_L1_UNDER1</v>
       </c>
       <c r="E53" s="1">
@@ -11339,11 +11402,11 @@
         <v>165</v>
       </c>
       <c r="C54" s="49" t="str">
-        <f>VLOOKUP(B54,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B54,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Participation in organized learning (Adjusted net attendance rate, one year before official primary entry age - Household survey data) (SDG 4.2.2.)</v>
       </c>
       <c r="D54" s="25" t="str">
-        <f>VLOOKUP(B54,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B54,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_NARA_L1_UNDER1</v>
       </c>
       <c r="E54" s="1">
@@ -11373,11 +11436,11 @@
         <v>168</v>
       </c>
       <c r="C55" s="49" t="str">
-        <f>VLOOKUP(B55,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B55,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Percentage of children (aged 36-59 months, by sex, residence and wealth quintile) developmentally on track in at least 3 of the 4 following domains: literacy-numeracy, physical, social-emotional and learning</v>
       </c>
       <c r="D55" s="25" t="str">
-        <f>VLOOKUP(B55,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B55,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>ECD_CHLD_36-59M_LMPSL</v>
       </c>
       <c r="E55" s="1">
@@ -11407,11 +11470,11 @@
         <v>174</v>
       </c>
       <c r="C56" s="49" t="str">
-        <f>VLOOKUP(B56,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B56,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Net Intake Rate to primary education of official entry age</v>
       </c>
       <c r="D56" s="25" t="str">
-        <f>VLOOKUP(B56,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B56,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_NIR_L1_ENTRYAGE</v>
       </c>
       <c r="E56" s="1">
@@ -11441,11 +11504,11 @@
         <v>180</v>
       </c>
       <c r="C57" s="49" t="str">
-        <f>VLOOKUP(B57,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B57,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Primary education (ISCED 1) enrolments (absolute number)</v>
       </c>
       <c r="D57" s="25" t="str">
-        <f>VLOOKUP(B57,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B57,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_STU_L1_TOT</v>
       </c>
       <c r="E57" s="1">
@@ -11475,11 +11538,11 @@
         <v>183</v>
       </c>
       <c r="C58" s="49" t="str">
-        <f>VLOOKUP(B58,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B58,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Percentage of females in primary  (ISCED 1) education (% of all students enrolled in the respective level of education)</v>
       </c>
       <c r="D58" s="25" t="str">
-        <f>VLOOKUP(B58,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B58,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_FEP_L1</v>
       </c>
       <c r="E58" s="1">
@@ -11509,11 +11572,11 @@
         <v>186</v>
       </c>
       <c r="C59" s="49" t="str">
-        <f>VLOOKUP(B59,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B59,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Lower Secondary education (ISCED 2) enrolments (absolute number)</v>
       </c>
       <c r="D59" s="25" t="str">
-        <f>VLOOKUP(B59,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B59,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_STU_L2_TOT</v>
       </c>
       <c r="E59" s="1">
@@ -11543,11 +11606,11 @@
         <v>189</v>
       </c>
       <c r="C60" s="49" t="str">
-        <f>VLOOKUP(B60,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B60,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Percentage of females in lower secondary  (ISCED 2) education (% of all students enrolled in the respective level of education)</v>
       </c>
       <c r="D60" s="25" t="str">
-        <f>VLOOKUP(B60,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B60,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_FEP_L2</v>
       </c>
       <c r="E60" s="1">
@@ -11577,11 +11640,11 @@
         <v>192</v>
       </c>
       <c r="C61" s="49" t="str">
-        <f>VLOOKUP(B61,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B61,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Upper secondary education (ISCED 3) enrolment (absolute number)</v>
       </c>
       <c r="D61" s="25" t="str">
-        <f>VLOOKUP(B61,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B61,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_STU_L3_TOT</v>
       </c>
       <c r="E61" s="1">
@@ -11611,11 +11674,11 @@
         <v>1112</v>
       </c>
       <c r="C62" s="49" t="str">
-        <f>VLOOKUP(B62,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B62,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Percentage of females in upper secondary education (ISCED 3) (% of all students enrolled in the respective level of education)</v>
       </c>
       <c r="D62" s="25" t="str">
-        <f>VLOOKUP(B62,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B62,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_FEP_L3</v>
       </c>
       <c r="E62" s="1">
@@ -11645,11 +11708,11 @@
         <v>195</v>
       </c>
       <c r="C63" s="49" t="str">
-        <f>VLOOKUP(B63,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B63,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Percentage of females in general upper-secondary education  (% of all students enrolled in the respective level of education)</v>
       </c>
       <c r="D63" s="25" t="str">
-        <f>VLOOKUP(B63,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B63,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_FEP_L3_GEN</v>
       </c>
       <c r="E63" s="1">
@@ -11679,11 +11742,11 @@
         <v>198</v>
       </c>
       <c r="C64" s="49" t="str">
-        <f>VLOOKUP(B64,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B64,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Percentage of females in vocational upper-secondary education  (% of all students enrolled in the respective level of education)</v>
       </c>
       <c r="D64" s="25" t="str">
-        <f>VLOOKUP(B64,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B64,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_FEP_L3_VOC</v>
       </c>
       <c r="E64" s="1">
@@ -11713,11 +11776,11 @@
         <v>201</v>
       </c>
       <c r="C65" s="49" t="str">
-        <f>VLOOKUP(B65,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B65,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Upper secondary enrolment by program orientation - General (number)</v>
       </c>
       <c r="D65" s="25" t="str">
-        <f>VLOOKUP(B65,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B65,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_STU_L3_GEN</v>
       </c>
       <c r="E65" s="1">
@@ -11747,11 +11810,11 @@
         <v>204</v>
       </c>
       <c r="C66" s="49" t="str">
-        <f>VLOOKUP(B66,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B66,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Upper secondary enrolment by program orientation - Vocational (number)</v>
       </c>
       <c r="D66" s="25" t="str">
-        <f>VLOOKUP(B66,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B66,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_STU_L3_VOC</v>
       </c>
       <c r="E66" s="1">
@@ -11781,11 +11844,11 @@
         <v>210</v>
       </c>
       <c r="C67" s="49" t="str">
-        <f>VLOOKUP(B67,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B67,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Primary (ISCED 1) education enrolments in public institutions</v>
       </c>
       <c r="D67" s="25" t="str">
-        <f>VLOOKUP(B67,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B67,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_STU_L1_PUB</v>
       </c>
       <c r="E67" s="1">
@@ -11815,11 +11878,11 @@
         <v>213</v>
       </c>
       <c r="C68" s="49" t="str">
-        <f>VLOOKUP(B68,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B68,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Primary (ISCED 1) education enrolments in  private institutions</v>
       </c>
       <c r="D68" s="25" t="str">
-        <f>VLOOKUP(B68,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B68,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_STU_L1_PRV</v>
       </c>
       <c r="E68" s="1">
@@ -11849,11 +11912,11 @@
         <v>216</v>
       </c>
       <c r="C69" s="49" t="str">
-        <f>VLOOKUP(B69,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B69,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Enrolment in private schools of primary (ISCED 1) education (% of all students enrolled in primary education)</v>
       </c>
       <c r="D69" s="25" t="str">
-        <f>VLOOKUP(B69,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B69,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_PRP_L1</v>
       </c>
       <c r="E69" s="1">
@@ -11883,11 +11946,11 @@
         <v>219</v>
       </c>
       <c r="C70" s="49" t="str">
-        <f>VLOOKUP(B70,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B70,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Lower Secondary education (ISCED 2) enrolments in public institutions</v>
       </c>
       <c r="D70" s="25" t="str">
-        <f>VLOOKUP(B70,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B70,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_STU_L2_PUB</v>
       </c>
       <c r="E70" s="1">
@@ -11917,11 +11980,11 @@
         <v>222</v>
       </c>
       <c r="C71" s="49" t="str">
-        <f>VLOOKUP(B71,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B71,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Lower Secondary education (ISCED 2) enrolments in private institutions</v>
       </c>
       <c r="D71" s="25" t="str">
-        <f>VLOOKUP(B71,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B71,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_STU_L2_PRV</v>
       </c>
       <c r="E71" s="1">
@@ -11951,11 +12014,11 @@
         <v>225</v>
       </c>
       <c r="C72" s="49" t="str">
-        <f>VLOOKUP(B72,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B72,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Enrolment in private schools of lower secondary (ISCED 2) education (% of all students enrolled in the respective level of education)</v>
       </c>
       <c r="D72" s="25" t="str">
-        <f>VLOOKUP(B72,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B72,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_PRP_L2</v>
       </c>
       <c r="E72" s="1">
@@ -11985,11 +12048,11 @@
         <v>1136</v>
       </c>
       <c r="C73" s="49" t="str">
-        <f>VLOOKUP(B73,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B73,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Upper secondary education (ISCED 3) enrolment (absolute number) -public institutions</v>
       </c>
       <c r="D73" s="25" t="str">
-        <f>VLOOKUP(B73,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B73,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_STU_L3_PUB</v>
       </c>
       <c r="E73" s="1">
@@ -12019,11 +12082,11 @@
         <v>228</v>
       </c>
       <c r="C74" s="49" t="str">
-        <f>VLOOKUP(B74,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B74,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Upper secondary education (ISCED 3) enrolment (absolute number) -private institutions</v>
       </c>
       <c r="D74" s="25" t="str">
-        <f>VLOOKUP(B74,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B74,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_STU_L3_PRV</v>
       </c>
       <c r="E74" s="1">
@@ -12053,11 +12116,11 @@
         <v>231</v>
       </c>
       <c r="C75" s="49" t="str">
-        <f>VLOOKUP(B75,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B75,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Enrolment in private schools of upper secondary (ISCED 3) education (% of all students enrolled in the respective level of education)</v>
       </c>
       <c r="D75" s="25" t="str">
-        <f>VLOOKUP(B75,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B75,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_PRP_L3</v>
       </c>
       <c r="E75" s="1">
@@ -12087,11 +12150,11 @@
         <v>234</v>
       </c>
       <c r="C76" s="49" t="str">
-        <f>VLOOKUP(B76,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B76,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Upper secondary enrolment by program orientation and type of institution - General, public institutions</v>
       </c>
       <c r="D76" s="25" t="str">
-        <f>VLOOKUP(B76,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B76,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_STU_L3_GEN_PUB</v>
       </c>
       <c r="E76" s="1">
@@ -12121,11 +12184,11 @@
         <v>237</v>
       </c>
       <c r="C77" s="49" t="str">
-        <f>VLOOKUP(B77,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B77,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Upper secondary enrolment by program orientation and type of institution - General, private institutions</v>
       </c>
       <c r="D77" s="25" t="str">
-        <f>VLOOKUP(B77,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B77,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_STU_L3_GEN_PRV</v>
       </c>
       <c r="E77" s="1">
@@ -12155,11 +12218,11 @@
         <v>243</v>
       </c>
       <c r="C78" s="49" t="str">
-        <f>VLOOKUP(B78,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B78,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Vocational or technical upper secondary education enrolments in public institutions</v>
       </c>
       <c r="D78" s="25" t="str">
-        <f>VLOOKUP(B78,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B78,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_STU_L3_VOC_PUB</v>
       </c>
       <c r="E78" s="1">
@@ -12189,11 +12252,11 @@
         <v>246</v>
       </c>
       <c r="C79" s="49" t="str">
-        <f>VLOOKUP(B79,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B79,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Vocational or technical upper secondary education enrolments  in private institutions</v>
       </c>
       <c r="D79" s="25" t="str">
-        <f>VLOOKUP(B79,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B79,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_STU_L3_VOC_PRV</v>
       </c>
       <c r="E79" s="1">
@@ -12223,11 +12286,11 @@
         <v>249</v>
       </c>
       <c r="C80" s="49" t="str">
-        <f>VLOOKUP(B80,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B80,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Primary education (ISCED 1) gross enrolment ratio (% of relevant population)</v>
       </c>
       <c r="D80" s="25" t="str">
-        <f>VLOOKUP(B80,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B80,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_GER_L1</v>
       </c>
       <c r="E80" s="1">
@@ -12257,11 +12320,11 @@
         <v>252</v>
       </c>
       <c r="C81" s="49" t="str">
-        <f>VLOOKUP(B81,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B81,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Lower secondary education (ISCED 2) gross enrolment ratio (% of relevant population)</v>
       </c>
       <c r="D81" s="25" t="str">
-        <f>VLOOKUP(B81,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B81,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_GER_L2</v>
       </c>
       <c r="E81" s="1">
@@ -12291,11 +12354,11 @@
         <v>255</v>
       </c>
       <c r="C82" s="49" t="str">
-        <f>VLOOKUP(B82,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B82,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Basic education (ISCED 1 and 2) gross enrolment ratio (% of relevant population)</v>
       </c>
       <c r="D82" s="25" t="str">
-        <f>VLOOKUP(B82,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B82,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_GER_L1AND2</v>
       </c>
       <c r="E82" s="1">
@@ -12325,11 +12388,11 @@
         <v>258</v>
       </c>
       <c r="C83" s="49" t="str">
-        <f>VLOOKUP(B83,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B83,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Lower secondary education (ISCED 2) gross enrolment ratio by program orientation - General (% of relevant population)</v>
       </c>
       <c r="D83" s="25" t="str">
-        <f>VLOOKUP(B83,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B83,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_GER_L2_GEN</v>
       </c>
       <c r="E83" s="1">
@@ -12359,11 +12422,11 @@
         <v>261</v>
       </c>
       <c r="C84" s="49" t="str">
-        <f>VLOOKUP(B84,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B84,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Lower secondary education (ISCED 2) gross enrolment ratio by program orientation - Vocational (% of relevant population)</v>
       </c>
       <c r="D84" s="25" t="str">
-        <f>VLOOKUP(B84,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B84,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_GER_L2_VOC</v>
       </c>
       <c r="E84" s="1">
@@ -12393,11 +12456,11 @@
         <v>264</v>
       </c>
       <c r="C85" s="49" t="str">
-        <f>VLOOKUP(B85,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B85,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Upper-secondary education (ISCED 3) gross enrolment ratio (% of population aged 15-18)</v>
       </c>
       <c r="D85" s="25" t="str">
-        <f>VLOOKUP(B85,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B85,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_GER_L3</v>
       </c>
       <c r="E85" s="1">
@@ -12427,11 +12490,11 @@
         <v>267</v>
       </c>
       <c r="C86" s="49" t="str">
-        <f>VLOOKUP(B86,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B86,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Upper secondary gross enrolment ratio by program orientiation - General (% of population aged 15-18)</v>
       </c>
       <c r="D86" s="25" t="str">
-        <f>VLOOKUP(B86,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B86,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_GER_L3_GEN</v>
       </c>
       <c r="E86" s="1">
@@ -12461,11 +12524,11 @@
         <v>270</v>
       </c>
       <c r="C87" s="49" t="str">
-        <f>VLOOKUP(B87,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B87,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Upper secondary gross enrolment ratio by program orientiation - Vocational (% of population aged 15-18)</v>
       </c>
       <c r="D87" s="25" t="str">
-        <f>VLOOKUP(B87,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B87,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_GER_L3_VOC</v>
       </c>
       <c r="E87" s="1">
@@ -12495,11 +12558,11 @@
         <v>273</v>
       </c>
       <c r="C88" s="49" t="str">
-        <f>VLOOKUP(B88,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B88,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Adjusted net enrolment rate: primary education (%)</v>
       </c>
       <c r="D88" s="25" t="str">
-        <f>VLOOKUP(B88,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B88,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_NERA_L1</v>
       </c>
       <c r="E88" s="1">
@@ -12529,11 +12592,11 @@
         <v>276</v>
       </c>
       <c r="C89" s="49" t="str">
-        <f>VLOOKUP(B89,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B89,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Adjusted net enrolment rate: lower secondary (%)</v>
       </c>
       <c r="D89" s="25" t="str">
-        <f>VLOOKUP(B89,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B89,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_NERA_L2</v>
       </c>
       <c r="E89" s="1">
@@ -12563,11 +12626,11 @@
         <v>279</v>
       </c>
       <c r="C90" s="49" t="str">
-        <f>VLOOKUP(B90,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B90,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Proportion of children in grade 2 or 3 reaching minimum proficiency in reading</v>
       </c>
       <c r="D90" s="25" t="str">
-        <f>VLOOKUP(B90,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B90,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_SDG_STU_L1_G2OR3_REA</v>
       </c>
       <c r="E90" s="1">
@@ -12597,11 +12660,11 @@
         <v>282</v>
       </c>
       <c r="C91" s="49" t="str">
-        <f>VLOOKUP(B91,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B91,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Proportion of children in grade 2 or 3 reaching minimum proficiency in math</v>
       </c>
       <c r="D91" s="25" t="str">
-        <f>VLOOKUP(B91,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B91,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_SDG_STU_L1_G2OR3_MAT</v>
       </c>
       <c r="E91" s="1">
@@ -12631,11 +12694,11 @@
         <v>285</v>
       </c>
       <c r="C92" s="49" t="str">
-        <f>VLOOKUP(B92,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B92,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Proportion of children at the end of primary education reaching minimum proficiency in reading</v>
       </c>
       <c r="D92" s="25" t="str">
-        <f>VLOOKUP(B92,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B92,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_SDG_STU_L1_GLAST_REA</v>
       </c>
       <c r="E92" s="1">
@@ -12665,11 +12728,11 @@
         <v>288</v>
       </c>
       <c r="C93" s="49" t="str">
-        <f>VLOOKUP(B93,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B93,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Proportion of children at the end of primary education reaching minimum proficiency in math</v>
       </c>
       <c r="D93" s="25" t="str">
-        <f>VLOOKUP(B93,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B93,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_SDG_STU_L1_GLAST_MAT</v>
       </c>
       <c r="E93" s="1">
@@ -12699,11 +12762,11 @@
         <v>291</v>
       </c>
       <c r="C94" s="49" t="str">
-        <f>VLOOKUP(B94,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B94,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Proportion of children at the end of lower secondary education reaching minimum proficiency in reading</v>
       </c>
       <c r="D94" s="25" t="str">
-        <f>VLOOKUP(B94,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B94,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_SDG_STU_L2_GLAST_REA</v>
       </c>
       <c r="E94" s="1">
@@ -12733,11 +12796,11 @@
         <v>1167</v>
       </c>
       <c r="C95" s="49" t="str">
-        <f>VLOOKUP(B95,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B95,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Proportion of children at the end of lower secondary education reaching minimum proficiency in math</v>
       </c>
       <c r="D95" s="25" t="str">
-        <f>VLOOKUP(B95,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B95,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_SDG_STU_L2_GLAST_MAT</v>
       </c>
       <c r="E95" s="1">
@@ -12767,11 +12830,11 @@
         <v>1168</v>
       </c>
       <c r="C96" s="49" t="str">
-        <f>VLOOKUP(B96,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B96,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Administration of nationally representative learning assessment in reading (End primary)</v>
       </c>
       <c r="D96" s="25" t="str">
-        <f>VLOOKUP(B96,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B96,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_ADMIN_L1_GLAST_REA</v>
       </c>
       <c r="E96" s="1">
@@ -12801,11 +12864,11 @@
         <v>1169</v>
       </c>
       <c r="C97" s="49" t="str">
-        <f>VLOOKUP(B97,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B97,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Administration of nationally representative learning assessment in math (End primary)</v>
       </c>
       <c r="D97" s="25" t="str">
-        <f>VLOOKUP(B97,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B97,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_ADMIN_L1_GLAST_MAT</v>
       </c>
       <c r="E97" s="1">
@@ -12835,11 +12898,11 @@
         <v>1170</v>
       </c>
       <c r="C98" s="49" t="str">
-        <f>VLOOKUP(B98,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B98,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Administration of nationally representative learning assessment in reading (Lower secondary)</v>
       </c>
       <c r="D98" s="25" t="str">
-        <f>VLOOKUP(B98,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B98,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_ADMIN_L2_REA</v>
       </c>
       <c r="E98" s="1">
@@ -12869,11 +12932,11 @@
         <v>1171</v>
       </c>
       <c r="C99" s="49" t="str">
-        <f>VLOOKUP(B99,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B99,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Administration of nationally representative learning assessment in math (Lower secondary)</v>
       </c>
       <c r="D99" s="25" t="str">
-        <f>VLOOKUP(B99,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B99,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_ADMIN_L2_MAT</v>
       </c>
       <c r="E99" s="1">
@@ -12903,11 +12966,11 @@
         <v>1172</v>
       </c>
       <c r="C100" s="49" t="str">
-        <f>VLOOKUP(B100,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B100,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>TIMSS: Mean performance on the Mathematics scale for Grade 4 students by sex</v>
       </c>
       <c r="D100" s="25" t="str">
-        <f>VLOOKUP(B100,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B100,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_TIMSS_MAT4</v>
       </c>
       <c r="E100" s="1">
@@ -12937,11 +13000,11 @@
         <v>1173</v>
       </c>
       <c r="C101" s="49" t="str">
-        <f>VLOOKUP(B101,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B101,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>TIMSS: Mean performance on the Science scale for Grade 4 students by sex</v>
       </c>
       <c r="D101" s="25" t="str">
-        <f>VLOOKUP(B101,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B101,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_TIMSS_SCI4</v>
       </c>
       <c r="E101" s="1">
@@ -12971,11 +13034,11 @@
         <v>1174</v>
       </c>
       <c r="C102" s="49" t="str">
-        <f>VLOOKUP(B102,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B102,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>TIMSS: Mean performance on the Mathematics scale for Grade 8 students by sex</v>
       </c>
       <c r="D102" s="25" t="str">
-        <f>VLOOKUP(B102,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B102,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_TIMSS_MAT8</v>
       </c>
       <c r="E102" s="1">
@@ -13005,11 +13068,11 @@
         <v>1175</v>
       </c>
       <c r="C103" s="49" t="str">
-        <f>VLOOKUP(B103,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B103,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>TIMSS: Mean performance on the Science scale for Grade 8 students by sex</v>
       </c>
       <c r="D103" s="25" t="str">
-        <f>VLOOKUP(B103,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B103,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_TIMSS_SCI8</v>
       </c>
       <c r="E103" s="1">
@@ -13039,11 +13102,11 @@
         <v>1176</v>
       </c>
       <c r="C104" s="49" t="str">
-        <f>VLOOKUP(B104,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B104,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>PIRLS: Mean performance on the Reading scale for Grade 4 students by sex</v>
       </c>
       <c r="D104" s="25" t="str">
-        <f>VLOOKUP(B104,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B104,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_PIRLS_REA</v>
       </c>
       <c r="E104" s="1">
@@ -13073,11 +13136,11 @@
         <v>1177</v>
       </c>
       <c r="C105" s="49" t="str">
-        <f>VLOOKUP(B105,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B105,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>PISA: Mean performance on the Mathematics scale for 15-year-old students by sex</v>
       </c>
       <c r="D105" s="25" t="str">
-        <f>VLOOKUP(B105,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B105,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_PISA_MAT</v>
       </c>
       <c r="E105" s="1">
@@ -13107,11 +13170,11 @@
         <v>294</v>
       </c>
       <c r="C106" s="49" t="str">
-        <f>VLOOKUP(B106,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B106,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>PISA: Mean performance on the Reading scale for 15-year-old students by sex</v>
       </c>
       <c r="D106" s="25" t="str">
-        <f>VLOOKUP(B106,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B106,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_PISA_REA</v>
       </c>
       <c r="E106" s="1">
@@ -13141,11 +13204,11 @@
         <v>297</v>
       </c>
       <c r="C107" s="49" t="str">
-        <f>VLOOKUP(B107,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B107,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>PISA: Mean performance on the Science scale for 15-year-old students by sex</v>
       </c>
       <c r="D107" s="25" t="str">
-        <f>VLOOKUP(B107,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B107,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_PISA_SCI</v>
       </c>
       <c r="E107" s="1">
@@ -13175,11 +13238,11 @@
         <v>309</v>
       </c>
       <c r="C108" s="49" t="str">
-        <f>VLOOKUP(B108,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B108,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Youth literacy rate, population 15-24 years by sex (%)</v>
       </c>
       <c r="D108" s="25" t="str">
-        <f>VLOOKUP(B108,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B108,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_LR_YOUTH</v>
       </c>
       <c r="E108" s="1">
@@ -13209,11 +13272,11 @@
         <v>312</v>
       </c>
       <c r="C109" s="49" t="str">
-        <f>VLOOKUP(B109,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B109,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Number of repeaters by sex in all grades of primary education (ISCED 1)</v>
       </c>
       <c r="D109" s="25" t="str">
-        <f>VLOOKUP(B109,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B109,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_RPTR_L1</v>
       </c>
       <c r="E109" s="1">
@@ -13243,11 +13306,11 @@
         <v>315</v>
       </c>
       <c r="C110" s="49" t="str">
-        <f>VLOOKUP(B110,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B110,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Number of repeaters by sex in all grades of lower secondary general education (ISCED 2 - C4)</v>
       </c>
       <c r="D110" s="25" t="str">
-        <f>VLOOKUP(B110,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B110,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_RPTR_L2</v>
       </c>
       <c r="E110" s="1">
@@ -13277,11 +13340,11 @@
         <v>318</v>
       </c>
       <c r="C111" s="49" t="str">
-        <f>VLOOKUP(B111,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B111,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Percentage of repeaters by sex in all grades of primary education (ISCED 1)</v>
       </c>
       <c r="D111" s="25" t="str">
-        <f>VLOOKUP(B111,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B111,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_REPP_L1</v>
       </c>
       <c r="E111" s="1">
@@ -13311,11 +13374,11 @@
         <v>321</v>
       </c>
       <c r="C112" s="49" t="str">
-        <f>VLOOKUP(B112,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B112,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Percentage of repeaters by sex in all grades of lower secondary general education (ISCED 2 - C4)</v>
       </c>
       <c r="D112" s="25" t="str">
-        <f>VLOOKUP(B112,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B112,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_REPP_L2</v>
       </c>
       <c r="E112" s="1">
@@ -13345,11 +13408,11 @@
         <v>324</v>
       </c>
       <c r="C113" s="49" t="str">
-        <f>VLOOKUP(B113,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B113,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Percentage of females among repeaters in primary education (ISCED 1)</v>
       </c>
       <c r="D113" s="25" t="str">
-        <f>VLOOKUP(B113,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B113,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_FRP_L1</v>
       </c>
       <c r="E113" s="1">
@@ -13366,7 +13429,7 @@
         <v>397</v>
       </c>
       <c r="I113" s="25" t="str">
-        <f>VLOOKUP(H113,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H113,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_FRP_L1</v>
       </c>
       <c r="K113" s="1"/>
@@ -13379,11 +13442,11 @@
         <v>327</v>
       </c>
       <c r="C114" s="49" t="str">
-        <f>VLOOKUP(B114,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B114,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Cumulative drop-out rate by sex in primary education (% to the last grade)</v>
       </c>
       <c r="D114" s="25" t="str">
-        <f>VLOOKUP(B114,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B114,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_DR_L1</v>
       </c>
       <c r="E114" s="1">
@@ -13400,7 +13463,7 @@
         <v>400</v>
       </c>
       <c r="I114" s="25" t="str">
-        <f>VLOOKUP(H114,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H114,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_DR_L1</v>
       </c>
       <c r="K114" s="1"/>
@@ -13413,11 +13476,11 @@
         <v>330</v>
       </c>
       <c r="C115" s="49" t="str">
-        <f>VLOOKUP(B115,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B115,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Number of early school leavers from primary education by sex</v>
       </c>
       <c r="D115" s="25" t="str">
-        <f>VLOOKUP(B115,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B115,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_ESL_L1</v>
       </c>
       <c r="E115" s="1">
@@ -13434,7 +13497,7 @@
         <v>403</v>
       </c>
       <c r="I115" s="25" t="str">
-        <f>VLOOKUP(H115,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H115,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_ESL_L1</v>
       </c>
       <c r="K115" s="1"/>
@@ -13447,11 +13510,11 @@
         <v>333</v>
       </c>
       <c r="C116" s="49" t="str">
-        <f>VLOOKUP(B116,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B116,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Cumulative drop-out rate by sex in lower secondary general education (% to the last grade)</v>
       </c>
       <c r="D116" s="25" t="str">
-        <f>VLOOKUP(B116,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B116,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_DR_L2</v>
       </c>
       <c r="E116" s="1">
@@ -13468,7 +13531,7 @@
         <v>406</v>
       </c>
       <c r="I116" s="25" t="str">
-        <f>VLOOKUP(H116,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H116,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_DR_L2</v>
       </c>
       <c r="K116" s="1"/>
@@ -13481,11 +13544,11 @@
         <v>336</v>
       </c>
       <c r="C117" s="49" t="str">
-        <f>VLOOKUP(B117,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B117,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Survival rate to the last grade of primary education by sex (%)</v>
       </c>
       <c r="D117" s="25" t="str">
-        <f>VLOOKUP(B117,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B117,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_SR_L1</v>
       </c>
       <c r="E117" s="1">
@@ -13502,7 +13565,7 @@
         <v>409</v>
       </c>
       <c r="I117" s="25" t="str">
-        <f>VLOOKUP(H117,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H117,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_SR_L1</v>
       </c>
       <c r="K117" s="1"/>
@@ -13515,11 +13578,11 @@
         <v>339</v>
       </c>
       <c r="C118" s="49" t="str">
-        <f>VLOOKUP(B118,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B118,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Survival rate to the last grade of lower secondary general education by sex (%)</v>
       </c>
       <c r="D118" s="25" t="str">
-        <f>VLOOKUP(B118,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B118,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_SR_L2</v>
       </c>
       <c r="E118" s="1">
@@ -13536,7 +13599,7 @@
         <v>412</v>
       </c>
       <c r="I118" s="25" t="str">
-        <f>VLOOKUP(H118,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H118,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_SR_L2</v>
       </c>
       <c r="K118" s="1"/>
@@ -13549,11 +13612,11 @@
         <v>342</v>
       </c>
       <c r="C119" s="49" t="str">
-        <f>VLOOKUP(B119,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B119,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Completion rate - Primary education</v>
       </c>
       <c r="D119" s="25" t="str">
-        <f>VLOOKUP(B119,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B119,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_CR_L1</v>
       </c>
       <c r="E119" s="1">
@@ -13570,7 +13633,7 @@
         <v>415</v>
       </c>
       <c r="I119" s="25" t="str">
-        <f>VLOOKUP(H119,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H119,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_CR_L1</v>
       </c>
       <c r="K119" s="1"/>
@@ -13583,11 +13646,11 @@
         <v>345</v>
       </c>
       <c r="C120" s="49" t="str">
-        <f>VLOOKUP(B120,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B120,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Completion rate - Lower secondary education</v>
       </c>
       <c r="D120" s="25" t="str">
-        <f>VLOOKUP(B120,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B120,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_CR_L2</v>
       </c>
       <c r="E120" s="1">
@@ -13604,7 +13667,7 @@
         <v>418</v>
       </c>
       <c r="I120" s="25" t="str">
-        <f>VLOOKUP(H120,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H120,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_CR_L2</v>
       </c>
       <c r="K120" s="1"/>
@@ -13617,11 +13680,11 @@
         <v>348</v>
       </c>
       <c r="C121" s="49" t="str">
-        <f>VLOOKUP(B121,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B121,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Completion rate - Upper secondary education</v>
       </c>
       <c r="D121" s="25" t="str">
-        <f>VLOOKUP(B121,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B121,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_CR_L3</v>
       </c>
       <c r="E121" s="1">
@@ -13638,7 +13701,7 @@
         <v>421</v>
       </c>
       <c r="I121" s="25" t="str">
-        <f>VLOOKUP(H121,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H121,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_CR_L3</v>
       </c>
       <c r="K121" s="1"/>
@@ -13651,11 +13714,11 @@
         <v>351</v>
       </c>
       <c r="C122" s="49" t="str">
-        <f>VLOOKUP(B122,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B122,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Effective transition rate by sex, from primary to lower secondary general education (%)</v>
       </c>
       <c r="D122" s="25" t="str">
-        <f>VLOOKUP(B122,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B122,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_TRANRA_L2</v>
       </c>
       <c r="E122" s="1">
@@ -13672,7 +13735,7 @@
         <v>424</v>
       </c>
       <c r="I122" s="25" t="str">
-        <f>VLOOKUP(H122,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H122,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_TRANRA_L2</v>
       </c>
       <c r="K122" s="1"/>
@@ -13685,11 +13748,11 @@
         <v>354</v>
       </c>
       <c r="C123" s="49" t="str">
-        <f>VLOOKUP(B123,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B123,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Number of out-of-school children of primary school age by sex</v>
       </c>
       <c r="D123" s="25" t="str">
-        <f>VLOOKUP(B123,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B123,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_OFST_L1</v>
       </c>
       <c r="E123" s="1">
@@ -13706,7 +13769,7 @@
         <v>427</v>
       </c>
       <c r="I123" s="25" t="str">
-        <f>VLOOKUP(H123,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H123,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_OFST_L1</v>
       </c>
       <c r="K123" s="1"/>
@@ -13719,11 +13782,11 @@
         <v>1198</v>
       </c>
       <c r="C124" s="49" t="str">
-        <f>VLOOKUP(B124,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B124,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Out-of-school rate for children of primary school age by sex (%)</v>
       </c>
       <c r="D124" s="25" t="str">
-        <f>VLOOKUP(B124,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B124,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_ROFST_L1</v>
       </c>
       <c r="E124" s="1">
@@ -13740,7 +13803,7 @@
         <v>430</v>
       </c>
       <c r="I124" s="25" t="str">
-        <f>VLOOKUP(H124,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H124,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_ROFST_L1</v>
       </c>
       <c r="K124" s="1"/>
@@ -13753,11 +13816,11 @@
         <v>357</v>
       </c>
       <c r="C125" s="49" t="str">
-        <f>VLOOKUP(B125,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B125,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Number of out-of-school adolescents of lower secondary school age by sex</v>
       </c>
       <c r="D125" s="25" t="str">
-        <f>VLOOKUP(B125,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B125,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_OFST_L2</v>
       </c>
       <c r="E125" s="1">
@@ -13774,7 +13837,7 @@
         <v>433</v>
       </c>
       <c r="I125" s="25" t="str">
-        <f>VLOOKUP(H125,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H125,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_OFST_L2</v>
       </c>
       <c r="K125" s="1"/>
@@ -13787,11 +13850,11 @@
         <v>1200</v>
       </c>
       <c r="C126" s="49" t="str">
-        <f>VLOOKUP(B126,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B126,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Out-of-school rate for adolescents of lower secondary school age by sex (%)</v>
       </c>
       <c r="D126" s="25" t="str">
-        <f>VLOOKUP(B126,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B126,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_ROFST_L2</v>
       </c>
       <c r="E126" s="1">
@@ -13808,7 +13871,7 @@
         <v>436</v>
       </c>
       <c r="I126" s="25" t="str">
-        <f>VLOOKUP(H126,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H126,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_ROFST_L2</v>
       </c>
       <c r="K126" s="1"/>
@@ -13821,11 +13884,11 @@
         <v>360</v>
       </c>
       <c r="C127" s="49" t="str">
-        <f>VLOOKUP(B127,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B127,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Number of out-of-school youth of upper secondary school age by sex</v>
       </c>
       <c r="D127" s="25" t="str">
-        <f>VLOOKUP(B127,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B127,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_OFST_L3</v>
       </c>
       <c r="E127" s="1">
@@ -13842,7 +13905,7 @@
         <v>439</v>
       </c>
       <c r="I127" s="25" t="str">
-        <f>VLOOKUP(H127,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H127,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_OFST_L3</v>
       </c>
       <c r="K127" s="1"/>
@@ -13855,11 +13918,11 @@
         <v>363</v>
       </c>
       <c r="C128" s="49" t="str">
-        <f>VLOOKUP(B128,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B128,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Out-of-school rate for youth of upper secondary school age by sex (%)</v>
       </c>
       <c r="D128" s="25" t="str">
-        <f>VLOOKUP(B128,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B128,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_ROFST_L3</v>
       </c>
       <c r="E128" s="1">
@@ -13876,7 +13939,7 @@
         <v>442</v>
       </c>
       <c r="I128" s="25" t="str">
-        <f>VLOOKUP(H128,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H128,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_ROFST_L3</v>
       </c>
       <c r="K128" s="1"/>
@@ -13889,11 +13952,11 @@
         <v>366</v>
       </c>
       <c r="C129" s="49" t="str">
-        <f>VLOOKUP(B129,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B129,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Proportion of youth (aged 15-24 years) not in education, employment or training (%)</v>
       </c>
       <c r="D129" s="25" t="str">
-        <f>VLOOKUP(B129,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B129,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_SDG_YOUTH_NEET</v>
       </c>
       <c r="E129" s="1">
@@ -13910,7 +13973,7 @@
         <v>445</v>
       </c>
       <c r="I129" s="25" t="str">
-        <f>VLOOKUP(H129,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H129,Source!$A$2:$G$237,3,FALSE)</f>
         <v>ILO: SDG_0861_SEX_RT_A</v>
       </c>
       <c r="K129" s="1"/>
@@ -13923,11 +13986,11 @@
         <v>369</v>
       </c>
       <c r="C130" s="49" t="str">
-        <f>VLOOKUP(B130,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B130,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Participation rate of youth and adults in formal and non-formal education and training for the previous 12 months by sex (%)</v>
       </c>
       <c r="D130" s="25" t="str">
-        <f>VLOOKUP(B130,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B130,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_SDG_PRYA</v>
       </c>
       <c r="E130" s="1">
@@ -13944,7 +14007,7 @@
         <v>448</v>
       </c>
       <c r="I130" s="25" t="str">
-        <f>VLOOKUP(H130,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H130,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDU_SDG_PRYA</v>
       </c>
       <c r="K130" s="1"/>
@@ -13957,11 +14020,11 @@
         <v>375</v>
       </c>
       <c r="C131" s="49" t="str">
-        <f>VLOOKUP(B131,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B131,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Number of post-secondary non-tertiary education (ISCED 4) enrolments by sex</v>
       </c>
       <c r="D131" s="25" t="str">
-        <f>VLOOKUP(B131,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B131,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_STU_L4_TOT</v>
       </c>
       <c r="E131" s="1">
@@ -13978,7 +14041,7 @@
         <v>451</v>
       </c>
       <c r="I131" s="25" t="str">
-        <f>VLOOKUP(H131,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H131,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_STU_L4_TOT</v>
       </c>
       <c r="K131" s="1"/>
@@ -13991,11 +14054,11 @@
         <v>378</v>
       </c>
       <c r="C132" s="49" t="str">
-        <f>VLOOKUP(B132,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B132,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Number of post-secondary non-tertiary education (ISCED 4) enrolments in public institutions by sex</v>
       </c>
       <c r="D132" s="25" t="str">
-        <f>VLOOKUP(B132,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B132,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_STU_L4_PUB</v>
       </c>
       <c r="E132" s="1">
@@ -14012,7 +14075,7 @@
         <v>454</v>
       </c>
       <c r="I132" s="25" t="str">
-        <f>VLOOKUP(H132,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H132,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_STU_L4_PUB</v>
       </c>
       <c r="K132" s="1"/>
@@ -14025,11 +14088,11 @@
         <v>381</v>
       </c>
       <c r="C133" s="49" t="str">
-        <f>VLOOKUP(B133,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B133,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Number of post-secondary non-tertiary education (ISCED 4) enrolments in private institutions by sex</v>
       </c>
       <c r="D133" s="25" t="str">
-        <f>VLOOKUP(B133,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B133,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_STU_L4_PRV</v>
       </c>
       <c r="E133" s="1">
@@ -14046,7 +14109,7 @@
         <v>457</v>
       </c>
       <c r="I133" s="25" t="str">
-        <f>VLOOKUP(H133,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H133,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_STU_L4_PRV</v>
       </c>
       <c r="K133" s="1"/>
@@ -14059,11 +14122,11 @@
         <v>384</v>
       </c>
       <c r="C134" s="49" t="str">
-        <f>VLOOKUP(B134,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B134,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Percentage of private enrolments in post-secondary non-tertiary education (ISCED 4) (%)</v>
       </c>
       <c r="D134" s="25" t="str">
-        <f>VLOOKUP(B134,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B134,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_PRP_L4</v>
       </c>
       <c r="E134" s="1">
@@ -14080,7 +14143,7 @@
         <v>460</v>
       </c>
       <c r="I134" s="25" t="str">
-        <f>VLOOKUP(H134,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H134,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_PRP_L4</v>
       </c>
       <c r="K134" s="1"/>
@@ -14093,11 +14156,11 @@
         <v>387</v>
       </c>
       <c r="C135" s="49" t="str">
-        <f>VLOOKUP(B135,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B135,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Percentage of female enrolments in post-secondary non-tertiary education (ISCED 4) (%)</v>
       </c>
       <c r="D135" s="25" t="str">
-        <f>VLOOKUP(B135,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B135,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_FEP_L4</v>
       </c>
       <c r="E135" s="1">
@@ -14114,7 +14177,7 @@
         <v>463</v>
       </c>
       <c r="I135" s="25" t="str">
-        <f>VLOOKUP(H135,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H135,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_FEP_L4</v>
       </c>
       <c r="K135" s="1"/>
@@ -14127,11 +14190,11 @@
         <v>1212</v>
       </c>
       <c r="C136" s="49" t="str">
-        <f>VLOOKUP(B136,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B136,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Number of tertiary education (ISCED 5) enrolments by sex</v>
       </c>
       <c r="D136" s="25" t="str">
-        <f>VLOOKUP(B136,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B136,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_STU_L5T8_TOT</v>
       </c>
       <c r="E136" s="1">
@@ -14148,7 +14211,7 @@
         <v>466</v>
       </c>
       <c r="I136" s="25" t="str">
-        <f>VLOOKUP(H136,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H136,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_STU_L5T8_TOT</v>
       </c>
       <c r="K136" s="1"/>
@@ -14161,11 +14224,11 @@
         <v>390</v>
       </c>
       <c r="C137" s="49" t="str">
-        <f>VLOOKUP(B137,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B137,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Number of tertiary education (ISCED 5) enrolments in public institutions by sex</v>
       </c>
       <c r="D137" s="25" t="str">
-        <f>VLOOKUP(B137,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B137,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_STU_L5T8_PUB</v>
       </c>
       <c r="E137" s="1">
@@ -14182,7 +14245,7 @@
         <v>469</v>
       </c>
       <c r="I137" s="25" t="str">
-        <f>VLOOKUP(H137,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H137,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_STU_L5T8_PUB</v>
       </c>
       <c r="K137" s="1"/>
@@ -14195,11 +14258,11 @@
         <v>393</v>
       </c>
       <c r="C138" s="49" t="str">
-        <f>VLOOKUP(B138,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B138,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Number of tertiary education (ISCED 5) enrolments in private institutions by sex</v>
       </c>
       <c r="D138" s="25" t="str">
-        <f>VLOOKUP(B138,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B138,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_STU_L5T8_PRV</v>
       </c>
       <c r="E138" s="1">
@@ -14216,7 +14279,7 @@
         <v>472</v>
       </c>
       <c r="I138" s="25" t="str">
-        <f>VLOOKUP(H138,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H138,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_STU_L5T8_PRV</v>
       </c>
       <c r="K138" s="1"/>
@@ -14229,11 +14292,11 @@
         <v>396</v>
       </c>
       <c r="C139" s="49" t="str">
-        <f>VLOOKUP(B139,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B139,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Percentage of private enrolments in tertiary education (ISCED 5) (%)</v>
       </c>
       <c r="D139" s="25" t="str">
-        <f>VLOOKUP(B139,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B139,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_PRP_L5T8</v>
       </c>
       <c r="E139" s="1">
@@ -14250,7 +14313,7 @@
         <v>475</v>
       </c>
       <c r="I139" s="25" t="str">
-        <f>VLOOKUP(H139,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H139,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_PRP_L5T8</v>
       </c>
       <c r="K139" s="1"/>
@@ -14263,11 +14326,11 @@
         <v>399</v>
       </c>
       <c r="C140" s="49" t="str">
-        <f>VLOOKUP(B140,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B140,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Percentage of female enrolments in tertiary education (ISCED 5) (%)</v>
       </c>
       <c r="D140" s="25" t="str">
-        <f>VLOOKUP(B140,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B140,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_FEP_L5T8</v>
       </c>
       <c r="E140" s="1">
@@ -14284,7 +14347,7 @@
         <v>478</v>
       </c>
       <c r="I140" s="25" t="str">
-        <f>VLOOKUP(H140,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H140,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_FEP_L5T8</v>
       </c>
       <c r="K140" s="1"/>
@@ -14297,11 +14360,11 @@
         <v>1213</v>
       </c>
       <c r="C141" s="49" t="str">
-        <f>VLOOKUP(B141,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B141,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Gross enrolment ratio, pre-primary, Gender Parity Index (GPI)</v>
       </c>
       <c r="D141" s="25" t="str">
-        <f>VLOOKUP(B141,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B141,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_GER_GPI_L02</v>
       </c>
       <c r="E141" s="1">
@@ -14318,7 +14381,7 @@
         <v>481</v>
       </c>
       <c r="I141" s="25" t="str">
-        <f>VLOOKUP(H141,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H141,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_GER_GPI_L02</v>
       </c>
       <c r="K141" s="1"/>
@@ -14331,11 +14394,11 @@
         <v>1215</v>
       </c>
       <c r="C142" s="49" t="str">
-        <f>VLOOKUP(B142,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B142,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Gross enrolment ratio, primary, Gender Parity Index (GPI)</v>
       </c>
       <c r="D142" s="25" t="str">
-        <f>VLOOKUP(B142,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B142,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_GER_GPI_L1</v>
       </c>
       <c r="E142" s="1">
@@ -14352,7 +14415,7 @@
         <v>484</v>
       </c>
       <c r="I142" s="25" t="str">
-        <f>VLOOKUP(H142,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H142,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_GER_GPI_L1</v>
       </c>
       <c r="K142" s="1"/>
@@ -14365,11 +14428,11 @@
         <v>1216</v>
       </c>
       <c r="C143" s="49" t="str">
-        <f>VLOOKUP(B143,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B143,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Gross enrolment ratio, lower secondary, Gender Parity Index (GPI)</v>
       </c>
       <c r="D143" s="25" t="str">
-        <f>VLOOKUP(B143,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B143,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_GER_GPI_L2</v>
       </c>
       <c r="E143" s="1">
@@ -14386,7 +14449,7 @@
         <v>487</v>
       </c>
       <c r="I143" s="25" t="str">
-        <f>VLOOKUP(H143,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H143,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_GER_GPI_L2</v>
       </c>
       <c r="K143" s="1"/>
@@ -14399,11 +14462,11 @@
         <v>1218</v>
       </c>
       <c r="C144" s="49" t="str">
-        <f>VLOOKUP(B144,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B144,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Gross enrolment ratio, upper secondary, Gender Parity Index (GPI)</v>
       </c>
       <c r="D144" s="25" t="str">
-        <f>VLOOKUP(B144,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B144,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_GER_GPI_L3</v>
       </c>
       <c r="E144" s="1">
@@ -14420,7 +14483,7 @@
         <v>490</v>
       </c>
       <c r="I144" s="25" t="str">
-        <f>VLOOKUP(H144,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H144,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_GER_GPI_L3</v>
       </c>
       <c r="K144" s="1"/>
@@ -14433,11 +14496,11 @@
         <v>1220</v>
       </c>
       <c r="C145" s="49" t="str">
-        <f>VLOOKUP(B145,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B145,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Gross enrolment ratio, secondary, Gender Parity Index (GPI)</v>
       </c>
       <c r="D145" s="25" t="str">
-        <f>VLOOKUP(B145,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B145,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_GER_GPI_L2AND3</v>
       </c>
       <c r="E145" s="1">
@@ -14454,7 +14517,7 @@
         <v>493</v>
       </c>
       <c r="I145" s="25" t="str">
-        <f>VLOOKUP(H145,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H145,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_GER_GPI_L2AND3</v>
       </c>
       <c r="K145" s="1"/>
@@ -14467,11 +14530,11 @@
         <v>417</v>
       </c>
       <c r="C146" s="49" t="str">
-        <f>VLOOKUP(B146,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B146,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Government expenditure on education as a percentage of GDP (%)</v>
       </c>
       <c r="D146" s="25" t="str">
-        <f>VLOOKUP(B146,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B146,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_FIN_EXP_PT_GDP</v>
       </c>
       <c r="E146" s="1">
@@ -14488,7 +14551,7 @@
         <v>496</v>
       </c>
       <c r="I146" s="25" t="str">
-        <f>VLOOKUP(H146,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H146,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDU_FIN_EXP_PT_GDP</v>
       </c>
       <c r="K146" s="1"/>
@@ -14501,11 +14564,11 @@
         <v>420</v>
       </c>
       <c r="C147" s="49" t="str">
-        <f>VLOOKUP(B147,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B147,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Expenditure on education as a percentage of total government expenditure (%)</v>
       </c>
       <c r="D147" s="25" t="str">
-        <f>VLOOKUP(B147,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B147,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_FIN_EXP_PT_TOT</v>
       </c>
       <c r="E147" s="1">
@@ -14522,7 +14585,7 @@
         <v>499</v>
       </c>
       <c r="I147" s="25" t="str">
-        <f>VLOOKUP(H147,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H147,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDU_FIN_EXP_PT_TOT</v>
       </c>
       <c r="K147" s="1"/>
@@ -14535,11 +14598,11 @@
         <v>423</v>
       </c>
       <c r="C148" s="49" t="str">
-        <f>VLOOKUP(B148,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B148,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Government expenditure on education, in constant PPP ($ millions)</v>
       </c>
       <c r="D148" s="25" t="str">
-        <f>VLOOKUP(B148,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B148,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_FIN_EXP_CONST_PPP</v>
       </c>
       <c r="E148" s="1">
@@ -14556,7 +14619,7 @@
         <v>502</v>
       </c>
       <c r="I148" s="25" t="str">
-        <f>VLOOKUP(H148,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H148,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDU_FIN_EXP_CONST_PPP</v>
       </c>
       <c r="K148" s="1"/>
@@ -14569,11 +14632,11 @@
         <v>426</v>
       </c>
       <c r="C149" s="49" t="str">
-        <f>VLOOKUP(B149,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B149,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Expenditure on pre-primary as a percentage of government expenditure on education (%)</v>
       </c>
       <c r="D149" s="25" t="str">
-        <f>VLOOKUP(B149,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B149,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_FIN_EXP_L02</v>
       </c>
       <c r="E149" s="1">
@@ -14590,7 +14653,7 @@
         <v>505</v>
       </c>
       <c r="I149" s="25" t="str">
-        <f>VLOOKUP(H149,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H149,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDU_FIN_EXP_L02</v>
       </c>
       <c r="K149" s="1"/>
@@ -14603,11 +14666,11 @@
         <v>429</v>
       </c>
       <c r="C150" s="49" t="str">
-        <f>VLOOKUP(B150,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B150,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Expenditure on primary as a percentage of government expenditure on education (%)</v>
       </c>
       <c r="D150" s="25" t="str">
-        <f>VLOOKUP(B150,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B150,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_FIN_EXP_L1</v>
       </c>
       <c r="E150" s="1">
@@ -14624,7 +14687,7 @@
         <v>508</v>
       </c>
       <c r="I150" s="25" t="str">
-        <f>VLOOKUP(H150,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H150,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDU_FIN_EXP_L1</v>
       </c>
       <c r="K150" s="1"/>
@@ -14637,11 +14700,11 @@
         <v>432</v>
       </c>
       <c r="C151" s="49" t="str">
-        <f>VLOOKUP(B151,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B151,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Expenditure on lower secondary as a percentage of government expenditure on education (%)</v>
       </c>
       <c r="D151" s="25" t="str">
-        <f>VLOOKUP(B151,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B151,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_FIN_EXP_L2</v>
       </c>
       <c r="E151" s="1">
@@ -14658,7 +14721,7 @@
         <v>511</v>
       </c>
       <c r="I151" s="25" t="str">
-        <f>VLOOKUP(H151,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H151,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDU_FIN_EXP_L2</v>
       </c>
       <c r="K151" s="1"/>
@@ -14671,11 +14734,11 @@
         <v>435</v>
       </c>
       <c r="C152" s="49" t="str">
-        <f>VLOOKUP(B152,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B152,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Expenditure on upper secondary as a percentage of government expenditure on education (%)</v>
       </c>
       <c r="D152" s="25" t="str">
-        <f>VLOOKUP(B152,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B152,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_FIN_EXP_L3</v>
       </c>
       <c r="E152" s="1">
@@ -14692,7 +14755,7 @@
         <v>514</v>
       </c>
       <c r="I152" s="25" t="str">
-        <f>VLOOKUP(H152,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H152,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDU_FIN_EXP_L3</v>
       </c>
       <c r="K152" s="1"/>
@@ -14705,11 +14768,11 @@
         <v>1231</v>
       </c>
       <c r="C153" s="49" t="str">
-        <f>VLOOKUP(B153,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B153,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Expenditure on post-secondary non-tertiary as a percentage of government expenditure on education (%)</v>
       </c>
       <c r="D153" s="25" t="str">
-        <f>VLOOKUP(B153,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B153,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_FIN_EXP_L4</v>
       </c>
       <c r="E153" s="1">
@@ -14726,7 +14789,7 @@
         <v>518</v>
       </c>
       <c r="I153" s="25" t="str">
-        <f>VLOOKUP(H153,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H153,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDU_FIN_EXP_L4</v>
       </c>
       <c r="K153" s="1"/>
@@ -14739,11 +14802,11 @@
         <v>1232</v>
       </c>
       <c r="C154" s="49" t="str">
-        <f>VLOOKUP(B154,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B154,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Expenditure on tertiary as a percentage of government expenditure on education (%)</v>
       </c>
       <c r="D154" s="25" t="str">
-        <f>VLOOKUP(B154,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B154,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_FIN_EXP_L5T8</v>
       </c>
       <c r="E154" s="1">
@@ -14760,7 +14823,7 @@
         <v>521</v>
       </c>
       <c r="I154" s="25" t="str">
-        <f>VLOOKUP(H154,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H154,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDU_FIN_EXP_L5T8</v>
       </c>
       <c r="K154" s="1"/>
@@ -14773,11 +14836,11 @@
         <v>1233</v>
       </c>
       <c r="C155" s="49" t="str">
-        <f>VLOOKUP(B155,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B155,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Proportion of schools with access to adapted infrastructure and materials for students with disabilities - Primary (%)</v>
       </c>
       <c r="D155" s="25" t="str">
-        <f>VLOOKUP(B155,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B155,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_SDG_SCH_L1</v>
       </c>
       <c r="E155" s="1">
@@ -14794,7 +14857,7 @@
         <v>524</v>
       </c>
       <c r="I155" s="25" t="str">
-        <f>VLOOKUP(H155,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H155,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDU_SDG_SCH_L1</v>
       </c>
       <c r="K155" s="1"/>
@@ -14807,11 +14870,11 @@
         <v>438</v>
       </c>
       <c r="C156" s="49" t="str">
-        <f>VLOOKUP(B156,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B156,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Proportion of schools with access to adapted infrastructure and materials for students with disabilities - Lower secondary (%)</v>
       </c>
       <c r="D156" s="25" t="str">
-        <f>VLOOKUP(B156,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B156,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_SDG_SCH_L2</v>
       </c>
       <c r="E156" s="1">
@@ -14828,7 +14891,7 @@
         <v>2056</v>
       </c>
       <c r="I156" s="25" t="str">
-        <f>VLOOKUP(H156,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H156,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDU_SDG_SCH_L2</v>
       </c>
       <c r="K156" s="1"/>
@@ -14841,11 +14904,11 @@
         <v>441</v>
       </c>
       <c r="C157" s="49" t="str">
-        <f>VLOOKUP(B157,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B157,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Proportion of schools with access to adapted infrastructure and materials for students with disabilities - Upper secondary (%)</v>
       </c>
       <c r="D157" s="25" t="str">
-        <f>VLOOKUP(B157,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B157,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_SDG_SCH_L3</v>
       </c>
       <c r="E157" s="1">
@@ -14862,7 +14925,7 @@
         <v>2057</v>
       </c>
       <c r="I157" s="25" t="str">
-        <f>VLOOKUP(H157,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H157,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDU_SDG_SCH_L3</v>
       </c>
       <c r="K157" s="1"/>
@@ -14875,11 +14938,11 @@
         <v>444</v>
       </c>
       <c r="C158" s="49" t="str">
-        <f>VLOOKUP(B158,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B158,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Proportion of total schools with basic hygiene services (%, by residence)</v>
       </c>
       <c r="D158" s="25" t="str">
-        <f>VLOOKUP(B158,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B158,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>WS_SCH_H-B</v>
       </c>
       <c r="E158" s="1">
@@ -14896,7 +14959,7 @@
         <v>2058</v>
       </c>
       <c r="I158" s="25" t="str">
-        <f>VLOOKUP(H158,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H158,Source!$A$2:$G$237,3,FALSE)</f>
         <v>Helix: WS_SCH_H-B</v>
       </c>
       <c r="K158" s="1"/>
@@ -14909,11 +14972,11 @@
         <v>447</v>
       </c>
       <c r="C159" s="49" t="str">
-        <f>VLOOKUP(B159,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B159,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Proportion of total schools with basic sanitation services (%, by residence)</v>
       </c>
       <c r="D159" s="25" t="str">
-        <f>VLOOKUP(B159,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B159,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>WS_SCH_S-B</v>
       </c>
       <c r="E159" s="1">
@@ -14930,7 +14993,7 @@
         <v>2069</v>
       </c>
       <c r="I159" s="25" t="str">
-        <f>VLOOKUP(H159,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H159,Source!$A$2:$G$237,3,FALSE)</f>
         <v>Helix: WS_SCH_S-B</v>
       </c>
       <c r="K159" s="1"/>
@@ -14943,11 +15006,11 @@
         <v>450</v>
       </c>
       <c r="C160" s="49" t="str">
-        <f>VLOOKUP(B160,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B160,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Proportion of total schools with basic drinking water services (%, by residence)</v>
       </c>
       <c r="D160" s="25" t="str">
-        <f>VLOOKUP(B160,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B160,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>WS_SCH_W-B</v>
       </c>
       <c r="E160" s="1">
@@ -14964,7 +15027,7 @@
         <v>2070</v>
       </c>
       <c r="I160" s="25" t="str">
-        <f>VLOOKUP(H160,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H160,Source!$A$2:$G$237,3,FALSE)</f>
         <v>Helix: WS_SCH_W-B</v>
       </c>
       <c r="K160" s="1"/>
@@ -14977,11 +15040,11 @@
         <v>453</v>
       </c>
       <c r="C161" s="49" t="str">
-        <f>VLOOKUP(B161,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B161,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Total number of Classroom teachers in primary education (ISCED 1) by sex</v>
       </c>
       <c r="D161" s="25" t="str">
-        <f>VLOOKUP(B161,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B161,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_TEACH_L1</v>
       </c>
       <c r="E161" s="1">
@@ -14998,7 +15061,7 @@
         <v>2076</v>
       </c>
       <c r="I161" s="25" t="str">
-        <f>VLOOKUP(H161,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H161,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_TEACH_L1</v>
       </c>
       <c r="K161" s="1"/>
@@ -15011,11 +15074,11 @@
         <v>456</v>
       </c>
       <c r="C162" s="49" t="str">
-        <f>VLOOKUP(B162,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B162,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Total number of Classroom teachers in lower secondary education (ISCED 2) by sex</v>
       </c>
       <c r="D162" s="25" t="str">
-        <f>VLOOKUP(B162,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B162,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_TEACH_L2</v>
       </c>
       <c r="E162" s="1">
@@ -15032,7 +15095,7 @@
         <v>2077</v>
       </c>
       <c r="I162" s="25" t="str">
-        <f>VLOOKUP(H162,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H162,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_TEACH_L2</v>
       </c>
       <c r="K162" s="1"/>
@@ -15045,11 +15108,11 @@
         <v>459</v>
       </c>
       <c r="C163" s="49" t="str">
-        <f>VLOOKUP(B163,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B163,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Total number of Classroom teachers in upper secondary education (ISCED 3) by sex</v>
       </c>
       <c r="D163" s="25" t="str">
-        <f>VLOOKUP(B163,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B163,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_TEACH_L3</v>
       </c>
       <c r="E163" s="1">
@@ -15066,7 +15129,7 @@
         <v>2100</v>
       </c>
       <c r="I163" s="25" t="str">
-        <f>VLOOKUP(H163,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H163,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_TEACH_L3</v>
       </c>
       <c r="K163" s="1"/>
@@ -15079,11 +15142,11 @@
         <v>462</v>
       </c>
       <c r="C164" s="49" t="str">
-        <f>VLOOKUP(B164,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B164,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Pupil-teacher ratio in primary education (ISCED1) (headcount basis)</v>
       </c>
       <c r="D164" s="25" t="str">
-        <f>VLOOKUP(B164,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B164,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_PTR_L1</v>
       </c>
       <c r="E164" s="1">
@@ -15100,7 +15163,7 @@
         <v>2101</v>
       </c>
       <c r="I164" s="25" t="str">
-        <f>VLOOKUP(H164,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H164,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_PTR_L1</v>
       </c>
       <c r="K164" s="1"/>
@@ -15113,11 +15176,11 @@
         <v>465</v>
       </c>
       <c r="C165" s="49" t="str">
-        <f>VLOOKUP(B165,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B165,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Pupil-teacher ratio in lower secondary education (ISCED 2) (headcount basis)</v>
       </c>
       <c r="D165" s="25" t="str">
-        <f>VLOOKUP(B165,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B165,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_PTR_L2</v>
       </c>
       <c r="E165" s="1">
@@ -15134,7 +15197,7 @@
         <v>2102</v>
       </c>
       <c r="I165" s="25" t="str">
-        <f>VLOOKUP(H165,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H165,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_PTR_L2</v>
       </c>
       <c r="K165" s="1"/>
@@ -15147,11 +15210,11 @@
         <v>468</v>
       </c>
       <c r="C166" s="49" t="str">
-        <f>VLOOKUP(B166,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B166,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Pupil-teacher ratio in secondary education (ISCED 2 and 3) (headcount basis)</v>
       </c>
       <c r="D166" s="25" t="str">
-        <f>VLOOKUP(B166,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B166,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_PTR_L2AND3</v>
       </c>
       <c r="E166" s="1">
@@ -15168,7 +15231,7 @@
         <v>2103</v>
       </c>
       <c r="I166" s="25" t="str">
-        <f>VLOOKUP(H166,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H166,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_PTR_L2AND3</v>
       </c>
       <c r="K166" s="1"/>
@@ -15181,11 +15244,11 @@
         <v>471</v>
       </c>
       <c r="C167" s="49" t="str">
-        <f>VLOOKUP(B167,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B167,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Pupil-teacher ratio in upper secondary education (ISCED 3) (headcount basis)</v>
       </c>
       <c r="D167" s="25" t="str">
-        <f>VLOOKUP(B167,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B167,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_PTR_L3</v>
       </c>
       <c r="E167" s="1">
@@ -15202,7 +15265,7 @@
         <v>2104</v>
       </c>
       <c r="I167" s="25" t="str">
-        <f>VLOOKUP(H167,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H167,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_PTR_L3</v>
       </c>
       <c r="K167" s="1"/>
@@ -15215,11 +15278,11 @@
         <v>474</v>
       </c>
       <c r="C168" s="49" t="str">
-        <f>VLOOKUP(B168,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B168,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Percentage of trained teachers in pre-primary education by sex (%)</v>
       </c>
       <c r="D168" s="25" t="str">
-        <f>VLOOKUP(B168,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B168,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_SDG_TRTP_L02</v>
       </c>
       <c r="E168" s="1">
@@ -15236,7 +15299,7 @@
         <v>2105</v>
       </c>
       <c r="I168" s="25" t="str">
-        <f>VLOOKUP(H168,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H168,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDU_SDG_TRTP_L02</v>
       </c>
       <c r="K168" s="1"/>
@@ -15249,11 +15312,11 @@
         <v>477</v>
       </c>
       <c r="C169" s="49" t="str">
-        <f>VLOOKUP(B169,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B169,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Percentage of trained teachers in primary education by sex (%)</v>
       </c>
       <c r="D169" s="25" t="str">
-        <f>VLOOKUP(B169,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B169,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_SDG_TRTP_L1</v>
       </c>
       <c r="E169" s="1">
@@ -15270,7 +15333,7 @@
         <v>2106</v>
       </c>
       <c r="I169" s="25" t="str">
-        <f>VLOOKUP(H169,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H169,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDU_SDG_TRTP_L1</v>
       </c>
       <c r="K169" s="1"/>
@@ -15283,11 +15346,11 @@
         <v>480</v>
       </c>
       <c r="C170" s="49" t="str">
-        <f>VLOOKUP(B170,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B170,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Percentage of trained teachers in lower secondary education by sex (%)</v>
       </c>
       <c r="D170" s="25" t="str">
-        <f>VLOOKUP(B170,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B170,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_SDG_TRTP_L2</v>
       </c>
       <c r="E170" s="1">
@@ -15304,7 +15367,7 @@
         <v>2107</v>
       </c>
       <c r="I170" s="25" t="str">
-        <f>VLOOKUP(H170,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H170,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDU_SDG_TRTP_L2</v>
       </c>
       <c r="K170" s="1"/>
@@ -15317,11 +15380,11 @@
         <v>483</v>
       </c>
       <c r="C171" s="49" t="str">
-        <f>VLOOKUP(B171,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B171,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Percentage of trained teachers in upper secondary education by sex (%)</v>
       </c>
       <c r="D171" s="25" t="str">
-        <f>VLOOKUP(B171,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B171,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_SDG_TRTP_L3</v>
       </c>
       <c r="E171" s="1">
@@ -15338,7 +15401,7 @@
         <v>2108</v>
       </c>
       <c r="I171" s="25" t="str">
-        <f>VLOOKUP(H171,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H171,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDU_SDG_TRTP_L3</v>
       </c>
       <c r="K171" s="1"/>
@@ -15351,11 +15414,11 @@
         <v>486</v>
       </c>
       <c r="C172" s="49" t="str">
-        <f>VLOOKUP(B172,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B172,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Pupil-trained teacher ratio in pre-primary education (headcount basis)</v>
       </c>
       <c r="D172" s="25" t="str">
-        <f>VLOOKUP(B172,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B172,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_SDG_PTTR_L02</v>
       </c>
       <c r="E172" s="1">
@@ -15372,7 +15435,7 @@
         <v>2109</v>
       </c>
       <c r="I172" s="25" t="str">
-        <f>VLOOKUP(H172,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H172,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDU_SDG_PTTR_L02</v>
       </c>
       <c r="K172" s="1"/>
@@ -15385,11 +15448,11 @@
         <v>489</v>
       </c>
       <c r="C173" s="49" t="str">
-        <f>VLOOKUP(B173,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B173,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Pupil-trained teacher ratio in primary education (headcount basis)</v>
       </c>
       <c r="D173" s="25" t="str">
-        <f>VLOOKUP(B173,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B173,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_SDG_PTTR_L1</v>
       </c>
       <c r="E173" s="1">
@@ -15406,7 +15469,7 @@
         <v>2110</v>
       </c>
       <c r="I173" s="25" t="str">
-        <f>VLOOKUP(H173,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H173,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDU_SDG_PTTR_L1</v>
       </c>
       <c r="K173" s="1"/>
@@ -15419,11 +15482,11 @@
         <v>492</v>
       </c>
       <c r="C174" s="49" t="str">
-        <f>VLOOKUP(B174,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B174,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Pupil-trained teacher ratio in lower secondary education (headcount basis)</v>
       </c>
       <c r="D174" s="25" t="str">
-        <f>VLOOKUP(B174,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B174,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_SDG_PTTR_L2</v>
       </c>
       <c r="E174" s="1">
@@ -15440,7 +15503,7 @@
         <v>2111</v>
       </c>
       <c r="I174" s="25" t="str">
-        <f>VLOOKUP(H174,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H174,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDU_SDG_PTTR_L2</v>
       </c>
       <c r="K174" s="1"/>
@@ -15453,11 +15516,11 @@
         <v>495</v>
       </c>
       <c r="C175" s="49" t="str">
-        <f>VLOOKUP(B175,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B175,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Pupil-trained teacher ratio in upper secondary education (headcount basis)</v>
       </c>
       <c r="D175" s="25" t="str">
-        <f>VLOOKUP(B175,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B175,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_SDG_PTTR_L3</v>
       </c>
       <c r="E175" s="1">
@@ -15474,7 +15537,7 @@
         <v>2112</v>
       </c>
       <c r="I175" s="25" t="str">
-        <f>VLOOKUP(H175,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H175,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDU_SDG_PTTR_L3</v>
       </c>
       <c r="K175" s="1"/>
@@ -15487,11 +15550,11 @@
         <v>498</v>
       </c>
       <c r="C176" s="49" t="str">
-        <f>VLOOKUP(B176,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B176,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Proportion of teachers by sex qualified according to national standards in pre-primary education (%)</v>
       </c>
       <c r="D176" s="25" t="str">
-        <f>VLOOKUP(B176,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B176,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_SDG_QUTP_L02</v>
       </c>
       <c r="E176" s="1">
@@ -15508,7 +15571,7 @@
         <v>2113</v>
       </c>
       <c r="I176" s="25" t="str">
-        <f>VLOOKUP(H176,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H176,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDU_SDG_QUTP_L02</v>
       </c>
       <c r="K176" s="1"/>
@@ -15521,11 +15584,11 @@
         <v>501</v>
       </c>
       <c r="C177" s="49" t="str">
-        <f>VLOOKUP(B177,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B177,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Proportion of teachers by sex qualified according to national standards in primary education (%)</v>
       </c>
       <c r="D177" s="25" t="str">
-        <f>VLOOKUP(B177,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B177,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_SDG_QUTP_L1</v>
       </c>
       <c r="E177" s="1">
@@ -15542,7 +15605,7 @@
         <v>2114</v>
       </c>
       <c r="I177" s="25" t="str">
-        <f>VLOOKUP(H177,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H177,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDU_SDG_QUTP_L1</v>
       </c>
       <c r="K177" s="1"/>
@@ -15555,11 +15618,11 @@
         <v>504</v>
       </c>
       <c r="C178" s="49" t="str">
-        <f>VLOOKUP(B178,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B178,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Proportion of teachers by sex qualified according to national standards in lower secondary education (%)</v>
       </c>
       <c r="D178" s="25" t="str">
-        <f>VLOOKUP(B178,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B178,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_SDG_QUTP_L2</v>
       </c>
       <c r="E178" s="1">
@@ -15576,7 +15639,7 @@
         <v>2115</v>
       </c>
       <c r="I178" s="25" t="str">
-        <f>VLOOKUP(H178,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H178,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDU_SDG_QUTP_L2</v>
       </c>
       <c r="K178" s="1"/>
@@ -15589,11 +15652,11 @@
         <v>1256</v>
       </c>
       <c r="C179" s="49" t="str">
-        <f>VLOOKUP(B179,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B179,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Proportion of teachers by sex qualified according to national standards in upper secondary education (%)</v>
       </c>
       <c r="D179" s="25" t="str">
-        <f>VLOOKUP(B179,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B179,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_SDG_QUTP_L3</v>
       </c>
       <c r="E179" s="1">
@@ -15610,7 +15673,7 @@
         <v>2116</v>
       </c>
       <c r="I179" s="25" t="str">
-        <f>VLOOKUP(H179,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H179,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDU_SDG_QUTP_L3</v>
       </c>
       <c r="K179" s="1"/>
@@ -15623,11 +15686,11 @@
         <v>1257</v>
       </c>
       <c r="C180" s="49" t="str">
-        <f>VLOOKUP(B180,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B180,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Pupil-qualified teacher ratio in pre-primary education (headcount basis)</v>
       </c>
       <c r="D180" s="25" t="str">
-        <f>VLOOKUP(B180,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B180,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_SDG_PQTR_L02</v>
       </c>
       <c r="E180" s="1">
@@ -15644,7 +15707,7 @@
         <v>2117</v>
       </c>
       <c r="I180" s="25" t="str">
-        <f>VLOOKUP(H180,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H180,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDU_SDG_PQTR_L02</v>
       </c>
       <c r="K180" s="1"/>
@@ -15657,11 +15720,11 @@
         <v>1258</v>
       </c>
       <c r="C181" s="49" t="str">
-        <f>VLOOKUP(B181,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B181,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Pupil-qualified teacher ratio in primary education (headcount basis)</v>
       </c>
       <c r="D181" s="25" t="str">
-        <f>VLOOKUP(B181,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B181,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_SDG_PQTR_L1</v>
       </c>
       <c r="E181" s="1">
@@ -15678,7 +15741,7 @@
         <v>2118</v>
       </c>
       <c r="I181" s="25" t="str">
-        <f>VLOOKUP(H181,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H181,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDU_SDG_PQTR_L1</v>
       </c>
       <c r="K181" s="1"/>
@@ -15691,11 +15754,11 @@
         <v>1260</v>
       </c>
       <c r="C182" s="49" t="str">
-        <f>VLOOKUP(B182,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B182,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Pupil-qualified teacher ratio in lower secondary education (headcount basis)</v>
       </c>
       <c r="D182" s="25" t="str">
-        <f>VLOOKUP(B182,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B182,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_SDG_PQTR_L2</v>
       </c>
       <c r="E182" s="1">
@@ -15712,7 +15775,7 @@
         <v>2119</v>
       </c>
       <c r="I182" s="25" t="str">
-        <f>VLOOKUP(H182,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H182,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDU_SDG_PQTR_L2</v>
       </c>
       <c r="K182" s="1"/>
@@ -15725,11 +15788,11 @@
         <v>1262</v>
       </c>
       <c r="C183" s="49" t="str">
-        <f>VLOOKUP(B183,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B183,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Pupil-qualified teacher ratio in upper secondary education (headcount basis)</v>
       </c>
       <c r="D183" s="25" t="str">
-        <f>VLOOKUP(B183,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B183,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_SDG_PQTR_L3</v>
       </c>
       <c r="E183" s="1">
@@ -15746,7 +15809,7 @@
         <v>2120</v>
       </c>
       <c r="I183" s="25" t="str">
-        <f>VLOOKUP(H183,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H183,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDU_SDG_PQTR_L3</v>
       </c>
       <c r="K183" s="1"/>
@@ -15759,11 +15822,11 @@
         <v>1264</v>
       </c>
       <c r="C184" s="49" t="str">
-        <f>VLOOKUP(B184,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B184,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Percentage of children (by sex, age groups, residence and wealth quintile) who have 3 or more children's books at home</v>
       </c>
       <c r="D184" s="25" t="str">
-        <f>VLOOKUP(B184,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B184,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>ECD_CHLD_U5_BKS-HM</v>
       </c>
       <c r="E184" s="1">
@@ -15780,7 +15843,7 @@
         <v>2146</v>
       </c>
       <c r="I184" s="25" t="str">
-        <f>VLOOKUP(H184,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H184,Source!$A$2:$G$237,3,FALSE)</f>
         <v>Helix: ECD_CHLD_U5_BKS-HM</v>
       </c>
       <c r="K184" s="1"/>
@@ -15793,11 +15856,11 @@
         <v>1266</v>
       </c>
       <c r="C185" s="49" t="str">
-        <f>VLOOKUP(B185,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B185,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Percentage of children under age 5 (by sex, residence and wealth quintile) who play with 2 or more types of playthings at home</v>
       </c>
       <c r="D185" s="25" t="str">
-        <f>VLOOKUP(B185,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B185,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>ECD_CHLD_U5_PLYTH-HM</v>
       </c>
       <c r="E185" s="1">
@@ -15814,7 +15877,7 @@
         <v>2148</v>
       </c>
       <c r="I185" s="25" t="str">
-        <f>VLOOKUP(H185,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H185,Source!$A$2:$G$237,3,FALSE)</f>
         <v>Helix: ECD_CHLD_U5_PLYTH-HM</v>
       </c>
       <c r="K185" s="1"/>
@@ -15827,11 +15890,11 @@
         <v>1268</v>
       </c>
       <c r="C186" s="49" t="str">
-        <f>VLOOKUP(B186,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B186,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Educational attainment by sex: at least completed lower secondary (ISCED 2 or higher), population 25+ years (%)</v>
       </c>
       <c r="D186" s="25" t="str">
-        <f>VLOOKUP(B186,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B186,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_EA_L2T8</v>
       </c>
       <c r="E186" s="1">
@@ -15848,7 +15911,7 @@
         <v>2152</v>
       </c>
       <c r="I186" s="25" t="str">
-        <f>VLOOKUP(H186,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H186,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_EA_L2T8</v>
       </c>
       <c r="K186" s="1"/>
@@ -15861,11 +15924,11 @@
         <v>1270</v>
       </c>
       <c r="C187" s="49" t="str">
-        <f>VLOOKUP(B187,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B187,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Administration of nationally representative learning assessment in reading (Grade 2 or 3)</v>
       </c>
       <c r="D187" s="25" t="str">
-        <f>VLOOKUP(B187,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B187,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_ADMIN_L1_G2OR3_REA</v>
       </c>
       <c r="E187" s="1">
@@ -15882,7 +15945,7 @@
         <v>2155</v>
       </c>
       <c r="I187" s="25" t="str">
-        <f>VLOOKUP(H187,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H187,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_ADMIN_G2OR3_REA</v>
       </c>
       <c r="K187" s="1"/>
@@ -15895,11 +15958,11 @@
         <v>1272</v>
       </c>
       <c r="C188" s="49" t="str">
-        <f>VLOOKUP(B188,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B188,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Administration of nationally representative learning assessment in math (Grade 2 or 3)</v>
       </c>
       <c r="D188" s="25" t="str">
-        <f>VLOOKUP(B188,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B188,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_ADMIN_L1_G2OR3_MAT</v>
       </c>
       <c r="E188" s="1">
@@ -15916,7 +15979,7 @@
         <v>2564</v>
       </c>
       <c r="I188" s="25" t="str">
-        <f>VLOOKUP(H188,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H188,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_ADMIN_G2OR3_MAT</v>
       </c>
       <c r="K188" s="1"/>
@@ -15929,11 +15992,11 @@
         <v>1274</v>
       </c>
       <c r="C189" s="49" t="str">
-        <f>VLOOKUP(B189,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B189,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 2 (%) in Mathematics</v>
       </c>
       <c r="D189" s="25" t="str">
-        <f>VLOOKUP(B189,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B189,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_PISA_MAT2</v>
       </c>
       <c r="E189" s="1">
@@ -15950,7 +16013,7 @@
         <v>2565</v>
       </c>
       <c r="I189" s="25" t="str">
-        <f>VLOOKUP(H189,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H189,Source!$A$2:$G$237,3,FALSE)</f>
         <v>WB: LO.PISA.MAT.2</v>
       </c>
       <c r="K189" s="1"/>
@@ -15963,11 +16026,11 @@
         <v>1276</v>
       </c>
       <c r="C190" s="49" t="str">
-        <f>VLOOKUP(B190,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B190,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 3 (%) in Mathematics</v>
       </c>
       <c r="D190" s="25" t="str">
-        <f>VLOOKUP(B190,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B190,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_PISA_MAT3</v>
       </c>
       <c r="E190" s="1">
@@ -15984,7 +16047,7 @@
         <v>2566</v>
       </c>
       <c r="I190" s="25" t="str">
-        <f>VLOOKUP(H190,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H190,Source!$A$2:$G$237,3,FALSE)</f>
         <v>WB: LO.PISA.MAT.3</v>
       </c>
       <c r="K190" s="1"/>
@@ -15997,11 +16060,11 @@
         <v>1278</v>
       </c>
       <c r="C191" s="49" t="str">
-        <f>VLOOKUP(B191,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B191,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 4 (%) in Mathematics</v>
       </c>
       <c r="D191" s="25" t="str">
-        <f>VLOOKUP(B191,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B191,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_PISA_MAT4</v>
       </c>
       <c r="E191" s="1">
@@ -16018,7 +16081,7 @@
         <v>2567</v>
       </c>
       <c r="I191" s="25" t="str">
-        <f>VLOOKUP(H191,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H191,Source!$A$2:$G$237,3,FALSE)</f>
         <v>WB: LO.PISA.MAT.4</v>
       </c>
       <c r="K191" s="1"/>
@@ -16031,11 +16094,11 @@
         <v>1280</v>
       </c>
       <c r="C192" s="49" t="str">
-        <f>VLOOKUP(B192,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B192,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 5 (%) in Mathematics</v>
       </c>
       <c r="D192" s="25" t="str">
-        <f>VLOOKUP(B192,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B192,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_PISA_MAT5</v>
       </c>
       <c r="E192" s="1">
@@ -16052,7 +16115,7 @@
         <v>2572</v>
       </c>
       <c r="I192" s="25" t="str">
-        <f>VLOOKUP(H192,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H192,Source!$A$2:$G$237,3,FALSE)</f>
         <v>WB: LO.PISA.MAT.5</v>
       </c>
       <c r="K192" s="1"/>
@@ -16065,11 +16128,11 @@
         <v>1282</v>
       </c>
       <c r="C193" s="49" t="str">
-        <f>VLOOKUP(B193,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B193,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 6 (%) in Mathematics</v>
       </c>
       <c r="D193" s="25" t="str">
-        <f>VLOOKUP(B193,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B193,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_PISA_MAT6</v>
       </c>
       <c r="E193" s="1">
@@ -16086,7 +16149,7 @@
         <v>2573</v>
       </c>
       <c r="I193" s="25" t="str">
-        <f>VLOOKUP(H193,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H193,Source!$A$2:$G$237,3,FALSE)</f>
         <v>WB: LO.PISA.MAT.6</v>
       </c>
       <c r="K193" s="1"/>
@@ -16099,11 +16162,11 @@
         <v>1284</v>
       </c>
       <c r="C194" s="49" t="str">
-        <f>VLOOKUP(B194,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B194,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 2 (%) in Reading</v>
       </c>
       <c r="D194" s="25" t="str">
-        <f>VLOOKUP(B194,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B194,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_PISA_REA2</v>
       </c>
       <c r="E194" s="1">
@@ -16120,7 +16183,7 @@
         <v>2574</v>
       </c>
       <c r="I194" s="25" t="str">
-        <f>VLOOKUP(H194,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H194,Source!$A$2:$G$237,3,FALSE)</f>
         <v>WB: LO.PISA.REA.2</v>
       </c>
       <c r="K194" s="1"/>
@@ -16133,11 +16196,11 @@
         <v>1286</v>
       </c>
       <c r="C195" s="49" t="str">
-        <f>VLOOKUP(B195,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B195,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 3 (%) in Reading</v>
       </c>
       <c r="D195" s="25" t="str">
-        <f>VLOOKUP(B195,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B195,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_PISA_REA3</v>
       </c>
       <c r="E195" s="1">
@@ -16154,7 +16217,7 @@
         <v>2575</v>
       </c>
       <c r="I195" s="25" t="str">
-        <f>VLOOKUP(H195,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H195,Source!$A$2:$G$237,3,FALSE)</f>
         <v>WB: LO.PISA.REA.3</v>
       </c>
       <c r="K195" s="1"/>
@@ -16167,11 +16230,11 @@
         <v>1288</v>
       </c>
       <c r="C196" s="49" t="str">
-        <f>VLOOKUP(B196,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B196,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 4 (%) in Reading</v>
       </c>
       <c r="D196" s="25" t="str">
-        <f>VLOOKUP(B196,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B196,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_PISA_REA4</v>
       </c>
       <c r="E196" s="1">
@@ -16188,7 +16251,7 @@
         <v>2588</v>
       </c>
       <c r="I196" s="25" t="str">
-        <f>VLOOKUP(H196,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H196,Source!$A$2:$G$237,3,FALSE)</f>
         <v>WB: LO.PISA.REA.4</v>
       </c>
       <c r="K196" s="1"/>
@@ -16201,11 +16264,11 @@
         <v>1290</v>
       </c>
       <c r="C197" s="49" t="str">
-        <f>VLOOKUP(B197,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B197,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 5 (%) in Reading</v>
       </c>
       <c r="D197" s="25" t="str">
-        <f>VLOOKUP(B197,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B197,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_PISA_REA5</v>
       </c>
       <c r="E197" s="1">
@@ -16222,7 +16285,7 @@
         <v>2598</v>
       </c>
       <c r="I197" s="25" t="str">
-        <f>VLOOKUP(H197,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H197,Source!$A$2:$G$237,3,FALSE)</f>
         <v>WB: LO.PISA.REA.5</v>
       </c>
       <c r="K197" s="1"/>
@@ -16235,11 +16298,11 @@
         <v>1292</v>
       </c>
       <c r="C198" s="49" t="str">
-        <f>VLOOKUP(B198,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B198,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 6 (%) in Reading</v>
       </c>
       <c r="D198" s="25" t="str">
-        <f>VLOOKUP(B198,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B198,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_PISA_REA6</v>
       </c>
       <c r="E198" s="1">
@@ -16256,7 +16319,7 @@
         <v>2630</v>
       </c>
       <c r="I198" s="25" t="str">
-        <f>VLOOKUP(H198,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H198,Source!$A$2:$G$237,3,FALSE)</f>
         <v>WB: LO.PISA.REA.6</v>
       </c>
       <c r="K198" s="1"/>
@@ -16269,11 +16332,11 @@
         <v>1293</v>
       </c>
       <c r="C199" s="49" t="str">
-        <f>VLOOKUP(B199,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B199,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 2 (%) in Science</v>
       </c>
       <c r="D199" s="25" t="str">
-        <f>VLOOKUP(B199,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B199,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_PISA_SCI2</v>
       </c>
       <c r="E199" s="1">
@@ -16290,7 +16353,7 @@
         <v>2631</v>
       </c>
       <c r="I199" s="25" t="str">
-        <f>VLOOKUP(H199,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H199,Source!$A$2:$G$237,3,FALSE)</f>
         <v>WB: LO.PISA.SCI.2</v>
       </c>
       <c r="K199" s="1"/>
@@ -16303,11 +16366,11 @@
         <v>1295</v>
       </c>
       <c r="C200" s="49" t="str">
-        <f>VLOOKUP(B200,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B200,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 3 (%) in Science</v>
       </c>
       <c r="D200" s="25" t="str">
-        <f>VLOOKUP(B200,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B200,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_PISA_SCI3</v>
       </c>
       <c r="E200" s="1">
@@ -16324,7 +16387,7 @@
         <v>2662</v>
       </c>
       <c r="I200" s="25" t="str">
-        <f>VLOOKUP(H200,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H200,Source!$A$2:$G$237,3,FALSE)</f>
         <v>WB: LO.PISA.SCI.3</v>
       </c>
       <c r="K200" s="1"/>
@@ -16337,11 +16400,11 @@
         <v>1297</v>
       </c>
       <c r="C201" s="49" t="str">
-        <f>VLOOKUP(B201,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B201,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 4 (%) in Science</v>
       </c>
       <c r="D201" s="25" t="str">
-        <f>VLOOKUP(B201,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B201,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_PISA_SCI4</v>
       </c>
       <c r="E201" s="1">
@@ -16358,7 +16421,7 @@
         <v>2696</v>
       </c>
       <c r="I201" s="25" t="str">
-        <f>VLOOKUP(H201,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H201,Source!$A$2:$G$237,3,FALSE)</f>
         <v>WB: LO.PISA.SCI.4</v>
       </c>
       <c r="K201" s="1"/>
@@ -16371,11 +16434,11 @@
         <v>1299</v>
       </c>
       <c r="C202" s="49" t="str">
-        <f>VLOOKUP(B202,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B202,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 5 (%) in Science</v>
       </c>
       <c r="D202" s="25" t="str">
-        <f>VLOOKUP(B202,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B202,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_PISA_SCI5</v>
       </c>
       <c r="E202" s="1">
@@ -16392,7 +16455,7 @@
         <v>2697</v>
       </c>
       <c r="I202" s="25" t="str">
-        <f>VLOOKUP(H202,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H202,Source!$A$2:$G$237,3,FALSE)</f>
         <v>WB: LO.PISA.SCI.5</v>
       </c>
       <c r="K202" s="1"/>
@@ -16405,11 +16468,11 @@
         <v>1301</v>
       </c>
       <c r="C203" s="49" t="str">
-        <f>VLOOKUP(B203,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B203,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>PISA: 15-year-olds by sex achieving proficiency Level 6 (%) in Science</v>
       </c>
       <c r="D203" s="25" t="str">
-        <f>VLOOKUP(B203,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B203,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDU_PISA_SCI6</v>
       </c>
       <c r="E203" s="1">
@@ -16426,7 +16489,7 @@
         <v>2698</v>
       </c>
       <c r="I203" s="25" t="str">
-        <f>VLOOKUP(H203,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H203,Source!$A$2:$G$237,3,FALSE)</f>
         <v>WB: LO.PISA.SCI.6</v>
       </c>
       <c r="K203" s="1"/>
@@ -16439,11 +16502,11 @@
         <v>1303</v>
       </c>
       <c r="C204" s="49" t="str">
-        <f>VLOOKUP(B204,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B204,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Adult literacy rate, population 15+ years by sex (%)</v>
       </c>
       <c r="D204" s="25" t="str">
-        <f>VLOOKUP(B204,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B204,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_LR_ADULT</v>
       </c>
       <c r="E204" s="1">
@@ -16460,7 +16523,7 @@
         <v>2741</v>
       </c>
       <c r="I204" s="25" t="str">
-        <f>VLOOKUP(H204,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H204,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_LR_ADULT</v>
       </c>
       <c r="K204" s="1"/>
@@ -16473,11 +16536,11 @@
         <v>1305</v>
       </c>
       <c r="C205" s="49" t="str">
-        <f>VLOOKUP(B205,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B205,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Percentage of females among repeaters in secondary education (ISCED 2 and 3)</v>
       </c>
       <c r="D205" s="25" t="str">
-        <f>VLOOKUP(B205,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B205,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_FRP_L2AND3</v>
       </c>
       <c r="E205" s="1">
@@ -16494,7 +16557,7 @@
         <v>2222</v>
       </c>
       <c r="I205" s="25" t="str">
-        <f>VLOOKUP(H205,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H205,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_FRP_L2AND3</v>
       </c>
       <c r="K205" s="1"/>
@@ -16507,11 +16570,11 @@
         <v>1307</v>
       </c>
       <c r="C206" s="49" t="str">
-        <f>VLOOKUP(B206,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B206,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Number of out-of-school children one year younger than the official entry age to primary education by sex</v>
       </c>
       <c r="D206" s="25" t="str">
-        <f>VLOOKUP(B206,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B206,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_OFST_L1_UNDER1</v>
       </c>
       <c r="E206" s="1">
@@ -16528,7 +16591,7 @@
         <v>2227</v>
       </c>
       <c r="I206" s="25" t="str">
-        <f>VLOOKUP(H206,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H206,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_OFST_L1_UNDER1</v>
       </c>
       <c r="K206" s="1"/>
@@ -16541,11 +16604,11 @@
         <v>1309</v>
       </c>
       <c r="C207" s="49" t="str">
-        <f>VLOOKUP(B207,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B207,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Out-of-school rate for children one year younger than the official entry age to primary education by sex (%)</v>
       </c>
       <c r="D207" s="25" t="str">
-        <f>VLOOKUP(B207,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B207,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_ROFST_L1_UNDER1</v>
       </c>
       <c r="E207" s="1">
@@ -16562,7 +16625,7 @@
         <v>2228</v>
       </c>
       <c r="I207" s="25" t="str">
-        <f>VLOOKUP(H207,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H207,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_ROFST_L1_UNDER1</v>
       </c>
       <c r="K207" s="1"/>
@@ -16575,11 +16638,11 @@
         <v>1311</v>
       </c>
       <c r="C208" s="49" t="str">
-        <f>VLOOKUP(B208,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B208,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Gross enrolment ratio, early childhood educational development programmes, Gender Parity Index (GPI)</v>
       </c>
       <c r="D208" s="25" t="str">
-        <f>VLOOKUP(B208,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B208,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_GER_GPI_L01</v>
       </c>
       <c r="E208" s="1">
@@ -16596,7 +16659,7 @@
         <v>2234</v>
       </c>
       <c r="I208" s="25" t="str">
-        <f>VLOOKUP(H208,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H208,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_GER_GPI_L01</v>
       </c>
       <c r="K208" s="1"/>
@@ -16609,11 +16672,11 @@
         <v>1313</v>
       </c>
       <c r="C209" s="49" t="str">
-        <f>VLOOKUP(B209,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B209,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Population of the official age for pre-primary education (number of persons, by sex)</v>
       </c>
       <c r="D209" s="25" t="str">
-        <f>VLOOKUP(B209,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B209,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_SAP_L02</v>
       </c>
       <c r="E209" s="1">
@@ -16630,7 +16693,7 @@
         <v>2235</v>
       </c>
       <c r="I209" s="25" t="str">
-        <f>VLOOKUP(H209,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H209,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_SAP_L02</v>
       </c>
       <c r="K209" s="1"/>
@@ -16643,11 +16706,11 @@
         <v>1315</v>
       </c>
       <c r="C210" s="49" t="str">
-        <f>VLOOKUP(B210,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B210,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Population of the official age for primary education (number of persons, by sex)</v>
       </c>
       <c r="D210" s="25" t="str">
-        <f>VLOOKUP(B210,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B210,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_SAP_L1</v>
       </c>
       <c r="E210" s="1">
@@ -16664,7 +16727,7 @@
         <v>2236</v>
       </c>
       <c r="I210" s="25" t="str">
-        <f>VLOOKUP(H210,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H210,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_SAP_L1</v>
       </c>
       <c r="K210" s="1"/>
@@ -16677,11 +16740,11 @@
         <v>1317</v>
       </c>
       <c r="C211" s="49" t="str">
-        <f>VLOOKUP(B211,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B211,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Population of the official age for lower secondary education (number of persons, by sex)</v>
       </c>
       <c r="D211" s="25" t="str">
-        <f>VLOOKUP(B211,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B211,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_SAP_L2</v>
       </c>
       <c r="E211" s="1">
@@ -16698,7 +16761,7 @@
         <v>2237</v>
       </c>
       <c r="I211" s="25" t="str">
-        <f>VLOOKUP(H211,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H211,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_SAP_L2</v>
       </c>
       <c r="K211" s="1"/>
@@ -16711,11 +16774,11 @@
         <v>1319</v>
       </c>
       <c r="C212" s="49" t="str">
-        <f>VLOOKUP(B212,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B212,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Population of the official age for upper secondary education (number of persons, by sex)</v>
       </c>
       <c r="D212" s="25" t="str">
-        <f>VLOOKUP(B212,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B212,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_SAP_L3</v>
       </c>
       <c r="E212" s="1">
@@ -16732,7 +16795,7 @@
         <v>2238</v>
       </c>
       <c r="I212" s="25" t="str">
-        <f>VLOOKUP(H212,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H212,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_SAP_L3</v>
       </c>
       <c r="K212" s="1"/>
@@ -16745,11 +16808,11 @@
         <v>1321</v>
       </c>
       <c r="C213" s="49" t="str">
-        <f>VLOOKUP(B213,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B213,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Population of the official age for primary and secondary education - ISCED 1 to 3 included - (number of persons, by sex)</v>
       </c>
       <c r="D213" s="25" t="str">
-        <f>VLOOKUP(B213,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B213,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_SAP_L1T3</v>
       </c>
       <c r="E213" s="1">
@@ -16766,7 +16829,7 @@
         <v>2239</v>
       </c>
       <c r="I213" s="25" t="str">
-        <f>VLOOKUP(H213,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H213,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_SAP_L1T3</v>
       </c>
       <c r="K213" s="1"/>
@@ -16779,11 +16842,11 @@
         <v>1323</v>
       </c>
       <c r="C214" s="49" t="str">
-        <f>VLOOKUP(B214,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B214,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Number of out-of-school children, adolescents and youth of primary and secondary school age (persons, by sex)</v>
       </c>
       <c r="D214" s="25" t="str">
-        <f>VLOOKUP(B214,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B214,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_OFST_L1T3</v>
       </c>
       <c r="E214" s="1">
@@ -16800,7 +16863,7 @@
         <v>2240</v>
       </c>
       <c r="I214" s="25" t="str">
-        <f>VLOOKUP(H214,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H214,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_OFST_L1T3</v>
       </c>
       <c r="K214" s="1"/>
@@ -16813,11 +16876,11 @@
         <v>1325</v>
       </c>
       <c r="C215" s="49" t="str">
-        <f>VLOOKUP(B215,Indicator!$A$2:$F$695,5,FALSE)</f>
+        <f>VLOOKUP(B215,Indicator!$A$2:$F$698,5,FALSE)</f>
         <v>Out-of-school rate for children, adolescents and youth of primary and secondary school age (%, by sex)</v>
       </c>
       <c r="D215" s="25" t="str">
-        <f>VLOOKUP(B215,Indicator!$A$2:$F$695,6,FALSE)</f>
+        <f>VLOOKUP(B215,Indicator!$A$2:$F$698,6,FALSE)</f>
         <v>EDUNF_ROFST_L1T3</v>
       </c>
       <c r="E215" s="1">
@@ -16834,141 +16897,144 @@
         <v>2241</v>
       </c>
       <c r="I215" s="25" t="str">
-        <f>VLOOKUP(H215,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H215,Source!$A$2:$G$237,3,FALSE)</f>
         <v>UIS: EDUNF_ROFST_L1T3</v>
       </c>
       <c r="K215" s="1"/>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A216" s="1" t="s">
+        <v>2871</v>
+      </c>
+      <c r="B216" s="16" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C216" s="49" t="str">
+        <f>VLOOKUP(B216,Indicator!$A$2:$F$698,5,FALSE)</f>
+        <v>Population of the official age for Last Grade of lower secondary education - ISCED 2, Last Grade - (number of persons, by sex)</v>
+      </c>
+      <c r="D216" s="25" t="str">
+        <f>VLOOKUP(B216,Indicator!$A$2:$F$698,6,FALSE)</f>
+        <v>EDUNF_SAP_L2_GLAST</v>
+      </c>
+      <c r="E216" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="G216" s="1" t="str">
+        <f>VLOOKUP(F216,Value_type!$A$2:$H$107,3,FALSE)</f>
+        <v>PS</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>2242</v>
+      </c>
+      <c r="I216" s="25" t="str">
+        <f>VLOOKUP(H216,Source!$A$2:$G$237,3,FALSE)</f>
+        <v>UIS: EDUNF_SAP_L2_GLAST</v>
+      </c>
+      <c r="K216" s="1"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
-        <v>2871</v>
+        <v>2880</v>
       </c>
       <c r="B217" s="16" t="s">
-        <v>1433</v>
-      </c>
-      <c r="C217" s="56" t="str">
-        <f>VLOOKUP(B217,Indicator!$A$2:$F$695,5,FALSE)</f>
-        <v>Percentage of children (by sex, age groups, residence and wealth quintile) whose births are registered</v>
+        <v>1329</v>
+      </c>
+      <c r="C217" s="49" t="str">
+        <f>VLOOKUP(B217,Indicator!$A$2:$F$698,5,FALSE)</f>
+        <v>Enrolment in private schools of secondary education - ISCED 2 and 3 - (% of all students enrolled in the respective level of education)</v>
       </c>
       <c r="D217" s="25" t="str">
-        <f>VLOOKUP(B217,Indicator!$A$2:$F$695,6,FALSE)</f>
-        <v>PT_CHLD_Y0T4_REG</v>
+        <f>VLOOKUP(B217,Indicator!$A$2:$F$698,6,FALSE)</f>
+        <v>EDUNF_PRP_L2AND3</v>
       </c>
       <c r="E217" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>547</v>
+        <v>18</v>
       </c>
       <c r="G217" s="1" t="str">
         <f>VLOOKUP(F217,Value_type!$A$2:$H$107,3,FALSE)</f>
         <v>PCNT</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>2242</v>
+        <v>2864</v>
       </c>
       <c r="I217" s="25" t="str">
-        <f>VLOOKUP(H217,Source!$A$2:$G$234,3,FALSE)</f>
-        <v>Helix: PT_CHLD_Y0T4_REG</v>
-      </c>
+        <f>VLOOKUP(H217,Source!$A$2:$G$237,3,FALSE)</f>
+        <v>UIS: EDUNF_PRP_L2AND3</v>
+      </c>
+      <c r="K217" s="1"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
-        <v>2880</v>
+        <v>2881</v>
       </c>
       <c r="B218" s="16" t="s">
-        <v>1434</v>
-      </c>
-      <c r="C218" s="56" t="str">
-        <f>VLOOKUP(B218,Indicator!$A$2:$F$695,5,FALSE)</f>
-        <v>Percentage of children (by sex, age groups, residence and wealth quintile) who experienced any physical punishment and/or psychological aggression by caregivers</v>
+        <v>1331</v>
+      </c>
+      <c r="C218" s="49" t="str">
+        <f>VLOOKUP(B218,Indicator!$A$2:$F$698,5,FALSE)</f>
+        <v>Enrolment in secondary education - ISCED 2 and 3 - private institutions (number of persons, by sex)</v>
       </c>
       <c r="D218" s="25" t="str">
-        <f>VLOOKUP(B218,Indicator!$A$2:$F$695,6,FALSE)</f>
-        <v>PT_CHLD_1-14_PS-PSY-V_CGVR</v>
+        <f>VLOOKUP(B218,Indicator!$A$2:$F$698,6,FALSE)</f>
+        <v>EDUNF_STU_L2AND3_PRV</v>
       </c>
       <c r="E218" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G218" s="1" t="str">
         <f>VLOOKUP(F218,Value_type!$A$2:$H$107,3,FALSE)</f>
-        <v>PCNT</v>
+        <v>PS</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
       <c r="I218" s="25" t="str">
-        <f>VLOOKUP(H218,Source!$A$2:$G$234,3,FALSE)</f>
-        <v>Helix: PT_CHLD_1-14_PS-PSY-V_CGVR</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A219" s="1" t="s">
-        <v>2881</v>
-      </c>
-      <c r="B219" s="16" t="s">
-        <v>1438</v>
-      </c>
-      <c r="C219" s="56" t="str">
-        <f>VLOOKUP(B219,Indicator!$A$2:$F$695,5,FALSE)</f>
-        <v>Percentage of children under age 5 (by sex, residence and wealth quintile) left alone or under the supervision of another child younger than 10 years of age for more than 1 hour at least once in the last week</v>
-      </c>
-      <c r="D219" s="25" t="str">
-        <f>VLOOKUP(B219,Indicator!$A$2:$F$695,6,FALSE)</f>
-        <v>ECD_CHLD_U5_LFT-ALN</v>
-      </c>
-      <c r="E219" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F219" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="G219" s="1" t="str">
-        <f>VLOOKUP(F219,Value_type!$A$2:$H$107,3,FALSE)</f>
-        <v>PCNT</v>
-      </c>
-      <c r="H219" s="1" t="s">
-        <v>2865</v>
-      </c>
-      <c r="I219" s="25" t="str">
-        <f>VLOOKUP(H219,Source!$A$2:$G$234,3,FALSE)</f>
-        <v>Helix: ECD_CHLD_U5_LFT-ALN</v>
-      </c>
+        <f>VLOOKUP(H218,Source!$A$2:$G$237,3,FALSE)</f>
+        <v>UIS: EDUNF_STU_L2AND3_PRV</v>
+      </c>
+      <c r="K218" s="1"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>2892</v>
       </c>
       <c r="B220" s="16" t="s">
-        <v>1812</v>
+        <v>1438</v>
       </c>
       <c r="C220" s="56" t="str">
-        <f>VLOOKUP(B220,Indicator!$A$2:$F$695,5,FALSE)</f>
-        <v>Maternity leave benefits</v>
+        <f>VLOOKUP(B220,Indicator!$A$2:$F$698,5,FALSE)</f>
+        <v>Percentage of children (by sex, age groups, residence and wealth quintile) whose births are registered</v>
       </c>
       <c r="D220" s="25" t="str">
-        <f>VLOOKUP(B220,Indicator!$A$2:$F$695,6,FALSE)</f>
-        <v>GN_MTNTY_LV_BNFTS</v>
+        <f>VLOOKUP(B220,Indicator!$A$2:$F$698,6,FALSE)</f>
+        <v>PT_CHLD_Y0T4_REG</v>
       </c>
       <c r="E220" s="1">
         <v>2020</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="G220" s="1" t="str">
         <f>VLOOKUP(F220,Value_type!$A$2:$H$107,3,FALSE)</f>
-        <v>BINARY</v>
+        <v>PCNT</v>
       </c>
       <c r="H220" s="1" t="s">
         <v>2866</v>
       </c>
       <c r="I220" s="25" t="str">
-        <f>VLOOKUP(H220,Source!$A$2:$G$234,3,FALSE)</f>
-        <v>Helix: GN_MTNTY_LV_BNFTS</v>
+        <f>VLOOKUP(H220,Source!$A$2:$G$237,3,FALSE)</f>
+        <v>Helix: PT_CHLD_Y0T4_REG</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.35">
@@ -16976,31 +17042,130 @@
         <v>2900</v>
       </c>
       <c r="B221" s="16" t="s">
-        <v>1814</v>
+        <v>1440</v>
       </c>
       <c r="C221" s="56" t="str">
-        <f>VLOOKUP(B221,Indicator!$A$2:$F$695,5,FALSE)</f>
-        <v>Paternity leave benefits</v>
+        <f>VLOOKUP(B221,Indicator!$A$2:$F$698,5,FALSE)</f>
+        <v>Percentage of children (by sex, age groups, residence and wealth quintile) who experienced any physical punishment and/or psychological aggression by caregivers</v>
       </c>
       <c r="D221" s="25" t="str">
-        <f>VLOOKUP(B221,Indicator!$A$2:$F$695,6,FALSE)</f>
-        <v>GN_PTNTY_LV_BNFTS</v>
+        <f>VLOOKUP(B221,Indicator!$A$2:$F$698,6,FALSE)</f>
+        <v>PT_CHLD_1-14_PS-PSY-V_CGVR</v>
       </c>
       <c r="E221" s="1">
         <v>2020</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="G221" s="1" t="str">
         <f>VLOOKUP(F221,Value_type!$A$2:$H$107,3,FALSE)</f>
-        <v>BINARY</v>
+        <v>PCNT</v>
       </c>
       <c r="H221" s="1" t="s">
         <v>2867</v>
       </c>
       <c r="I221" s="25" t="str">
-        <f>VLOOKUP(H221,Source!$A$2:$G$234,3,FALSE)</f>
+        <f>VLOOKUP(H221,Source!$A$2:$G$237,3,FALSE)</f>
+        <v>Helix: PT_CHLD_1-14_PS-PSY-V_CGVR</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A222" s="1" t="s">
+        <v>2915</v>
+      </c>
+      <c r="B222" s="16" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C222" s="56" t="str">
+        <f>VLOOKUP(B222,Indicator!$A$2:$F$698,5,FALSE)</f>
+        <v>Percentage of children under age 5 (by sex, residence and wealth quintile) left alone or under the supervision of another child younger than 10 years of age for more than 1 hour at least once in the last week</v>
+      </c>
+      <c r="D222" s="25" t="str">
+        <f>VLOOKUP(B222,Indicator!$A$2:$F$698,6,FALSE)</f>
+        <v>ECD_CHLD_U5_LFT-ALN</v>
+      </c>
+      <c r="E222" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="G222" s="1" t="str">
+        <f>VLOOKUP(F222,Value_type!$A$2:$H$107,3,FALSE)</f>
+        <v>PCNT</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>2884</v>
+      </c>
+      <c r="I222" s="25" t="str">
+        <f>VLOOKUP(H222,Source!$A$2:$G$237,3,FALSE)</f>
+        <v>Helix: ECD_CHLD_U5_LFT-ALN</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A223" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="B223" s="16" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C223" s="56" t="str">
+        <f>VLOOKUP(B223,Indicator!$A$2:$F$698,5,FALSE)</f>
+        <v>Maternity leave benefits</v>
+      </c>
+      <c r="D223" s="25" t="str">
+        <f>VLOOKUP(B223,Indicator!$A$2:$F$698,6,FALSE)</f>
+        <v>GN_MTNTY_LV_BNFTS</v>
+      </c>
+      <c r="E223" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="G223" s="1" t="str">
+        <f>VLOOKUP(F223,Value_type!$A$2:$H$107,3,FALSE)</f>
+        <v>BINARY</v>
+      </c>
+      <c r="H223" s="1" t="s">
+        <v>2885</v>
+      </c>
+      <c r="I223" s="25" t="str">
+        <f>VLOOKUP(H223,Source!$A$2:$G$237,3,FALSE)</f>
+        <v>Helix: GN_MTNTY_LV_BNFTS</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A224" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="B224" s="16" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C224" s="56" t="str">
+        <f>VLOOKUP(B224,Indicator!$A$2:$F$698,5,FALSE)</f>
+        <v>Paternity leave benefits</v>
+      </c>
+      <c r="D224" s="25" t="str">
+        <f>VLOOKUP(B224,Indicator!$A$2:$F$698,6,FALSE)</f>
+        <v>GN_PTNTY_LV_BNFTS</v>
+      </c>
+      <c r="E224" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="G224" s="1" t="str">
+        <f>VLOOKUP(F224,Value_type!$A$2:$H$107,3,FALSE)</f>
+        <v>BINARY</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>2891</v>
+      </c>
+      <c r="I224" s="25" t="str">
+        <f>VLOOKUP(H224,Source!$A$2:$G$237,3,FALSE)</f>
         <v>Helix: GN_PTNTY_LV_BNFTS</v>
       </c>
     </row>
@@ -17539,11 +17704,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M642"/>
+  <dimension ref="A1:M645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A273" sqref="A273:A642"/>
+      <pane ySplit="1" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A276" sqref="A276:A645"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23202,42 +23367,72 @@
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A272" s="16"/>
-      <c r="B272" s="56"/>
-      <c r="C272" s="56"/>
-      <c r="D272" s="36"/>
-      <c r="E272" s="36"/>
-      <c r="F272" s="36"/>
-      <c r="I272"/>
-      <c r="J272"/>
+      <c r="A272" s="16" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B272" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="C272" s="49" t="s">
+        <v>2380</v>
+      </c>
+      <c r="D272" s="25" t="s">
+        <v>2843</v>
+      </c>
+      <c r="E272" s="50" t="s">
+        <v>2904</v>
+      </c>
+      <c r="F272" t="s">
+        <v>2903</v>
+      </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A273" s="16" t="s">
-        <v>1327</v>
-      </c>
-      <c r="E273" t="s">
-        <v>1259</v>
-      </c>
-      <c r="I273"/>
-      <c r="J273"/>
+        <v>1329</v>
+      </c>
+      <c r="B273" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="C273" s="49" t="s">
+        <v>2380</v>
+      </c>
+      <c r="D273" s="25" t="s">
+        <v>2423</v>
+      </c>
+      <c r="E273" s="50" t="s">
+        <v>2908</v>
+      </c>
+      <c r="F273" t="s">
+        <v>2907</v>
+      </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A274" s="16" t="s">
-        <v>1329</v>
-      </c>
-      <c r="E274" t="s">
-        <v>1261</v>
-      </c>
-      <c r="I274"/>
-      <c r="J274"/>
+        <v>1331</v>
+      </c>
+      <c r="B274" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="C274" s="49" t="s">
+        <v>2380</v>
+      </c>
+      <c r="D274" s="25" t="s">
+        <v>2423</v>
+      </c>
+      <c r="E274" s="50" t="s">
+        <v>2912</v>
+      </c>
+      <c r="F274" t="s">
+        <v>2911</v>
+      </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A275" s="16" t="s">
-        <v>1331</v>
-      </c>
-      <c r="E275" t="s">
-        <v>1263</v>
-      </c>
+      <c r="A275" s="16"/>
+      <c r="B275" s="56"/>
+      <c r="C275" s="56"/>
+      <c r="D275" s="36"/>
+      <c r="E275" s="36"/>
+      <c r="F275" s="36"/>
       <c r="I275"/>
       <c r="J275"/>
     </row>
@@ -23246,7 +23441,7 @@
         <v>1333</v>
       </c>
       <c r="E276" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="I276"/>
       <c r="J276"/>
@@ -23256,7 +23451,7 @@
         <v>1335</v>
       </c>
       <c r="E277" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="I277"/>
       <c r="J277"/>
@@ -23266,7 +23461,7 @@
         <v>1337</v>
       </c>
       <c r="E278" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="I278"/>
       <c r="J278"/>
@@ -23276,7 +23471,7 @@
         <v>1339</v>
       </c>
       <c r="E279" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="I279"/>
       <c r="J279"/>
@@ -23286,7 +23481,7 @@
         <v>1341</v>
       </c>
       <c r="E280" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
       <c r="I280"/>
       <c r="J280"/>
@@ -23296,7 +23491,7 @@
         <v>1343</v>
       </c>
       <c r="E281" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="I281"/>
       <c r="J281"/>
@@ -23306,7 +23501,7 @@
         <v>1345</v>
       </c>
       <c r="E282" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="I282"/>
       <c r="J282"/>
@@ -23316,7 +23511,7 @@
         <v>1347</v>
       </c>
       <c r="E283" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="I283"/>
       <c r="J283"/>
@@ -23326,7 +23521,7 @@
         <v>1349</v>
       </c>
       <c r="E284" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
       <c r="I284"/>
       <c r="J284"/>
@@ -23336,7 +23531,7 @@
         <v>1351</v>
       </c>
       <c r="E285" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="I285"/>
       <c r="J285"/>
@@ -23346,7 +23541,7 @@
         <v>1353</v>
       </c>
       <c r="E286" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="I286"/>
       <c r="J286"/>
@@ -23356,7 +23551,7 @@
         <v>1355</v>
       </c>
       <c r="E287" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="I287"/>
       <c r="J287"/>
@@ -23366,7 +23561,7 @@
         <v>1357</v>
       </c>
       <c r="E288" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="I288"/>
       <c r="J288"/>
@@ -23376,7 +23571,7 @@
         <v>1359</v>
       </c>
       <c r="E289" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="I289"/>
       <c r="J289"/>
@@ -23386,7 +23581,7 @@
         <v>1361</v>
       </c>
       <c r="E290" t="s">
-        <v>1214</v>
+        <v>1287</v>
       </c>
       <c r="I290"/>
       <c r="J290"/>
@@ -23396,7 +23591,7 @@
         <v>1363</v>
       </c>
       <c r="E291" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="I291"/>
       <c r="J291"/>
@@ -23406,7 +23601,7 @@
         <v>1365</v>
       </c>
       <c r="E292" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="I292"/>
       <c r="J292"/>
@@ -23416,7 +23611,7 @@
         <v>1367</v>
       </c>
       <c r="E293" t="s">
-        <v>1298</v>
+        <v>1214</v>
       </c>
       <c r="I293"/>
       <c r="J293"/>
@@ -23426,7 +23621,7 @@
         <v>1369</v>
       </c>
       <c r="E294" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="I294"/>
       <c r="J294"/>
@@ -23436,7 +23631,7 @@
         <v>1371</v>
       </c>
       <c r="E295" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
       <c r="I295"/>
       <c r="J295"/>
@@ -23446,7 +23641,7 @@
         <v>507</v>
       </c>
       <c r="E296" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="I296"/>
       <c r="J296"/>
@@ -23456,7 +23651,7 @@
         <v>510</v>
       </c>
       <c r="E297" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
       <c r="I297"/>
       <c r="J297"/>
@@ -23466,7 +23661,7 @@
         <v>1375</v>
       </c>
       <c r="E298" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
       <c r="I298"/>
       <c r="J298"/>
@@ -23476,7 +23671,7 @@
         <v>513</v>
       </c>
       <c r="E299" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="I299"/>
       <c r="J299"/>
@@ -23486,7 +23681,7 @@
         <v>1378</v>
       </c>
       <c r="E300" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="I300"/>
       <c r="J300"/>
@@ -23496,7 +23691,7 @@
         <v>1380</v>
       </c>
       <c r="E301" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
       <c r="I301"/>
       <c r="J301"/>
@@ -23506,31 +23701,37 @@
         <v>1382</v>
       </c>
       <c r="E302" t="s">
-        <v>1316</v>
-      </c>
+        <v>1310</v>
+      </c>
+      <c r="I302"/>
+      <c r="J302"/>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A303" s="16" t="s">
         <v>1384</v>
       </c>
       <c r="E303" t="s">
-        <v>1318</v>
-      </c>
+        <v>1312</v>
+      </c>
+      <c r="I303"/>
+      <c r="J303"/>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A304" s="16" t="s">
         <v>1386</v>
       </c>
       <c r="E304" t="s">
-        <v>1320</v>
-      </c>
+        <v>1314</v>
+      </c>
+      <c r="I304"/>
+      <c r="J304"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" s="16" t="s">
         <v>1388</v>
       </c>
       <c r="E305" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.35">
@@ -23538,7 +23739,7 @@
         <v>1390</v>
       </c>
       <c r="E306" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.35">
@@ -23546,7 +23747,7 @@
         <v>1392</v>
       </c>
       <c r="E307" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.35">
@@ -23554,7 +23755,7 @@
         <v>1394</v>
       </c>
       <c r="E308" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.35">
@@ -23562,7 +23763,7 @@
         <v>1396</v>
       </c>
       <c r="E309" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.35">
@@ -23570,7 +23771,7 @@
         <v>1398</v>
       </c>
       <c r="E310" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.35">
@@ -23578,7 +23779,7 @@
         <v>1400</v>
       </c>
       <c r="E311" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.35">
@@ -23586,7 +23787,7 @@
         <v>1402</v>
       </c>
       <c r="E312" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.35">
@@ -23594,7 +23795,7 @@
         <v>1404</v>
       </c>
       <c r="E313" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.35">
@@ -23602,7 +23803,7 @@
         <v>1406</v>
       </c>
       <c r="E314" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.35">
@@ -23610,7 +23811,7 @@
         <v>1408</v>
       </c>
       <c r="E315" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.35">
@@ -23618,7 +23819,7 @@
         <v>1410</v>
       </c>
       <c r="E316" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.35">
@@ -23626,7 +23827,7 @@
         <v>1412</v>
       </c>
       <c r="E317" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.35">
@@ -23634,7 +23835,7 @@
         <v>1414</v>
       </c>
       <c r="E318" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.35">
@@ -23642,7 +23843,7 @@
         <v>1416</v>
       </c>
       <c r="E319" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.35">
@@ -23650,158 +23851,152 @@
         <v>1418</v>
       </c>
       <c r="E320" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321" s="16" t="s">
         <v>1420</v>
       </c>
       <c r="E321" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322" s="16" t="s">
         <v>1422</v>
       </c>
       <c r="E322" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323" s="16" t="s">
         <v>1424</v>
       </c>
       <c r="E323" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324" s="16" t="s">
         <v>1425</v>
       </c>
       <c r="E324" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325" s="16" t="s">
         <v>1426</v>
       </c>
       <c r="E325" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326" s="16" t="s">
         <v>1427</v>
       </c>
       <c r="E326" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327" s="16" t="s">
         <v>1428</v>
       </c>
       <c r="E327" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328" s="16" t="s">
         <v>1430</v>
       </c>
       <c r="E328" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329" s="16" t="s">
         <v>1431</v>
       </c>
       <c r="E329" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330" s="16" t="s">
         <v>1432</v>
       </c>
       <c r="E330" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331" s="16" t="s">
         <v>1433</v>
       </c>
       <c r="E331" t="s">
-        <v>2826</v>
-      </c>
-      <c r="F331" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332" s="16" t="s">
         <v>1434</v>
       </c>
       <c r="E332" t="s">
-        <v>2827</v>
-      </c>
-      <c r="F332" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A333" s="16" t="s">
         <v>1436</v>
       </c>
       <c r="E333" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334" s="16" t="s">
         <v>1438</v>
       </c>
       <c r="E334" t="s">
-        <v>2828</v>
+        <v>2826</v>
       </c>
       <c r="F334" t="s">
-        <v>1377</v>
-      </c>
-      <c r="I334"/>
-      <c r="J334"/>
-    </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A335" s="16" t="s">
         <v>1440</v>
       </c>
       <c r="E335" t="s">
-        <v>1379</v>
-      </c>
-      <c r="I335"/>
-      <c r="J335"/>
-    </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.35">
+        <v>2827</v>
+      </c>
+      <c r="F335" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A336" s="16" t="s">
         <v>1442</v>
       </c>
       <c r="E336" t="s">
-        <v>1381</v>
-      </c>
-      <c r="I336"/>
-      <c r="J336"/>
+        <v>1376</v>
+      </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A337" s="16" t="s">
         <v>1443</v>
       </c>
       <c r="E337" t="s">
-        <v>1383</v>
+        <v>2828</v>
+      </c>
+      <c r="F337" t="s">
+        <v>1377</v>
       </c>
       <c r="I337"/>
       <c r="J337"/>
@@ -23811,7 +24006,7 @@
         <v>1444</v>
       </c>
       <c r="E338" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="I338"/>
       <c r="J338"/>
@@ -23821,7 +24016,7 @@
         <v>1445</v>
       </c>
       <c r="E339" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
       <c r="I339"/>
       <c r="J339"/>
@@ -23831,7 +24026,7 @@
         <v>1446</v>
       </c>
       <c r="E340" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
       <c r="I340"/>
       <c r="J340"/>
@@ -23841,7 +24036,7 @@
         <v>1448</v>
       </c>
       <c r="E341" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
       <c r="I341"/>
       <c r="J341"/>
@@ -23851,7 +24046,7 @@
         <v>1450</v>
       </c>
       <c r="E342" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
       <c r="I342"/>
       <c r="J342"/>
@@ -23861,7 +24056,7 @@
         <v>1452</v>
       </c>
       <c r="E343" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
       <c r="I343"/>
       <c r="J343"/>
@@ -23871,7 +24066,7 @@
         <v>1454</v>
       </c>
       <c r="E344" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
       <c r="I344"/>
       <c r="J344"/>
@@ -23881,7 +24076,7 @@
         <v>1456</v>
       </c>
       <c r="E345" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
       <c r="I345"/>
       <c r="J345"/>
@@ -23891,7 +24086,7 @@
         <v>1458</v>
       </c>
       <c r="E346" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="I346"/>
       <c r="J346"/>
@@ -23901,7 +24096,7 @@
         <v>1460</v>
       </c>
       <c r="E347" t="s">
-        <v>1403</v>
+        <v>1397</v>
       </c>
       <c r="I347"/>
       <c r="J347"/>
@@ -23911,7 +24106,7 @@
         <v>1462</v>
       </c>
       <c r="E348" t="s">
-        <v>1405</v>
+        <v>1399</v>
       </c>
       <c r="I348"/>
       <c r="J348"/>
@@ -23921,7 +24116,7 @@
         <v>1464</v>
       </c>
       <c r="E349" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
       <c r="I349"/>
       <c r="J349"/>
@@ -23931,7 +24126,7 @@
         <v>1466</v>
       </c>
       <c r="E350" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="I350"/>
       <c r="J350"/>
@@ -23941,7 +24136,7 @@
         <v>1467</v>
       </c>
       <c r="E351" t="s">
-        <v>1411</v>
+        <v>1405</v>
       </c>
       <c r="I351"/>
       <c r="J351"/>
@@ -23951,7 +24146,7 @@
         <v>1469</v>
       </c>
       <c r="E352" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="I352"/>
       <c r="J352"/>
@@ -23961,7 +24156,7 @@
         <v>1471</v>
       </c>
       <c r="E353" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
       <c r="I353"/>
       <c r="J353"/>
@@ -23971,7 +24166,7 @@
         <v>1473</v>
       </c>
       <c r="E354" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="I354"/>
       <c r="J354"/>
@@ -23981,7 +24176,7 @@
         <v>1475</v>
       </c>
       <c r="E355" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="I355"/>
       <c r="J355"/>
@@ -23991,7 +24186,7 @@
         <v>1477</v>
       </c>
       <c r="E356" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
       <c r="I356"/>
       <c r="J356"/>
@@ -24001,7 +24196,7 @@
         <v>1479</v>
       </c>
       <c r="E357" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
       <c r="I357"/>
       <c r="J357"/>
@@ -24011,7 +24206,7 @@
         <v>1481</v>
       </c>
       <c r="E358" t="s">
-        <v>1415</v>
+        <v>1419</v>
       </c>
       <c r="I358"/>
       <c r="J358"/>
@@ -24021,7 +24216,7 @@
         <v>1483</v>
       </c>
       <c r="E359" t="s">
-        <v>1417</v>
+        <v>1421</v>
       </c>
       <c r="I359"/>
       <c r="J359"/>
@@ -24031,7 +24226,7 @@
         <v>1485</v>
       </c>
       <c r="E360" t="s">
-        <v>1419</v>
+        <v>1423</v>
       </c>
       <c r="I360"/>
       <c r="J360"/>
@@ -24041,7 +24236,7 @@
         <v>1487</v>
       </c>
       <c r="E361" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
       <c r="I361"/>
       <c r="J361"/>
@@ -24051,7 +24246,7 @@
         <v>1489</v>
       </c>
       <c r="E362" t="s">
-        <v>1429</v>
+        <v>1417</v>
       </c>
       <c r="I362"/>
       <c r="J362"/>
@@ -24061,7 +24256,7 @@
         <v>1491</v>
       </c>
       <c r="E363" t="s">
-        <v>1415</v>
+        <v>1419</v>
       </c>
       <c r="I363"/>
       <c r="J363"/>
@@ -24071,7 +24266,7 @@
         <v>1493</v>
       </c>
       <c r="E364" t="s">
-        <v>1417</v>
+        <v>1421</v>
       </c>
       <c r="I364"/>
       <c r="J364"/>
@@ -24081,7 +24276,7 @@
         <v>1495</v>
       </c>
       <c r="E365" t="s">
-        <v>1419</v>
+        <v>1429</v>
       </c>
       <c r="I365"/>
       <c r="J365"/>
@@ -24091,7 +24286,7 @@
         <v>1497</v>
       </c>
       <c r="E366" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
       <c r="I366"/>
       <c r="J366"/>
@@ -24101,7 +24296,7 @@
         <v>1499</v>
       </c>
       <c r="E367" t="s">
-        <v>1435</v>
+        <v>1417</v>
       </c>
       <c r="I367"/>
       <c r="J367"/>
@@ -24111,7 +24306,7 @@
         <v>1501</v>
       </c>
       <c r="E368" t="s">
-        <v>1437</v>
+        <v>1419</v>
       </c>
       <c r="I368"/>
       <c r="J368"/>
@@ -24121,7 +24316,7 @@
         <v>1502</v>
       </c>
       <c r="E369" t="s">
-        <v>1439</v>
+        <v>1421</v>
       </c>
       <c r="I369"/>
       <c r="J369"/>
@@ -24131,7 +24326,7 @@
         <v>1503</v>
       </c>
       <c r="E370" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
       <c r="I370"/>
       <c r="J370"/>
@@ -24141,7 +24336,7 @@
         <v>1504</v>
       </c>
       <c r="E371" t="s">
-        <v>1415</v>
+        <v>1437</v>
       </c>
       <c r="I371"/>
       <c r="J371"/>
@@ -24151,7 +24346,7 @@
         <v>1506</v>
       </c>
       <c r="E372" t="s">
-        <v>1417</v>
+        <v>1439</v>
       </c>
       <c r="I372"/>
       <c r="J372"/>
@@ -24161,7 +24356,7 @@
         <v>1508</v>
       </c>
       <c r="E373" t="s">
-        <v>1419</v>
+        <v>1441</v>
       </c>
       <c r="I373"/>
       <c r="J373"/>
@@ -24171,7 +24366,7 @@
         <v>1509</v>
       </c>
       <c r="E374" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
       <c r="I374"/>
       <c r="J374"/>
@@ -24181,7 +24376,7 @@
         <v>1510</v>
       </c>
       <c r="E375" t="s">
-        <v>1447</v>
+        <v>1417</v>
       </c>
       <c r="I375"/>
       <c r="J375"/>
@@ -24191,7 +24386,7 @@
         <v>1511</v>
       </c>
       <c r="E376" t="s">
-        <v>1449</v>
+        <v>1419</v>
       </c>
       <c r="I376"/>
       <c r="J376"/>
@@ -24201,7 +24396,7 @@
         <v>1512</v>
       </c>
       <c r="E377" t="s">
-        <v>1451</v>
+        <v>1421</v>
       </c>
       <c r="I377"/>
       <c r="J377"/>
@@ -24211,7 +24406,7 @@
         <v>1514</v>
       </c>
       <c r="E378" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="I378"/>
       <c r="J378"/>
@@ -24221,7 +24416,7 @@
         <v>1515</v>
       </c>
       <c r="E379" t="s">
-        <v>1455</v>
+        <v>1449</v>
       </c>
       <c r="I379"/>
       <c r="J379"/>
@@ -24231,7 +24426,7 @@
         <v>1516</v>
       </c>
       <c r="E380" t="s">
-        <v>1457</v>
+        <v>1451</v>
       </c>
       <c r="I380"/>
       <c r="J380"/>
@@ -24241,7 +24436,7 @@
         <v>1517</v>
       </c>
       <c r="E381" t="s">
-        <v>1459</v>
+        <v>1453</v>
       </c>
       <c r="I381"/>
       <c r="J381"/>
@@ -24251,7 +24446,7 @@
         <v>1518</v>
       </c>
       <c r="E382" t="s">
-        <v>1461</v>
+        <v>1455</v>
       </c>
       <c r="I382"/>
       <c r="J382"/>
@@ -24261,7 +24456,7 @@
         <v>1520</v>
       </c>
       <c r="E383" t="s">
-        <v>1463</v>
+        <v>1457</v>
       </c>
       <c r="I383"/>
       <c r="J383"/>
@@ -24271,7 +24466,7 @@
         <v>1522</v>
       </c>
       <c r="E384" t="s">
-        <v>1465</v>
+        <v>1459</v>
       </c>
       <c r="I384"/>
       <c r="J384"/>
@@ -24281,7 +24476,7 @@
         <v>1524</v>
       </c>
       <c r="E385" t="s">
-        <v>1419</v>
+        <v>1461</v>
       </c>
       <c r="I385"/>
       <c r="J385"/>
@@ -24291,7 +24486,7 @@
         <v>1526</v>
       </c>
       <c r="E386" t="s">
-        <v>1468</v>
+        <v>1463</v>
       </c>
       <c r="I386"/>
       <c r="J386"/>
@@ -24301,7 +24496,7 @@
         <v>1528</v>
       </c>
       <c r="E387" t="s">
-        <v>1470</v>
+        <v>1465</v>
       </c>
       <c r="I387"/>
       <c r="J387"/>
@@ -24311,7 +24506,7 @@
         <v>1530</v>
       </c>
       <c r="E388" t="s">
-        <v>1472</v>
+        <v>1419</v>
       </c>
       <c r="I388"/>
       <c r="J388"/>
@@ -24321,7 +24516,7 @@
         <v>1532</v>
       </c>
       <c r="E389" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="I389"/>
       <c r="J389"/>
@@ -24331,7 +24526,7 @@
         <v>1533</v>
       </c>
       <c r="E390" t="s">
-        <v>1476</v>
+        <v>1470</v>
       </c>
       <c r="I390"/>
       <c r="J390"/>
@@ -24341,7 +24536,7 @@
         <v>1535</v>
       </c>
       <c r="E391" t="s">
-        <v>1478</v>
+        <v>1472</v>
       </c>
       <c r="I391"/>
       <c r="J391"/>
@@ -24351,7 +24546,7 @@
         <v>1537</v>
       </c>
       <c r="E392" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
       <c r="I392"/>
       <c r="J392"/>
@@ -24361,7 +24556,7 @@
         <v>1539</v>
       </c>
       <c r="E393" t="s">
-        <v>1482</v>
+        <v>1476</v>
       </c>
       <c r="I393"/>
       <c r="J393"/>
@@ -24371,7 +24566,7 @@
         <v>1541</v>
       </c>
       <c r="E394" t="s">
-        <v>1484</v>
+        <v>1478</v>
       </c>
       <c r="I394"/>
       <c r="J394"/>
@@ -24381,7 +24576,7 @@
         <v>1543</v>
       </c>
       <c r="E395" t="s">
-        <v>1486</v>
+        <v>1480</v>
       </c>
       <c r="I395"/>
       <c r="J395"/>
@@ -24391,7 +24586,7 @@
         <v>1545</v>
       </c>
       <c r="E396" t="s">
-        <v>1488</v>
+        <v>1482</v>
       </c>
       <c r="I396"/>
       <c r="J396"/>
@@ -24401,7 +24596,7 @@
         <v>1547</v>
       </c>
       <c r="E397" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="I397"/>
       <c r="J397"/>
@@ -24411,7 +24606,7 @@
         <v>1549</v>
       </c>
       <c r="E398" t="s">
-        <v>1492</v>
+        <v>1486</v>
       </c>
       <c r="I398"/>
       <c r="J398"/>
@@ -24421,7 +24616,7 @@
         <v>1551</v>
       </c>
       <c r="E399" t="s">
-        <v>1494</v>
+        <v>1488</v>
       </c>
       <c r="I399"/>
       <c r="J399"/>
@@ -24431,7 +24626,7 @@
         <v>1553</v>
       </c>
       <c r="E400" t="s">
-        <v>1496</v>
+        <v>1490</v>
       </c>
       <c r="I400"/>
       <c r="J400"/>
@@ -24441,7 +24636,7 @@
         <v>1555</v>
       </c>
       <c r="E401" t="s">
-        <v>1498</v>
+        <v>1492</v>
       </c>
       <c r="I401"/>
       <c r="J401"/>
@@ -24451,7 +24646,7 @@
         <v>1557</v>
       </c>
       <c r="E402" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
       <c r="I402"/>
       <c r="J402"/>
@@ -24461,7 +24656,7 @@
         <v>1559</v>
       </c>
       <c r="E403" t="s">
-        <v>1415</v>
+        <v>1496</v>
       </c>
       <c r="I403"/>
       <c r="J403"/>
@@ -24471,7 +24666,7 @@
         <v>1561</v>
       </c>
       <c r="E404" t="s">
-        <v>1417</v>
+        <v>1498</v>
       </c>
       <c r="I404"/>
       <c r="J404"/>
@@ -24481,7 +24676,7 @@
         <v>1563</v>
       </c>
       <c r="E405" t="s">
-        <v>1419</v>
+        <v>1500</v>
       </c>
       <c r="I405"/>
       <c r="J405"/>
@@ -24491,7 +24686,7 @@
         <v>1565</v>
       </c>
       <c r="E406" t="s">
-        <v>1505</v>
+        <v>1415</v>
       </c>
       <c r="I406"/>
       <c r="J406"/>
@@ -24501,7 +24696,7 @@
         <v>1567</v>
       </c>
       <c r="E407" t="s">
-        <v>1507</v>
+        <v>1417</v>
       </c>
       <c r="I407"/>
       <c r="J407"/>
@@ -24511,7 +24706,7 @@
         <v>1569</v>
       </c>
       <c r="E408" t="s">
-        <v>1415</v>
+        <v>1419</v>
       </c>
       <c r="I408"/>
       <c r="J408"/>
@@ -24521,7 +24716,7 @@
         <v>1571</v>
       </c>
       <c r="E409" t="s">
-        <v>1417</v>
+        <v>1505</v>
       </c>
       <c r="I409"/>
       <c r="J409"/>
@@ -24531,7 +24726,7 @@
         <v>1573</v>
       </c>
       <c r="E410" t="s">
-        <v>1419</v>
+        <v>1507</v>
       </c>
       <c r="I410"/>
       <c r="J410"/>
@@ -24541,7 +24736,7 @@
         <v>1575</v>
       </c>
       <c r="E411" t="s">
-        <v>1505</v>
+        <v>1415</v>
       </c>
       <c r="I411"/>
       <c r="J411"/>
@@ -24551,7 +24746,7 @@
         <v>1577</v>
       </c>
       <c r="E412" t="s">
-        <v>1513</v>
+        <v>1417</v>
       </c>
       <c r="I412"/>
       <c r="J412"/>
@@ -24561,7 +24756,7 @@
         <v>1579</v>
       </c>
       <c r="E413" t="s">
-        <v>1415</v>
+        <v>1419</v>
       </c>
       <c r="I413"/>
       <c r="J413"/>
@@ -24571,7 +24766,7 @@
         <v>1581</v>
       </c>
       <c r="E414" t="s">
-        <v>1417</v>
+        <v>1505</v>
       </c>
       <c r="I414"/>
       <c r="J414"/>
@@ -24581,7 +24776,7 @@
         <v>1583</v>
       </c>
       <c r="E415" t="s">
-        <v>1419</v>
+        <v>1513</v>
       </c>
       <c r="I415"/>
       <c r="J415"/>
@@ -24591,7 +24786,7 @@
         <v>1585</v>
       </c>
       <c r="E416" t="s">
-        <v>1505</v>
+        <v>1415</v>
       </c>
       <c r="I416"/>
       <c r="J416"/>
@@ -24601,7 +24796,7 @@
         <v>1587</v>
       </c>
       <c r="E417" t="s">
-        <v>1519</v>
+        <v>1417</v>
       </c>
       <c r="I417"/>
       <c r="J417"/>
@@ -24611,7 +24806,7 @@
         <v>1589</v>
       </c>
       <c r="E418" t="s">
-        <v>1521</v>
+        <v>1419</v>
       </c>
       <c r="I418"/>
       <c r="J418"/>
@@ -24621,7 +24816,7 @@
         <v>1591</v>
       </c>
       <c r="E419" t="s">
-        <v>1523</v>
+        <v>1505</v>
       </c>
       <c r="I419"/>
       <c r="J419"/>
@@ -24631,7 +24826,7 @@
         <v>1593</v>
       </c>
       <c r="E420" t="s">
-        <v>1525</v>
+        <v>1519</v>
       </c>
       <c r="I420"/>
       <c r="J420"/>
@@ -24641,7 +24836,7 @@
         <v>1594</v>
       </c>
       <c r="E421" t="s">
-        <v>1527</v>
+        <v>1521</v>
       </c>
       <c r="I421"/>
       <c r="J421"/>
@@ -24651,7 +24846,7 @@
         <v>1596</v>
       </c>
       <c r="E422" t="s">
-        <v>1529</v>
+        <v>1523</v>
       </c>
       <c r="I422"/>
       <c r="J422"/>
@@ -24661,7 +24856,7 @@
         <v>1598</v>
       </c>
       <c r="E423" t="s">
-        <v>1531</v>
+        <v>1525</v>
       </c>
       <c r="I423"/>
       <c r="J423"/>
@@ -24671,7 +24866,7 @@
         <v>1600</v>
       </c>
       <c r="E424" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="I424"/>
       <c r="J424"/>
@@ -24681,7 +24876,7 @@
         <v>1602</v>
       </c>
       <c r="E425" t="s">
-        <v>1534</v>
+        <v>1529</v>
       </c>
       <c r="I425"/>
       <c r="J425"/>
@@ -24691,7 +24886,7 @@
         <v>1604</v>
       </c>
       <c r="E426" t="s">
-        <v>1536</v>
+        <v>1531</v>
       </c>
       <c r="I426"/>
       <c r="J426"/>
@@ -24701,7 +24896,7 @@
         <v>1606</v>
       </c>
       <c r="E427" t="s">
-        <v>1538</v>
+        <v>1525</v>
       </c>
       <c r="I427"/>
       <c r="J427"/>
@@ -24711,7 +24906,7 @@
         <v>1608</v>
       </c>
       <c r="E428" t="s">
-        <v>1540</v>
+        <v>1534</v>
       </c>
       <c r="I428"/>
       <c r="J428"/>
@@ -24721,7 +24916,7 @@
         <v>1610</v>
       </c>
       <c r="E429" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="I429"/>
       <c r="J429"/>
@@ -24731,7 +24926,7 @@
         <v>1612</v>
       </c>
       <c r="E430" t="s">
-        <v>1544</v>
+        <v>1538</v>
       </c>
       <c r="I430"/>
       <c r="J430"/>
@@ -24741,7 +24936,7 @@
         <v>1614</v>
       </c>
       <c r="E431" t="s">
-        <v>1546</v>
+        <v>1540</v>
       </c>
       <c r="I431"/>
       <c r="J431"/>
@@ -24751,7 +24946,7 @@
         <v>1616</v>
       </c>
       <c r="E432" t="s">
-        <v>1548</v>
+        <v>1542</v>
       </c>
       <c r="I432"/>
       <c r="J432"/>
@@ -24761,7 +24956,7 @@
         <v>1617</v>
       </c>
       <c r="E433" t="s">
-        <v>1550</v>
+        <v>1544</v>
       </c>
       <c r="I433"/>
       <c r="J433"/>
@@ -24771,7 +24966,7 @@
         <v>1619</v>
       </c>
       <c r="E434" t="s">
-        <v>1552</v>
+        <v>1546</v>
       </c>
       <c r="I434"/>
       <c r="J434"/>
@@ -24781,7 +24976,7 @@
         <v>1620</v>
       </c>
       <c r="E435" t="s">
-        <v>1554</v>
+        <v>1548</v>
       </c>
       <c r="I435"/>
       <c r="J435"/>
@@ -24791,7 +24986,7 @@
         <v>1622</v>
       </c>
       <c r="E436" t="s">
-        <v>1556</v>
+        <v>1550</v>
       </c>
       <c r="I436"/>
       <c r="J436"/>
@@ -24801,7 +24996,7 @@
         <v>1624</v>
       </c>
       <c r="E437" t="s">
-        <v>1558</v>
+        <v>1552</v>
       </c>
       <c r="I437"/>
       <c r="J437"/>
@@ -24811,7 +25006,7 @@
         <v>1626</v>
       </c>
       <c r="E438" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="I438"/>
       <c r="J438"/>
@@ -24821,7 +25016,7 @@
         <v>1628</v>
       </c>
       <c r="E439" t="s">
-        <v>1562</v>
+        <v>1556</v>
       </c>
       <c r="I439"/>
       <c r="J439"/>
@@ -24831,7 +25026,7 @@
         <v>1630</v>
       </c>
       <c r="E440" t="s">
-        <v>1564</v>
+        <v>1558</v>
       </c>
       <c r="I440"/>
       <c r="J440"/>
@@ -24841,7 +25036,7 @@
         <v>1632</v>
       </c>
       <c r="E441" t="s">
-        <v>1566</v>
+        <v>1560</v>
       </c>
       <c r="I441"/>
       <c r="J441"/>
@@ -24851,7 +25046,7 @@
         <v>1634</v>
       </c>
       <c r="E442" t="s">
-        <v>1568</v>
+        <v>1562</v>
       </c>
       <c r="I442"/>
       <c r="J442"/>
@@ -24861,7 +25056,7 @@
         <v>1636</v>
       </c>
       <c r="E443" t="s">
-        <v>1570</v>
+        <v>1564</v>
       </c>
       <c r="I443"/>
       <c r="J443"/>
@@ -24871,7 +25066,7 @@
         <v>1638</v>
       </c>
       <c r="E444" t="s">
-        <v>1572</v>
+        <v>1566</v>
       </c>
       <c r="I444"/>
       <c r="J444"/>
@@ -24881,7 +25076,7 @@
         <v>1640</v>
       </c>
       <c r="E445" t="s">
-        <v>1574</v>
+        <v>1568</v>
       </c>
       <c r="I445"/>
       <c r="J445"/>
@@ -24891,7 +25086,7 @@
         <v>1642</v>
       </c>
       <c r="E446" t="s">
-        <v>1576</v>
+        <v>1570</v>
       </c>
       <c r="I446"/>
       <c r="J446"/>
@@ -24901,7 +25096,7 @@
         <v>1644</v>
       </c>
       <c r="E447" t="s">
-        <v>1578</v>
+        <v>1572</v>
       </c>
       <c r="I447"/>
       <c r="J447"/>
@@ -24911,7 +25106,7 @@
         <v>1646</v>
       </c>
       <c r="E448" t="s">
-        <v>1580</v>
+        <v>1574</v>
       </c>
       <c r="I448"/>
       <c r="J448"/>
@@ -24921,7 +25116,7 @@
         <v>1648</v>
       </c>
       <c r="E449" t="s">
-        <v>1582</v>
+        <v>1576</v>
       </c>
       <c r="I449"/>
       <c r="J449"/>
@@ -24931,7 +25126,7 @@
         <v>1650</v>
       </c>
       <c r="E450" t="s">
-        <v>1584</v>
+        <v>1578</v>
       </c>
       <c r="I450"/>
       <c r="J450"/>
@@ -24941,7 +25136,7 @@
         <v>1652</v>
       </c>
       <c r="E451" t="s">
-        <v>1586</v>
+        <v>1580</v>
       </c>
       <c r="I451"/>
       <c r="J451"/>
@@ -24951,7 +25146,7 @@
         <v>1654</v>
       </c>
       <c r="E452" t="s">
-        <v>1588</v>
+        <v>1582</v>
       </c>
       <c r="I452"/>
       <c r="J452"/>
@@ -24961,7 +25156,7 @@
         <v>1656</v>
       </c>
       <c r="E453" t="s">
-        <v>1590</v>
+        <v>1584</v>
       </c>
       <c r="I453"/>
       <c r="J453"/>
@@ -24971,7 +25166,7 @@
         <v>1658</v>
       </c>
       <c r="E454" t="s">
-        <v>1592</v>
+        <v>1586</v>
       </c>
       <c r="I454"/>
       <c r="J454"/>
@@ -24981,10 +25176,7 @@
         <v>1660</v>
       </c>
       <c r="E455" t="s">
-        <v>2829</v>
-      </c>
-      <c r="F455" t="s">
-        <v>2151</v>
+        <v>1588</v>
       </c>
       <c r="I455"/>
       <c r="J455"/>
@@ -24994,7 +25186,7 @@
         <v>1662</v>
       </c>
       <c r="E456" t="s">
-        <v>1595</v>
+        <v>1590</v>
       </c>
       <c r="I456"/>
       <c r="J456"/>
@@ -25004,7 +25196,7 @@
         <v>1664</v>
       </c>
       <c r="E457" t="s">
-        <v>1597</v>
+        <v>1592</v>
       </c>
       <c r="I457"/>
       <c r="J457"/>
@@ -25014,7 +25206,10 @@
         <v>1666</v>
       </c>
       <c r="E458" t="s">
-        <v>1599</v>
+        <v>2829</v>
+      </c>
+      <c r="F458" t="s">
+        <v>2151</v>
       </c>
       <c r="I458"/>
       <c r="J458"/>
@@ -25024,7 +25219,7 @@
         <v>1668</v>
       </c>
       <c r="E459" t="s">
-        <v>1601</v>
+        <v>1595</v>
       </c>
       <c r="I459"/>
       <c r="J459"/>
@@ -25034,7 +25229,7 @@
         <v>1670</v>
       </c>
       <c r="E460" t="s">
-        <v>1603</v>
+        <v>1597</v>
       </c>
       <c r="I460"/>
       <c r="J460"/>
@@ -25044,7 +25239,7 @@
         <v>1672</v>
       </c>
       <c r="E461" t="s">
-        <v>1605</v>
+        <v>1599</v>
       </c>
       <c r="I461"/>
       <c r="J461"/>
@@ -25054,7 +25249,7 @@
         <v>1674</v>
       </c>
       <c r="E462" t="s">
-        <v>1607</v>
+        <v>1601</v>
       </c>
       <c r="I462"/>
       <c r="J462"/>
@@ -25064,7 +25259,7 @@
         <v>1676</v>
       </c>
       <c r="E463" t="s">
-        <v>1609</v>
+        <v>1603</v>
       </c>
       <c r="I463"/>
       <c r="J463"/>
@@ -25074,7 +25269,7 @@
         <v>1678</v>
       </c>
       <c r="E464" t="s">
-        <v>1611</v>
+        <v>1605</v>
       </c>
       <c r="I464"/>
       <c r="J464"/>
@@ -25084,7 +25279,7 @@
         <v>1680</v>
       </c>
       <c r="E465" t="s">
-        <v>1613</v>
+        <v>1607</v>
       </c>
       <c r="I465"/>
       <c r="J465"/>
@@ -25094,7 +25289,7 @@
         <v>1682</v>
       </c>
       <c r="E466" t="s">
-        <v>1615</v>
+        <v>1609</v>
       </c>
       <c r="I466"/>
       <c r="J466"/>
@@ -25104,7 +25299,7 @@
         <v>1684</v>
       </c>
       <c r="E467" t="s">
-        <v>1519</v>
+        <v>1611</v>
       </c>
       <c r="I467"/>
       <c r="J467"/>
@@ -25114,7 +25309,7 @@
         <v>1686</v>
       </c>
       <c r="E468" t="s">
-        <v>1618</v>
+        <v>1613</v>
       </c>
       <c r="I468"/>
       <c r="J468"/>
@@ -25124,7 +25319,7 @@
         <v>1688</v>
       </c>
       <c r="E469" t="s">
-        <v>1534</v>
+        <v>1615</v>
       </c>
       <c r="I469"/>
       <c r="J469"/>
@@ -25134,7 +25329,7 @@
         <v>1690</v>
       </c>
       <c r="E470" t="s">
-        <v>1621</v>
+        <v>1519</v>
       </c>
       <c r="I470"/>
       <c r="J470"/>
@@ -25144,7 +25339,7 @@
         <v>1692</v>
       </c>
       <c r="E471" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="I471"/>
       <c r="J471"/>
@@ -25154,7 +25349,7 @@
         <v>1694</v>
       </c>
       <c r="E472" t="s">
-        <v>1625</v>
+        <v>1534</v>
       </c>
       <c r="I472"/>
       <c r="J472"/>
@@ -25164,7 +25359,7 @@
         <v>1696</v>
       </c>
       <c r="E473" t="s">
-        <v>1627</v>
+        <v>1621</v>
       </c>
       <c r="I473"/>
       <c r="J473"/>
@@ -25174,7 +25369,7 @@
         <v>1698</v>
       </c>
       <c r="E474" t="s">
-        <v>1629</v>
+        <v>1623</v>
       </c>
       <c r="I474"/>
       <c r="J474"/>
@@ -25184,7 +25379,7 @@
         <v>1700</v>
       </c>
       <c r="E475" t="s">
-        <v>1631</v>
+        <v>1625</v>
       </c>
       <c r="I475"/>
       <c r="J475"/>
@@ -25194,7 +25389,7 @@
         <v>1702</v>
       </c>
       <c r="E476" t="s">
-        <v>1633</v>
+        <v>1627</v>
       </c>
       <c r="I476"/>
       <c r="J476"/>
@@ -25204,7 +25399,7 @@
         <v>1704</v>
       </c>
       <c r="E477" t="s">
-        <v>1635</v>
+        <v>1629</v>
       </c>
       <c r="I477"/>
       <c r="J477"/>
@@ -25214,7 +25409,7 @@
         <v>1706</v>
       </c>
       <c r="E478" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
       <c r="I478"/>
       <c r="J478"/>
@@ -25224,7 +25419,7 @@
         <v>1708</v>
       </c>
       <c r="E479" t="s">
-        <v>1639</v>
+        <v>1633</v>
       </c>
       <c r="I479"/>
       <c r="J479"/>
@@ -25234,7 +25429,7 @@
         <v>1710</v>
       </c>
       <c r="E480" t="s">
-        <v>1641</v>
+        <v>1635</v>
       </c>
       <c r="I480"/>
       <c r="J480"/>
@@ -25244,7 +25439,7 @@
         <v>1712</v>
       </c>
       <c r="E481" t="s">
-        <v>1643</v>
+        <v>1637</v>
       </c>
       <c r="I481"/>
       <c r="J481"/>
@@ -25254,7 +25449,7 @@
         <v>1714</v>
       </c>
       <c r="E482" t="s">
-        <v>1645</v>
+        <v>1639</v>
       </c>
       <c r="I482"/>
       <c r="J482"/>
@@ -25264,7 +25459,7 @@
         <v>1716</v>
       </c>
       <c r="E483" t="s">
-        <v>1647</v>
+        <v>1641</v>
       </c>
       <c r="I483"/>
       <c r="J483"/>
@@ -25274,7 +25469,7 @@
         <v>1718</v>
       </c>
       <c r="E484" t="s">
-        <v>1649</v>
+        <v>1643</v>
       </c>
       <c r="I484"/>
       <c r="J484"/>
@@ -25284,7 +25479,7 @@
         <v>1720</v>
       </c>
       <c r="E485" t="s">
-        <v>1651</v>
+        <v>1645</v>
       </c>
       <c r="I485"/>
       <c r="J485"/>
@@ -25294,7 +25489,7 @@
         <v>1722</v>
       </c>
       <c r="E486" t="s">
-        <v>1653</v>
+        <v>1647</v>
       </c>
       <c r="I486"/>
       <c r="J486"/>
@@ -25304,7 +25499,7 @@
         <v>1724</v>
       </c>
       <c r="E487" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
       <c r="I487"/>
       <c r="J487"/>
@@ -25314,7 +25509,7 @@
         <v>1726</v>
       </c>
       <c r="E488" t="s">
-        <v>1657</v>
+        <v>1651</v>
       </c>
       <c r="I488"/>
       <c r="J488"/>
@@ -25324,7 +25519,7 @@
         <v>1728</v>
       </c>
       <c r="E489" t="s">
-        <v>1659</v>
+        <v>1653</v>
       </c>
       <c r="I489"/>
       <c r="J489"/>
@@ -25334,7 +25529,7 @@
         <v>1730</v>
       </c>
       <c r="E490" t="s">
-        <v>1661</v>
+        <v>1655</v>
       </c>
       <c r="I490"/>
       <c r="J490"/>
@@ -25344,7 +25539,7 @@
         <v>1732</v>
       </c>
       <c r="E491" t="s">
-        <v>1663</v>
+        <v>1657</v>
       </c>
       <c r="I491"/>
       <c r="J491"/>
@@ -25354,7 +25549,7 @@
         <v>1734</v>
       </c>
       <c r="E492" t="s">
-        <v>1665</v>
+        <v>1659</v>
       </c>
       <c r="I492"/>
       <c r="J492"/>
@@ -25364,7 +25559,7 @@
         <v>1736</v>
       </c>
       <c r="E493" t="s">
-        <v>1667</v>
+        <v>1661</v>
       </c>
       <c r="I493"/>
       <c r="J493"/>
@@ -25374,7 +25569,7 @@
         <v>1738</v>
       </c>
       <c r="E494" t="s">
-        <v>1669</v>
+        <v>1663</v>
       </c>
       <c r="I494"/>
       <c r="J494"/>
@@ -25384,7 +25579,7 @@
         <v>1740</v>
       </c>
       <c r="E495" t="s">
-        <v>1671</v>
+        <v>1665</v>
       </c>
       <c r="I495"/>
       <c r="J495"/>
@@ -25394,7 +25589,7 @@
         <v>516</v>
       </c>
       <c r="E496" t="s">
-        <v>1673</v>
+        <v>1667</v>
       </c>
       <c r="I496"/>
       <c r="J496"/>
@@ -25404,7 +25599,7 @@
         <v>520</v>
       </c>
       <c r="E497" t="s">
-        <v>1675</v>
+        <v>1669</v>
       </c>
       <c r="I497"/>
       <c r="J497"/>
@@ -25414,7 +25609,7 @@
         <v>1746</v>
       </c>
       <c r="E498" t="s">
-        <v>1677</v>
+        <v>1671</v>
       </c>
       <c r="I498"/>
       <c r="J498"/>
@@ -25424,7 +25619,7 @@
         <v>1748</v>
       </c>
       <c r="E499" t="s">
-        <v>1679</v>
+        <v>1673</v>
       </c>
       <c r="I499"/>
       <c r="J499"/>
@@ -25434,7 +25629,7 @@
         <v>1750</v>
       </c>
       <c r="E500" t="s">
-        <v>1681</v>
+        <v>1675</v>
       </c>
       <c r="I500"/>
       <c r="J500"/>
@@ -25444,7 +25639,7 @@
         <v>1752</v>
       </c>
       <c r="E501" t="s">
-        <v>1683</v>
+        <v>1677</v>
       </c>
       <c r="I501"/>
       <c r="J501"/>
@@ -25454,7 +25649,7 @@
         <v>1754</v>
       </c>
       <c r="E502" t="s">
-        <v>1685</v>
+        <v>1679</v>
       </c>
       <c r="I502"/>
       <c r="J502"/>
@@ -25464,7 +25659,7 @@
         <v>1756</v>
       </c>
       <c r="E503" t="s">
-        <v>1687</v>
+        <v>1681</v>
       </c>
       <c r="I503"/>
       <c r="J503"/>
@@ -25474,7 +25669,7 @@
         <v>1758</v>
       </c>
       <c r="E504" t="s">
-        <v>1689</v>
+        <v>1683</v>
       </c>
       <c r="I504"/>
       <c r="J504"/>
@@ -25484,7 +25679,7 @@
         <v>1760</v>
       </c>
       <c r="E505" t="s">
-        <v>1691</v>
+        <v>1685</v>
       </c>
       <c r="I505"/>
       <c r="J505"/>
@@ -25494,7 +25689,7 @@
         <v>1762</v>
       </c>
       <c r="E506" t="s">
-        <v>1693</v>
+        <v>1687</v>
       </c>
       <c r="I506"/>
       <c r="J506"/>
@@ -25504,7 +25699,7 @@
         <v>1764</v>
       </c>
       <c r="E507" t="s">
-        <v>1695</v>
+        <v>1689</v>
       </c>
       <c r="I507"/>
       <c r="J507"/>
@@ -25514,7 +25709,7 @@
         <v>1766</v>
       </c>
       <c r="E508" t="s">
-        <v>1697</v>
+        <v>1691</v>
       </c>
       <c r="I508"/>
       <c r="J508"/>
@@ -25524,7 +25719,7 @@
         <v>1768</v>
       </c>
       <c r="E509" t="s">
-        <v>1699</v>
+        <v>1693</v>
       </c>
       <c r="I509"/>
       <c r="J509"/>
@@ -25534,165 +25729,165 @@
         <v>1770</v>
       </c>
       <c r="E510" t="s">
-        <v>1701</v>
-      </c>
+        <v>1695</v>
+      </c>
+      <c r="I510"/>
+      <c r="J510"/>
     </row>
     <row r="511" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A511" s="16" t="s">
         <v>1772</v>
       </c>
       <c r="E511" t="s">
-        <v>1703</v>
-      </c>
+        <v>1697</v>
+      </c>
+      <c r="I511"/>
+      <c r="J511"/>
     </row>
     <row r="512" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A512" s="16" t="s">
         <v>1774</v>
       </c>
       <c r="E512" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1699</v>
+      </c>
+      <c r="I512"/>
+      <c r="J512"/>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A513" s="16" t="s">
         <v>1776</v>
       </c>
       <c r="E513" t="s">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A514" s="16" t="s">
         <v>1778</v>
       </c>
       <c r="E514" t="s">
-        <v>1709</v>
-      </c>
-    </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A515" s="16" t="s">
         <v>1780</v>
       </c>
       <c r="E515" t="s">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A516" s="16" t="s">
         <v>1782</v>
       </c>
       <c r="E516" t="s">
-        <v>1713</v>
-      </c>
-    </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A517" s="16" t="s">
         <v>1784</v>
       </c>
       <c r="E517" t="s">
-        <v>1715</v>
-      </c>
-    </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A518" s="16" t="s">
         <v>1786</v>
       </c>
       <c r="E518" t="s">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A519" s="16" t="s">
         <v>1788</v>
       </c>
       <c r="E519" t="s">
-        <v>1719</v>
-      </c>
-    </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A520" s="16" t="s">
         <v>1790</v>
       </c>
       <c r="E520" t="s">
-        <v>1721</v>
-      </c>
-    </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A521" s="16" t="s">
         <v>1792</v>
       </c>
       <c r="E521" t="s">
-        <v>1723</v>
-      </c>
-    </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A522" s="16" t="s">
         <v>1794</v>
       </c>
       <c r="E522" t="s">
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A523" s="16" t="s">
         <v>1796</v>
       </c>
       <c r="E523" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A524" s="16" t="s">
         <v>1798</v>
       </c>
       <c r="E524" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A525" s="16" t="s">
         <v>1800</v>
       </c>
       <c r="E525" t="s">
-        <v>1731</v>
-      </c>
-    </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A526" s="16" t="s">
         <v>1802</v>
       </c>
       <c r="E526" t="s">
-        <v>1733</v>
-      </c>
-      <c r="I526"/>
-      <c r="J526"/>
-    </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A527" s="16" t="s">
         <v>1804</v>
       </c>
       <c r="E527" t="s">
-        <v>1735</v>
-      </c>
-      <c r="I527"/>
-      <c r="J527"/>
-    </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A528" s="16" t="s">
         <v>1806</v>
       </c>
       <c r="E528" t="s">
-        <v>1737</v>
-      </c>
-      <c r="I528"/>
-      <c r="J528"/>
+        <v>1731</v>
+      </c>
     </row>
     <row r="529" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A529" s="16" t="s">
         <v>1808</v>
       </c>
       <c r="E529" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
       <c r="I529"/>
       <c r="J529"/>
@@ -25702,7 +25897,7 @@
         <v>1810</v>
       </c>
       <c r="E530" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="I530"/>
       <c r="J530"/>
@@ -25712,10 +25907,7 @@
         <v>1812</v>
       </c>
       <c r="E531" t="s">
-        <v>1742</v>
-      </c>
-      <c r="F531" t="s">
-        <v>1743</v>
+        <v>1737</v>
       </c>
       <c r="I531"/>
       <c r="J531"/>
@@ -25725,10 +25917,7 @@
         <v>1814</v>
       </c>
       <c r="E532" t="s">
-        <v>1744</v>
-      </c>
-      <c r="F532" t="s">
-        <v>1745</v>
+        <v>1739</v>
       </c>
       <c r="I532"/>
       <c r="J532"/>
@@ -25738,7 +25927,7 @@
         <v>1816</v>
       </c>
       <c r="E533" t="s">
-        <v>1747</v>
+        <v>1741</v>
       </c>
       <c r="I533"/>
       <c r="J533"/>
@@ -25748,7 +25937,10 @@
         <v>1818</v>
       </c>
       <c r="E534" t="s">
-        <v>1749</v>
+        <v>1742</v>
+      </c>
+      <c r="F534" t="s">
+        <v>1743</v>
       </c>
       <c r="I534"/>
       <c r="J534"/>
@@ -25758,7 +25950,10 @@
         <v>1820</v>
       </c>
       <c r="E535" t="s">
-        <v>1751</v>
+        <v>1744</v>
+      </c>
+      <c r="F535" t="s">
+        <v>1745</v>
       </c>
       <c r="I535"/>
       <c r="J535"/>
@@ -25768,7 +25963,7 @@
         <v>1822</v>
       </c>
       <c r="E536" t="s">
-        <v>1753</v>
+        <v>1747</v>
       </c>
       <c r="I536"/>
       <c r="J536"/>
@@ -25778,7 +25973,7 @@
         <v>1824</v>
       </c>
       <c r="E537" t="s">
-        <v>1755</v>
+        <v>1749</v>
       </c>
       <c r="I537"/>
       <c r="J537"/>
@@ -25788,7 +25983,7 @@
         <v>1826</v>
       </c>
       <c r="E538" t="s">
-        <v>1757</v>
+        <v>1751</v>
       </c>
       <c r="I538"/>
       <c r="J538"/>
@@ -25798,7 +25993,7 @@
         <v>1828</v>
       </c>
       <c r="E539" t="s">
-        <v>1759</v>
+        <v>1753</v>
       </c>
       <c r="I539"/>
       <c r="J539"/>
@@ -25808,7 +26003,7 @@
         <v>1830</v>
       </c>
       <c r="E540" t="s">
-        <v>1761</v>
+        <v>1755</v>
       </c>
       <c r="I540"/>
       <c r="J540"/>
@@ -25818,7 +26013,7 @@
         <v>1832</v>
       </c>
       <c r="E541" t="s">
-        <v>1763</v>
+        <v>1757</v>
       </c>
       <c r="I541"/>
       <c r="J541"/>
@@ -25828,7 +26023,7 @@
         <v>1834</v>
       </c>
       <c r="E542" t="s">
-        <v>1765</v>
+        <v>1759</v>
       </c>
       <c r="I542"/>
       <c r="J542"/>
@@ -25838,7 +26033,7 @@
         <v>1836</v>
       </c>
       <c r="E543" t="s">
-        <v>1767</v>
+        <v>1761</v>
       </c>
       <c r="I543"/>
       <c r="J543"/>
@@ -25848,7 +26043,7 @@
         <v>1838</v>
       </c>
       <c r="E544" t="s">
-        <v>1769</v>
+        <v>1763</v>
       </c>
       <c r="I544"/>
       <c r="J544"/>
@@ -25858,7 +26053,7 @@
         <v>1840</v>
       </c>
       <c r="E545" t="s">
-        <v>1771</v>
+        <v>1765</v>
       </c>
       <c r="I545"/>
       <c r="J545"/>
@@ -25868,7 +26063,7 @@
         <v>1842</v>
       </c>
       <c r="E546" t="s">
-        <v>1773</v>
+        <v>1767</v>
       </c>
       <c r="I546"/>
       <c r="J546"/>
@@ -25878,7 +26073,7 @@
         <v>1844</v>
       </c>
       <c r="E547" t="s">
-        <v>1775</v>
+        <v>1769</v>
       </c>
       <c r="I547"/>
       <c r="J547"/>
@@ -25888,7 +26083,7 @@
         <v>1846</v>
       </c>
       <c r="E548" t="s">
-        <v>1777</v>
+        <v>1771</v>
       </c>
       <c r="I548"/>
       <c r="J548"/>
@@ -25898,7 +26093,7 @@
         <v>1848</v>
       </c>
       <c r="E549" t="s">
-        <v>1779</v>
+        <v>1773</v>
       </c>
       <c r="I549"/>
       <c r="J549"/>
@@ -25908,7 +26103,7 @@
         <v>1850</v>
       </c>
       <c r="E550" t="s">
-        <v>1781</v>
+        <v>1775</v>
       </c>
       <c r="I550"/>
       <c r="J550"/>
@@ -25918,7 +26113,7 @@
         <v>1852</v>
       </c>
       <c r="E551" t="s">
-        <v>1783</v>
+        <v>1777</v>
       </c>
       <c r="I551"/>
       <c r="J551"/>
@@ -25928,7 +26123,7 @@
         <v>1854</v>
       </c>
       <c r="E552" t="s">
-        <v>1785</v>
+        <v>1779</v>
       </c>
       <c r="I552"/>
       <c r="J552"/>
@@ -25938,7 +26133,7 @@
         <v>1856</v>
       </c>
       <c r="E553" t="s">
-        <v>1787</v>
+        <v>1781</v>
       </c>
       <c r="I553"/>
       <c r="J553"/>
@@ -25948,7 +26143,7 @@
         <v>1858</v>
       </c>
       <c r="E554" t="s">
-        <v>1789</v>
+        <v>1783</v>
       </c>
       <c r="I554"/>
       <c r="J554"/>
@@ -25958,7 +26153,7 @@
         <v>1860</v>
       </c>
       <c r="E555" t="s">
-        <v>1791</v>
+        <v>1785</v>
       </c>
       <c r="I555"/>
       <c r="J555"/>
@@ -25968,7 +26163,7 @@
         <v>1862</v>
       </c>
       <c r="E556" t="s">
-        <v>1793</v>
+        <v>1787</v>
       </c>
       <c r="I556"/>
       <c r="J556"/>
@@ -25978,7 +26173,7 @@
         <v>1864</v>
       </c>
       <c r="E557" t="s">
-        <v>1795</v>
+        <v>1789</v>
       </c>
       <c r="I557"/>
       <c r="J557"/>
@@ -25988,7 +26183,7 @@
         <v>1866</v>
       </c>
       <c r="E558" t="s">
-        <v>1797</v>
+        <v>1791</v>
       </c>
       <c r="I558"/>
       <c r="J558"/>
@@ -25998,7 +26193,7 @@
         <v>1868</v>
       </c>
       <c r="E559" t="s">
-        <v>1799</v>
+        <v>1793</v>
       </c>
       <c r="I559"/>
       <c r="J559"/>
@@ -26008,7 +26203,7 @@
         <v>1870</v>
       </c>
       <c r="E560" t="s">
-        <v>1801</v>
+        <v>1795</v>
       </c>
       <c r="I560"/>
       <c r="J560"/>
@@ -26018,7 +26213,7 @@
         <v>1872</v>
       </c>
       <c r="E561" t="s">
-        <v>1803</v>
+        <v>1797</v>
       </c>
       <c r="I561"/>
       <c r="J561"/>
@@ -26028,7 +26223,7 @@
         <v>1874</v>
       </c>
       <c r="E562" t="s">
-        <v>1805</v>
+        <v>1799</v>
       </c>
       <c r="I562"/>
       <c r="J562"/>
@@ -26038,7 +26233,7 @@
         <v>1876</v>
       </c>
       <c r="E563" t="s">
-        <v>1807</v>
+        <v>1801</v>
       </c>
       <c r="I563"/>
       <c r="J563"/>
@@ -26048,7 +26243,7 @@
         <v>1878</v>
       </c>
       <c r="E564" t="s">
-        <v>1809</v>
+        <v>1803</v>
       </c>
       <c r="I564"/>
       <c r="J564"/>
@@ -26058,7 +26253,7 @@
         <v>1880</v>
       </c>
       <c r="E565" t="s">
-        <v>1811</v>
+        <v>1805</v>
       </c>
       <c r="I565"/>
       <c r="J565"/>
@@ -26068,7 +26263,7 @@
         <v>1882</v>
       </c>
       <c r="E566" t="s">
-        <v>1813</v>
+        <v>1807</v>
       </c>
       <c r="I566"/>
       <c r="J566"/>
@@ -26078,7 +26273,7 @@
         <v>1884</v>
       </c>
       <c r="E567" t="s">
-        <v>1815</v>
+        <v>1809</v>
       </c>
       <c r="I567"/>
       <c r="J567"/>
@@ -26088,7 +26283,7 @@
         <v>1886</v>
       </c>
       <c r="E568" t="s">
-        <v>1817</v>
+        <v>1811</v>
       </c>
       <c r="I568"/>
       <c r="J568"/>
@@ -26098,7 +26293,7 @@
         <v>1888</v>
       </c>
       <c r="E569" t="s">
-        <v>1819</v>
+        <v>1813</v>
       </c>
       <c r="I569"/>
       <c r="J569"/>
@@ -26108,7 +26303,7 @@
         <v>1890</v>
       </c>
       <c r="E570" t="s">
-        <v>1821</v>
+        <v>1815</v>
       </c>
       <c r="I570"/>
       <c r="J570"/>
@@ -26118,7 +26313,7 @@
         <v>1892</v>
       </c>
       <c r="E571" t="s">
-        <v>1823</v>
+        <v>1817</v>
       </c>
       <c r="I571"/>
       <c r="J571"/>
@@ -26128,7 +26323,7 @@
         <v>1894</v>
       </c>
       <c r="E572" t="s">
-        <v>1825</v>
+        <v>1819</v>
       </c>
       <c r="I572"/>
       <c r="J572"/>
@@ -26138,7 +26333,7 @@
         <v>1896</v>
       </c>
       <c r="E573" t="s">
-        <v>1827</v>
+        <v>1821</v>
       </c>
       <c r="I573"/>
       <c r="J573"/>
@@ -26148,7 +26343,7 @@
         <v>1898</v>
       </c>
       <c r="E574" t="s">
-        <v>1829</v>
+        <v>1823</v>
       </c>
       <c r="I574"/>
       <c r="J574"/>
@@ -26158,7 +26353,7 @@
         <v>1900</v>
       </c>
       <c r="E575" t="s">
-        <v>1831</v>
+        <v>1825</v>
       </c>
       <c r="I575"/>
       <c r="J575"/>
@@ -26168,7 +26363,7 @@
         <v>1902</v>
       </c>
       <c r="E576" t="s">
-        <v>1833</v>
+        <v>1827</v>
       </c>
       <c r="I576"/>
       <c r="J576"/>
@@ -26178,7 +26373,7 @@
         <v>1904</v>
       </c>
       <c r="E577" t="s">
-        <v>1835</v>
+        <v>1829</v>
       </c>
       <c r="I577"/>
       <c r="J577"/>
@@ -26188,7 +26383,7 @@
         <v>1906</v>
       </c>
       <c r="E578" t="s">
-        <v>1837</v>
+        <v>1831</v>
       </c>
       <c r="I578"/>
       <c r="J578"/>
@@ -26198,7 +26393,7 @@
         <v>1908</v>
       </c>
       <c r="E579" t="s">
-        <v>1839</v>
+        <v>1833</v>
       </c>
       <c r="I579"/>
       <c r="J579"/>
@@ -26208,7 +26403,7 @@
         <v>1910</v>
       </c>
       <c r="E580" t="s">
-        <v>1841</v>
+        <v>1835</v>
       </c>
       <c r="I580"/>
       <c r="J580"/>
@@ -26218,7 +26413,7 @@
         <v>1912</v>
       </c>
       <c r="E581" t="s">
-        <v>1843</v>
+        <v>1837</v>
       </c>
       <c r="I581"/>
       <c r="J581"/>
@@ -26228,7 +26423,7 @@
         <v>1914</v>
       </c>
       <c r="E582" t="s">
-        <v>1845</v>
+        <v>1839</v>
       </c>
       <c r="I582"/>
       <c r="J582"/>
@@ -26238,7 +26433,7 @@
         <v>1916</v>
       </c>
       <c r="E583" t="s">
-        <v>1847</v>
+        <v>1841</v>
       </c>
       <c r="I583"/>
       <c r="J583"/>
@@ -26248,7 +26443,7 @@
         <v>1918</v>
       </c>
       <c r="E584" t="s">
-        <v>1849</v>
+        <v>1843</v>
       </c>
       <c r="I584"/>
       <c r="J584"/>
@@ -26258,7 +26453,7 @@
         <v>1920</v>
       </c>
       <c r="E585" t="s">
-        <v>1851</v>
+        <v>1845</v>
       </c>
       <c r="I585"/>
       <c r="J585"/>
@@ -26268,7 +26463,7 @@
         <v>1922</v>
       </c>
       <c r="E586" t="s">
-        <v>1853</v>
+        <v>1847</v>
       </c>
       <c r="I586"/>
       <c r="J586"/>
@@ -26278,7 +26473,7 @@
         <v>1924</v>
       </c>
       <c r="E587" t="s">
-        <v>1855</v>
+        <v>1849</v>
       </c>
       <c r="I587"/>
       <c r="J587"/>
@@ -26288,7 +26483,7 @@
         <v>1926</v>
       </c>
       <c r="E588" t="s">
-        <v>1857</v>
+        <v>1851</v>
       </c>
       <c r="I588"/>
       <c r="J588"/>
@@ -26298,7 +26493,7 @@
         <v>1928</v>
       </c>
       <c r="E589" t="s">
-        <v>1859</v>
+        <v>1853</v>
       </c>
       <c r="I589"/>
       <c r="J589"/>
@@ -26308,7 +26503,7 @@
         <v>1930</v>
       </c>
       <c r="E590" t="s">
-        <v>1861</v>
+        <v>1855</v>
       </c>
       <c r="I590"/>
       <c r="J590"/>
@@ -26318,7 +26513,7 @@
         <v>1932</v>
       </c>
       <c r="E591" t="s">
-        <v>1863</v>
+        <v>1857</v>
       </c>
       <c r="I591"/>
       <c r="J591"/>
@@ -26328,7 +26523,7 @@
         <v>1934</v>
       </c>
       <c r="E592" t="s">
-        <v>1865</v>
+        <v>1859</v>
       </c>
       <c r="I592"/>
       <c r="J592"/>
@@ -26338,7 +26533,7 @@
         <v>1936</v>
       </c>
       <c r="E593" t="s">
-        <v>1867</v>
+        <v>1861</v>
       </c>
       <c r="I593"/>
       <c r="J593"/>
@@ -26348,7 +26543,7 @@
         <v>1938</v>
       </c>
       <c r="E594" t="s">
-        <v>1869</v>
+        <v>1863</v>
       </c>
       <c r="I594"/>
       <c r="J594"/>
@@ -26358,7 +26553,7 @@
         <v>1940</v>
       </c>
       <c r="E595" t="s">
-        <v>1871</v>
+        <v>1865</v>
       </c>
       <c r="I595"/>
       <c r="J595"/>
@@ -26368,7 +26563,7 @@
         <v>1942</v>
       </c>
       <c r="E596" t="s">
-        <v>1873</v>
+        <v>1867</v>
       </c>
       <c r="I596"/>
       <c r="J596"/>
@@ -26378,7 +26573,7 @@
         <v>1944</v>
       </c>
       <c r="E597" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
       <c r="I597"/>
       <c r="J597"/>
@@ -26388,7 +26583,7 @@
         <v>1946</v>
       </c>
       <c r="E598" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
       <c r="I598"/>
       <c r="J598"/>
@@ -26398,7 +26593,7 @@
         <v>1948</v>
       </c>
       <c r="E599" t="s">
-        <v>1879</v>
+        <v>1873</v>
       </c>
       <c r="I599"/>
       <c r="J599"/>
@@ -26408,7 +26603,7 @@
         <v>1950</v>
       </c>
       <c r="E600" t="s">
-        <v>1881</v>
+        <v>1875</v>
       </c>
       <c r="I600"/>
       <c r="J600"/>
@@ -26418,7 +26613,7 @@
         <v>1952</v>
       </c>
       <c r="E601" t="s">
-        <v>1883</v>
+        <v>1877</v>
       </c>
       <c r="I601"/>
       <c r="J601"/>
@@ -26428,7 +26623,7 @@
         <v>1954</v>
       </c>
       <c r="E602" t="s">
-        <v>1885</v>
+        <v>1879</v>
       </c>
       <c r="I602"/>
       <c r="J602"/>
@@ -26438,7 +26633,7 @@
         <v>1956</v>
       </c>
       <c r="E603" t="s">
-        <v>1887</v>
+        <v>1881</v>
       </c>
       <c r="I603"/>
       <c r="J603"/>
@@ -26448,7 +26643,7 @@
         <v>1958</v>
       </c>
       <c r="E604" t="s">
-        <v>1889</v>
+        <v>1883</v>
       </c>
       <c r="I604"/>
       <c r="J604"/>
@@ -26458,7 +26653,7 @@
         <v>523</v>
       </c>
       <c r="E605" t="s">
-        <v>1891</v>
+        <v>1885</v>
       </c>
       <c r="I605"/>
       <c r="J605"/>
@@ -26468,7 +26663,7 @@
         <v>1960</v>
       </c>
       <c r="E606" t="s">
-        <v>1893</v>
+        <v>1887</v>
       </c>
       <c r="I606"/>
       <c r="J606"/>
@@ -26478,7 +26673,7 @@
         <v>1962</v>
       </c>
       <c r="E607" t="s">
-        <v>1895</v>
+        <v>1889</v>
       </c>
       <c r="I607"/>
       <c r="J607"/>
@@ -26488,7 +26683,7 @@
         <v>2084</v>
       </c>
       <c r="E608" t="s">
-        <v>1897</v>
+        <v>1891</v>
       </c>
       <c r="I608"/>
       <c r="J608"/>
@@ -26498,7 +26693,7 @@
         <v>2085</v>
       </c>
       <c r="E609" t="s">
-        <v>1899</v>
+        <v>1893</v>
       </c>
       <c r="I609"/>
       <c r="J609"/>
@@ -26508,7 +26703,7 @@
         <v>2086</v>
       </c>
       <c r="E610" t="s">
-        <v>1901</v>
+        <v>1895</v>
       </c>
       <c r="I610"/>
       <c r="J610"/>
@@ -26518,7 +26713,7 @@
         <v>2087</v>
       </c>
       <c r="E611" t="s">
-        <v>1903</v>
+        <v>1897</v>
       </c>
       <c r="I611"/>
       <c r="J611"/>
@@ -26528,7 +26723,7 @@
         <v>2744</v>
       </c>
       <c r="E612" t="s">
-        <v>1905</v>
+        <v>1899</v>
       </c>
       <c r="I612"/>
       <c r="J612"/>
@@ -26538,7 +26733,7 @@
         <v>2095</v>
       </c>
       <c r="E613" t="s">
-        <v>1907</v>
+        <v>1901</v>
       </c>
       <c r="I613"/>
       <c r="J613"/>
@@ -26548,7 +26743,7 @@
         <v>2096</v>
       </c>
       <c r="E614" t="s">
-        <v>1909</v>
+        <v>1903</v>
       </c>
       <c r="I614"/>
       <c r="J614"/>
@@ -26558,7 +26753,7 @@
         <v>2097</v>
       </c>
       <c r="E615" t="s">
-        <v>1911</v>
+        <v>1905</v>
       </c>
       <c r="I615"/>
       <c r="J615"/>
@@ -26568,7 +26763,7 @@
         <v>2098</v>
       </c>
       <c r="E616" t="s">
-        <v>1913</v>
+        <v>1907</v>
       </c>
       <c r="I616"/>
       <c r="J616"/>
@@ -26578,7 +26773,7 @@
         <v>2099</v>
       </c>
       <c r="E617" t="s">
-        <v>1915</v>
+        <v>1909</v>
       </c>
       <c r="I617"/>
       <c r="J617"/>
@@ -26588,7 +26783,7 @@
         <v>2185</v>
       </c>
       <c r="E618" t="s">
-        <v>1917</v>
+        <v>1911</v>
       </c>
       <c r="I618"/>
       <c r="J618"/>
@@ -26598,7 +26793,7 @@
         <v>2186</v>
       </c>
       <c r="E619" t="s">
-        <v>1919</v>
+        <v>1913</v>
       </c>
       <c r="I619"/>
       <c r="J619"/>
@@ -26608,7 +26803,7 @@
         <v>2187</v>
       </c>
       <c r="E620" t="s">
-        <v>1921</v>
+        <v>1915</v>
       </c>
       <c r="I620"/>
       <c r="J620"/>
@@ -26618,7 +26813,7 @@
         <v>2745</v>
       </c>
       <c r="E621" t="s">
-        <v>1923</v>
+        <v>1917</v>
       </c>
       <c r="I621"/>
       <c r="J621"/>
@@ -26628,203 +26823,233 @@
         <v>2746</v>
       </c>
       <c r="E622" t="s">
-        <v>1925</v>
-      </c>
+        <v>1919</v>
+      </c>
+      <c r="I622"/>
+      <c r="J622"/>
     </row>
     <row r="623" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A623" s="16" t="s">
         <v>2747</v>
       </c>
       <c r="E623" t="s">
-        <v>1927</v>
-      </c>
+        <v>1921</v>
+      </c>
+      <c r="I623"/>
+      <c r="J623"/>
     </row>
     <row r="624" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A624" s="16" t="s">
         <v>2748</v>
       </c>
       <c r="E624" t="s">
-        <v>1929</v>
-      </c>
-    </row>
-    <row r="625" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1923</v>
+      </c>
+      <c r="I624"/>
+      <c r="J624"/>
+    </row>
+    <row r="625" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A625" s="16" t="s">
         <v>2749</v>
       </c>
       <c r="E625" t="s">
-        <v>1931</v>
-      </c>
-    </row>
-    <row r="626" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="626" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A626" s="16" t="s">
         <v>2750</v>
       </c>
       <c r="E626" t="s">
-        <v>1933</v>
-      </c>
-    </row>
-    <row r="627" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="627" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A627" s="16" t="s">
         <v>2751</v>
       </c>
       <c r="E627" t="s">
-        <v>1935</v>
-      </c>
-      <c r="F627" t="s">
-        <v>2830</v>
-      </c>
-    </row>
-    <row r="628" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="628" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A628" s="16" t="s">
         <v>2752</v>
       </c>
       <c r="E628" t="s">
-        <v>1937</v>
-      </c>
-    </row>
-    <row r="629" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="629" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A629" s="16" t="s">
         <v>2753</v>
       </c>
       <c r="E629" t="s">
-        <v>1939</v>
-      </c>
-    </row>
-    <row r="630" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="630" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A630" s="16" t="s">
         <v>2754</v>
       </c>
       <c r="E630" t="s">
-        <v>1941</v>
-      </c>
-    </row>
-    <row r="631" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1935</v>
+      </c>
+      <c r="F630" t="s">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="631" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A631" s="16" t="s">
         <v>2755</v>
       </c>
       <c r="E631" t="s">
-        <v>1943</v>
-      </c>
-    </row>
-    <row r="632" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="632" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A632" s="16" t="s">
         <v>2756</v>
       </c>
       <c r="E632" t="s">
-        <v>1945</v>
-      </c>
-    </row>
-    <row r="633" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="633" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A633" s="16" t="s">
         <v>2757</v>
       </c>
       <c r="E633" t="s">
-        <v>1947</v>
-      </c>
-      <c r="I633"/>
-      <c r="J633"/>
-    </row>
-    <row r="634" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="634" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A634" s="16" t="s">
         <v>2758</v>
       </c>
       <c r="E634" t="s">
-        <v>1949</v>
-      </c>
-      <c r="I634"/>
-      <c r="J634"/>
-    </row>
-    <row r="635" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="635" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A635" s="16" t="s">
         <v>2853</v>
       </c>
       <c r="E635" t="s">
-        <v>1951</v>
-      </c>
-      <c r="I635"/>
-      <c r="J635"/>
-    </row>
-    <row r="636" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="636" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A636" s="16" t="s">
         <v>2854</v>
       </c>
       <c r="E636" t="s">
-        <v>1953</v>
+        <v>1947</v>
       </c>
       <c r="I636"/>
       <c r="J636"/>
     </row>
-    <row r="637" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A637" s="16" t="s">
         <v>2855</v>
       </c>
       <c r="E637" t="s">
-        <v>1955</v>
+        <v>1949</v>
       </c>
       <c r="I637"/>
       <c r="J637"/>
     </row>
-    <row r="638" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A638" s="16" t="s">
         <v>2856</v>
       </c>
       <c r="E638" t="s">
-        <v>1957</v>
-      </c>
-      <c r="F638" t="s">
-        <v>2835</v>
+        <v>1951</v>
       </c>
       <c r="I638"/>
       <c r="J638"/>
-      <c r="M638" s="37" t="s">
-        <v>2836</v>
-      </c>
-    </row>
-    <row r="639" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="639" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A639" s="16" t="s">
         <v>2882</v>
       </c>
       <c r="E639" t="s">
-        <v>2837</v>
-      </c>
-      <c r="F639" t="s">
-        <v>2147</v>
+        <v>1953</v>
       </c>
       <c r="I639"/>
       <c r="J639"/>
     </row>
-    <row r="640" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A640" s="16" t="s">
         <v>2883</v>
       </c>
       <c r="E640" t="s">
-        <v>1959</v>
+        <v>1955</v>
       </c>
       <c r="I640"/>
       <c r="J640"/>
-      <c r="M640" s="37" t="s">
-        <v>2394</v>
-      </c>
-    </row>
-    <row r="641" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="641" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A641" s="16" t="s">
         <v>2888</v>
       </c>
       <c r="E641" t="s">
-        <v>1961</v>
+        <v>1957</v>
+      </c>
+      <c r="F641" t="s">
+        <v>2835</v>
       </c>
       <c r="I641"/>
       <c r="J641"/>
-    </row>
-    <row r="642" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="M641" s="37" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="642" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A642" s="16" t="s">
         <v>2899</v>
       </c>
       <c r="E642" t="s">
-        <v>1963</v>
+        <v>2837</v>
+      </c>
+      <c r="F642" t="s">
+        <v>2147</v>
       </c>
       <c r="I642"/>
       <c r="J642"/>
+    </row>
+    <row r="643" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A643" s="16" t="s">
+        <v>2918</v>
+      </c>
+      <c r="E643" t="s">
+        <v>1959</v>
+      </c>
+      <c r="I643"/>
+      <c r="J643"/>
+      <c r="M643" s="37" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="644" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A644" s="16" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E644" t="s">
+        <v>1961</v>
+      </c>
+      <c r="I644"/>
+      <c r="J644"/>
+    </row>
+    <row r="645" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A645" s="16" t="s">
+        <v>2920</v>
+      </c>
+      <c r="E645" t="s">
+        <v>1963</v>
+      </c>
+      <c r="I645"/>
+      <c r="J645"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -26842,7 +27067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
@@ -27907,10 +28132,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K231"/>
+  <dimension ref="A1:K234"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A223" sqref="A223:A231"/>
+    <sheetView topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="A226" sqref="A226:A234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34309,25 +34534,46 @@
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A222" s="1"/>
-      <c r="B222" s="1"/>
-      <c r="C222" s="36"/>
-      <c r="D222"/>
-      <c r="F222" s="8"/>
-      <c r="G222" s="1"/>
+      <c r="A222" s="1" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C222" s="50" t="s">
+        <v>2905</v>
+      </c>
+      <c r="D222" t="s">
+        <v>2906</v>
+      </c>
+      <c r="E222" t="s">
+        <v>2157</v>
+      </c>
+      <c r="F222" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="G222" s="1">
+        <v>2021</v>
+      </c>
+      <c r="I222" t="s">
+        <v>2402</v>
+      </c>
+      <c r="J222" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
-        <v>2242</v>
+        <v>2864</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="C223" t="s">
-        <v>831</v>
+      <c r="C223" s="50" t="s">
+        <v>2909</v>
       </c>
       <c r="D223" t="s">
-        <v>832</v>
+        <v>2910</v>
       </c>
       <c r="E223" t="s">
         <v>2157</v>
@@ -34336,10 +34582,10 @@
         <v>642</v>
       </c>
       <c r="G223" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="I223" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
       <c r="J223" t="s">
         <v>643</v>
@@ -34347,16 +34593,16 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="C224" t="s">
-        <v>833</v>
+      <c r="C224" s="50" t="s">
+        <v>2913</v>
       </c>
       <c r="D224" t="s">
-        <v>832</v>
+        <v>2914</v>
       </c>
       <c r="E224" t="s">
         <v>2157</v>
@@ -34365,43 +34611,22 @@
         <v>642</v>
       </c>
       <c r="G224" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="I224" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
       <c r="J224" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A225" s="1" t="s">
-        <v>2865</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="C225" t="s">
-        <v>834</v>
-      </c>
-      <c r="D225" t="s">
-        <v>670</v>
-      </c>
-      <c r="E225" t="s">
-        <v>2157</v>
-      </c>
-      <c r="F225" s="8" t="s">
-        <v>642</v>
-      </c>
-      <c r="G225" s="1">
-        <v>2020</v>
-      </c>
-      <c r="I225" t="s">
-        <v>2401</v>
-      </c>
-      <c r="J225" t="s">
-        <v>643</v>
-      </c>
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
+      <c r="C225" s="36"/>
+      <c r="D225"/>
+      <c r="F225" s="8"/>
+      <c r="G225" s="1"/>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
@@ -34411,10 +34636,10 @@
         <v>639</v>
       </c>
       <c r="C226" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="D226" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="E226" t="s">
         <v>2157</v>
@@ -34440,10 +34665,10 @@
         <v>639</v>
       </c>
       <c r="C227" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="D227" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="E227" t="s">
         <v>2157</v>
@@ -34466,22 +34691,25 @@
         <v>2884</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>2158</v>
-      </c>
-      <c r="C228" s="24" t="s">
-        <v>2831</v>
-      </c>
-      <c r="D228" s="24" t="s">
-        <v>2832</v>
+        <v>639</v>
+      </c>
+      <c r="C228" t="s">
+        <v>834</v>
+      </c>
+      <c r="D228" t="s">
+        <v>670</v>
       </c>
       <c r="E228" t="s">
-        <v>2195</v>
+        <v>2157</v>
       </c>
       <c r="F228" s="8" t="s">
         <v>642</v>
       </c>
       <c r="G228" s="1">
         <v>2020</v>
+      </c>
+      <c r="I228" t="s">
+        <v>2401</v>
       </c>
       <c r="J228" t="s">
         <v>643</v>
@@ -34492,22 +34720,25 @@
         <v>2885</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>2158</v>
-      </c>
-      <c r="C229" s="24" t="s">
-        <v>2149</v>
-      </c>
-      <c r="D229" s="24" t="s">
-        <v>2150</v>
+        <v>639</v>
+      </c>
+      <c r="C229" t="s">
+        <v>835</v>
+      </c>
+      <c r="D229" t="s">
+        <v>836</v>
       </c>
       <c r="E229" t="s">
-        <v>2195</v>
+        <v>2157</v>
       </c>
       <c r="F229" s="8" t="s">
         <v>642</v>
       </c>
       <c r="G229" s="1">
         <v>2020</v>
+      </c>
+      <c r="I229" t="s">
+        <v>2401</v>
       </c>
       <c r="J229" t="s">
         <v>643</v>
@@ -34518,22 +34749,25 @@
         <v>2891</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>2158</v>
-      </c>
-      <c r="C230" s="24" t="s">
-        <v>2153</v>
-      </c>
-      <c r="D230" s="24" t="s">
-        <v>2154</v>
+        <v>639</v>
+      </c>
+      <c r="C230" t="s">
+        <v>837</v>
+      </c>
+      <c r="D230" t="s">
+        <v>836</v>
       </c>
       <c r="E230" t="s">
-        <v>2195</v>
+        <v>2157</v>
       </c>
       <c r="F230" s="8" t="s">
         <v>642</v>
       </c>
       <c r="G230" s="1">
         <v>2020</v>
+      </c>
+      <c r="I230" t="s">
+        <v>2401</v>
       </c>
       <c r="J230" t="s">
         <v>643</v>
@@ -34547,10 +34781,10 @@
         <v>2158</v>
       </c>
       <c r="C231" s="24" t="s">
-        <v>2834</v>
+        <v>2831</v>
       </c>
       <c r="D231" s="24" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E231" t="s">
         <v>2195</v>
@@ -34562,6 +34796,84 @@
         <v>2020</v>
       </c>
       <c r="J231" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A232" s="1" t="s">
+        <v>2921</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C232" s="24" t="s">
+        <v>2149</v>
+      </c>
+      <c r="D232" s="24" t="s">
+        <v>2150</v>
+      </c>
+      <c r="E232" t="s">
+        <v>2195</v>
+      </c>
+      <c r="F232" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="G232" s="1">
+        <v>2020</v>
+      </c>
+      <c r="J232" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A233" s="1" t="s">
+        <v>2922</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C233" s="24" t="s">
+        <v>2153</v>
+      </c>
+      <c r="D233" s="24" t="s">
+        <v>2154</v>
+      </c>
+      <c r="E233" t="s">
+        <v>2195</v>
+      </c>
+      <c r="F233" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="G233" s="1">
+        <v>2020</v>
+      </c>
+      <c r="J233" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A234" s="1" t="s">
+        <v>2923</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C234" s="24" t="s">
+        <v>2834</v>
+      </c>
+      <c r="D234" s="24" t="s">
+        <v>2833</v>
+      </c>
+      <c r="E234" t="s">
+        <v>2195</v>
+      </c>
+      <c r="F234" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="G234" s="1">
+        <v>2020</v>
+      </c>
+      <c r="J234" t="s">
         <v>643</v>
       </c>
     </row>

--- a/tmee/data_in/data_dictionary/indicator_dictionary_TM_v5.xlsx
+++ b/tmee/data_in/data_dictionary/indicator_dictionary_TM_v5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16f1c7c3db740efb/UNICEF/TransMonEE/data-etl/tmee/data_in/data_dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="154" documentId="13_ncr:1_{0D7C4ACD-3B96-48F3-99D4-5E393553EB86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{89FDB992-444E-4F26-BB5F-C47141965BEF}"/>
+  <xr:revisionPtr revIDLastSave="157" documentId="13_ncr:1_{0D7C4ACD-3B96-48F3-99D4-5E393553EB86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8806B824-3422-47AE-B502-27CA73A00B97}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Snapshot" sheetId="1" r:id="rId1"/>
@@ -8728,9 +8728,6 @@
     <t>UNPD population</t>
   </si>
   <si>
-    <t>Total population by age</t>
-  </si>
-  <si>
     <t>DM_POP_TOT_AGE</t>
   </si>
   <si>
@@ -8816,6 +8813,9 @@
   </si>
   <si>
     <t>S-232</t>
+  </si>
+  <si>
+    <t>Total population by age (expressed in thousands)</t>
   </si>
 </sst>
 </file>
@@ -9562,7 +9562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+    <sheetView topLeftCell="A211" workbookViewId="0">
       <selection activeCell="H222" sqref="H222:H224"/>
     </sheetView>
   </sheetViews>
@@ -9699,7 +9699,7 @@
       </c>
       <c r="C4" s="33" t="str">
         <f>VLOOKUP(B4,Indicator!$A$2:$F$105,5,FALSE)</f>
-        <v>Total population by age</v>
+        <v>Total population by age (expressed in thousands)</v>
       </c>
       <c r="D4" s="25" t="str">
         <f>VLOOKUP(B4,Indicator!$A$2:$F$105,6,FALSE)</f>
@@ -17039,7 +17039,7 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="B221" s="16" t="s">
         <v>1440</v>
@@ -17072,7 +17072,7 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="B222" s="16" t="s">
         <v>1443</v>
@@ -17105,7 +17105,7 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="B223" s="16" t="s">
         <v>1818</v>
@@ -17138,7 +17138,7 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="B224" s="16" t="s">
         <v>1820</v>
@@ -17706,9 +17706,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M645"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A276" sqref="A276:A645"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18284,10 +18284,10 @@
         <v>2893</v>
       </c>
       <c r="E23" s="33" t="s">
+        <v>2923</v>
+      </c>
+      <c r="F23" s="56" t="s">
         <v>2894</v>
-      </c>
-      <c r="F23" s="56" t="s">
-        <v>2895</v>
       </c>
       <c r="M23" s="36"/>
     </row>
@@ -23380,10 +23380,10 @@
         <v>2843</v>
       </c>
       <c r="E272" s="50" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="F272" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.35">
@@ -23400,10 +23400,10 @@
         <v>2423</v>
       </c>
       <c r="E273" s="50" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="F273" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.35">
@@ -23420,10 +23420,10 @@
         <v>2423</v>
       </c>
       <c r="E274" s="50" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="F274" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.35">
@@ -27007,7 +27007,7 @@
     </row>
     <row r="642" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A642" s="16" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="E642" t="s">
         <v>2837</v>
@@ -27020,7 +27020,7 @@
     </row>
     <row r="643" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A643" s="16" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="E643" t="s">
         <v>1959</v>
@@ -27033,7 +27033,7 @@
     </row>
     <row r="644" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A644" s="16" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="E644" t="s">
         <v>1961</v>
@@ -27043,7 +27043,7 @@
     </row>
     <row r="645" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A645" s="16" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="E645" t="s">
         <v>1963</v>
@@ -27753,10 +27753,10 @@
         <v>2341</v>
       </c>
       <c r="G34" s="25" t="s">
+        <v>2900</v>
+      </c>
+      <c r="H34" s="25" t="s">
         <v>2901</v>
-      </c>
-      <c r="H34" s="25" t="s">
-        <v>2902</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -28288,10 +28288,10 @@
         <v>639</v>
       </c>
       <c r="C6" s="32" t="s">
+        <v>2895</v>
+      </c>
+      <c r="D6" t="s">
         <v>2896</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2897</v>
       </c>
       <c r="E6" t="s">
         <v>2157</v>
@@ -34541,10 +34541,10 @@
         <v>639</v>
       </c>
       <c r="C222" s="50" t="s">
+        <v>2904</v>
+      </c>
+      <c r="D222" t="s">
         <v>2905</v>
-      </c>
-      <c r="D222" t="s">
-        <v>2906</v>
       </c>
       <c r="E222" t="s">
         <v>2157</v>
@@ -34570,10 +34570,10 @@
         <v>639</v>
       </c>
       <c r="C223" s="50" t="s">
+        <v>2908</v>
+      </c>
+      <c r="D223" t="s">
         <v>2909</v>
-      </c>
-      <c r="D223" t="s">
-        <v>2910</v>
       </c>
       <c r="E223" t="s">
         <v>2157</v>
@@ -34599,10 +34599,10 @@
         <v>639</v>
       </c>
       <c r="C224" s="50" t="s">
+        <v>2912</v>
+      </c>
+      <c r="D224" t="s">
         <v>2913</v>
-      </c>
-      <c r="D224" t="s">
-        <v>2914</v>
       </c>
       <c r="E224" t="s">
         <v>2157</v>
@@ -34775,7 +34775,7 @@
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>2158</v>
@@ -34801,7 +34801,7 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>2158</v>
@@ -34827,7 +34827,7 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>2158</v>
@@ -34853,7 +34853,7 @@
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>2158</v>

--- a/tmee/data_in/data_dictionary/indicator_dictionary_TM_v5.xlsx
+++ b/tmee/data_in/data_dictionary/indicator_dictionary_TM_v5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16f1c7c3db740efb/UNICEF/TransMonEE/data-etl/tmee/data_in/data_dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="157" documentId="13_ncr:1_{0D7C4ACD-3B96-48F3-99D4-5E393553EB86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8806B824-3422-47AE-B502-27CA73A00B97}"/>
+  <xr:revisionPtr revIDLastSave="158" documentId="13_ncr:1_{0D7C4ACD-3B96-48F3-99D4-5E393553EB86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{101F90D7-90F4-4ACD-B8AA-B07895A081FC}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Snapshot" sheetId="1" r:id="rId1"/>
@@ -8749,9 +8749,6 @@
     <t>Persons (by sex and age)</t>
   </si>
   <si>
-    <t>Customized for UNPD population. To my best understanding is estimated: have no references about method and frequency of collection</t>
-  </si>
-  <si>
     <t>EDUNF_SAP_L2_GLAST</t>
   </si>
   <si>
@@ -8816,6 +8813,9 @@
   </si>
   <si>
     <t>Total population by age (expressed in thousands)</t>
+  </si>
+  <si>
+    <t>Customized for UNPD population. Not sure if ALL observations are estimated (e.g. OBS_STATUS in Helix are either PR:projections or not specified). Further research: UNPD references about methods and frequency of collection.</t>
   </si>
 </sst>
 </file>
@@ -17072,7 +17072,7 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="B222" s="16" t="s">
         <v>1443</v>
@@ -17105,7 +17105,7 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="B223" s="16" t="s">
         <v>1818</v>
@@ -17138,7 +17138,7 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="B224" s="16" t="s">
         <v>1820</v>
@@ -17706,7 +17706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M645"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
@@ -18284,7 +18284,7 @@
         <v>2893</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="F23" s="56" t="s">
         <v>2894</v>
@@ -23380,10 +23380,10 @@
         <v>2843</v>
       </c>
       <c r="E272" s="50" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="F272" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.35">
@@ -23400,10 +23400,10 @@
         <v>2423</v>
       </c>
       <c r="E273" s="50" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="F273" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.35">
@@ -23420,10 +23420,10 @@
         <v>2423</v>
       </c>
       <c r="E274" s="50" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="F274" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.35">
@@ -27020,7 +27020,7 @@
     </row>
     <row r="643" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A643" s="16" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="E643" t="s">
         <v>1959</v>
@@ -27033,7 +27033,7 @@
     </row>
     <row r="644" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A644" s="16" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="E644" t="s">
         <v>1961</v>
@@ -27043,7 +27043,7 @@
     </row>
     <row r="645" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A645" s="16" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="E645" t="s">
         <v>1963</v>
@@ -27067,8 +27067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27756,7 +27756,7 @@
         <v>2900</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>2901</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -34541,10 +34541,10 @@
         <v>639</v>
       </c>
       <c r="C222" s="50" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D222" t="s">
         <v>2904</v>
-      </c>
-      <c r="D222" t="s">
-        <v>2905</v>
       </c>
       <c r="E222" t="s">
         <v>2157</v>
@@ -34570,10 +34570,10 @@
         <v>639</v>
       </c>
       <c r="C223" s="50" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D223" t="s">
         <v>2908</v>
-      </c>
-      <c r="D223" t="s">
-        <v>2909</v>
       </c>
       <c r="E223" t="s">
         <v>2157</v>
@@ -34599,10 +34599,10 @@
         <v>639</v>
       </c>
       <c r="C224" s="50" t="s">
+        <v>2911</v>
+      </c>
+      <c r="D224" t="s">
         <v>2912</v>
-      </c>
-      <c r="D224" t="s">
-        <v>2913</v>
       </c>
       <c r="E224" t="s">
         <v>2157</v>
@@ -34801,7 +34801,7 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>2158</v>
@@ -34827,7 +34827,7 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>2158</v>
@@ -34853,7 +34853,7 @@
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>2158</v>
